--- a/stores.xlsx
+++ b/stores.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +16,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="168" formatCode="DD/MM/YYYY"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -25,46 +32,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001a064d"/>
+        <bgColor rgb="001a064d"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -79,15 +73,13 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -162,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +194,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -236,7 +228,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -271,10 +262,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -452,128 +442,151 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U422"/>
+  <dimension ref="A1:U423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="18" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>DATA DE CADASTRO</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>DATA DE APROVAÇÃO</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>ESTABELECIMENTO NOME1</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>ESTABELECIMENTO CPF/CNPJ</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>RESPONSÁVEL DO ESTABELECIMENTO</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>RESPONSÁVEL E-MAIL</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>RESPONSÁVEL CPF/CNPJ</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>RESPONSÁVEL TELEFONE</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>REPRESENTANTE NOME1</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>PORTAL</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>PAGSEGURO</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>PAGSEGURO EMAIL</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>SUB</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BANKING</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>PLANO PAG</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>P S</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Faturamento Dezembro</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Faturamento Janeiro</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Faturamento Fevereiro</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Média de Faturamento</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>09/10/2022</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>DUALPAY</t>
@@ -643,15 +656,13 @@
       <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>17/10/2022</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>18/10/2022</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>44852</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -728,15 +739,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>21/10/2022</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>09/11/2022</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>44874</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -807,15 +816,13 @@
       <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>22/10/2022</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>02/02/2023</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -892,15 +899,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>22/10/2022</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>09/02/2023</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>44966</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -977,15 +982,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>22/10/2022</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10/02/2023</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1056,15 +1059,13 @@
       <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>22/10/2022</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>16/01/2023</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1139,15 +1140,13 @@
       <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>22/10/2022</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>24/01/2024</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>45315</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1218,15 +1217,13 @@
       <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>22/10/2022</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>04/02/2023</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>44961</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1301,15 +1298,13 @@
       <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>22/10/2022</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>03/02/2023</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>44960</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1386,12 +1381,12 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>22/10/2022</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>FREDERICO COSTA DE MORAES</t>
@@ -1461,12 +1456,12 @@
       <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>22/10/2022</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" s="2" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>BRUNO DE AQUINO SILVA</t>
@@ -1536,15 +1531,13 @@
       <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>22/10/2022</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>19/07/2023</t>
-        </is>
+      <c r="B14" s="2" t="n">
+        <v>45126</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1621,15 +1614,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>22/10/2022</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>30/05/2023</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>45076</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1704,15 +1695,13 @@
       <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>22/10/2022</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>09/02/2023</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>44966</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1789,15 +1778,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>22/10/2022</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>10/01/2024</t>
-        </is>
+      <c r="B17" s="2" t="n">
+        <v>45301</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1868,15 +1855,13 @@
       <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>22/10/2022</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>19/01/2023</t>
-        </is>
+      <c r="B18" s="2" t="n">
+        <v>44945</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1953,12 +1938,12 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>23/10/2022</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>KIKITO CAFE LTDA</t>
@@ -2028,15 +2013,13 @@
       <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>23/10/2022</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>24/02/2023</t>
-        </is>
+      <c r="B20" s="2" t="n">
+        <v>44981</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2107,12 +2090,12 @@
       <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>23/10/2022</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>JAIZ BEZERRA VASCONCELOS</t>
@@ -2188,15 +2171,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>23/10/2022</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>08/03/2023</t>
-        </is>
+      <c r="B22" s="2" t="n">
+        <v>44993</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2267,15 +2248,13 @@
       <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>23/10/2022</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>10/06/2023</t>
-        </is>
+      <c r="B23" s="2" t="n">
+        <v>45087</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2356,12 +2335,12 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>23/10/2022</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" s="2" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>ELISMAR SANTOS DE SOUZA</t>
@@ -2435,15 +2414,13 @@
       <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>23/10/2022</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>20/09/2023</t>
-        </is>
+      <c r="B25" s="2" t="n">
+        <v>45189</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2520,12 +2497,12 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>23/10/2022</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>ARIOSMAR RODRIGUES DA SILVA</t>
@@ -2599,12 +2576,12 @@
       <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>23/10/2022</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" s="2" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>JOAO BARROS RODRIGUES</t>
@@ -2680,12 +2657,12 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>23/10/2022</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" s="2" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>TACIANA SILVA RIBEIRO</t>
@@ -2759,15 +2736,13 @@
       <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>24/10/2022</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>10/02/2023</t>
-        </is>
+      <c r="B29" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2842,15 +2817,13 @@
       <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>24/10/2022</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>14/02/2023</t>
-        </is>
+      <c r="B30" s="2" t="n">
+        <v>44971</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2925,15 +2898,13 @@
       <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>25/10/2022</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>28/02/2023</t>
-        </is>
+      <c r="B31" s="2" t="n">
+        <v>44985</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3008,15 +2979,13 @@
       <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>26/10/2022</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>26/10/2022</t>
-        </is>
+      <c r="B32" s="2" t="n">
+        <v>44860</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3087,12 +3056,12 @@
       <c r="U32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>26/10/2022</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>AUTO POSTO MIRANDA LTDA</t>
@@ -3168,15 +3137,13 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>26/10/2022</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>26/04/2023</t>
-        </is>
+      <c r="B34" s="2" t="n">
+        <v>45042</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3251,15 +3218,13 @@
       <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>26/10/2022</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>26/10/2022</t>
-        </is>
+      <c r="B35" s="2" t="n">
+        <v>44860</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -3336,15 +3301,13 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>31/10/2022</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>14/11/2022</t>
-        </is>
+      <c r="B36" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -3421,15 +3384,13 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>09/11/2022</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>29/11/2022</t>
-        </is>
+      <c r="B37" s="2" t="n">
+        <v>44894</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -3504,15 +3465,13 @@
       <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>24/11/2022</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>19/04/2024</t>
-        </is>
+      <c r="B38" s="2" t="n">
+        <v>45401</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -3554,11 +3513,7 @@
           <t>DESABILITADO</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>HABILITADO</t>
@@ -3593,15 +3548,13 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>28/11/2022</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>29/11/2022</t>
-        </is>
+      <c r="B39" s="2" t="n">
+        <v>44894</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -3676,15 +3629,13 @@
       <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>29/11/2022</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>29/11/2022</t>
-        </is>
+      <c r="B40" s="2" t="n">
+        <v>44894</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -3759,15 +3710,13 @@
       <c r="U40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>29/11/2022</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>29/11/2022</t>
-        </is>
+      <c r="B41" s="2" t="n">
+        <v>44894</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -3842,15 +3791,13 @@
       <c r="U41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>29/11/2022</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>29/11/2022</t>
-        </is>
+      <c r="B42" s="2" t="n">
+        <v>44894</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -3925,15 +3872,13 @@
       <c r="U42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>05/12/2022</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>09/01/2023</t>
-        </is>
+      <c r="B43" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -4004,15 +3949,13 @@
       <c r="U43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>07/12/2022</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>12/12/2022</t>
-        </is>
+      <c r="B44" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -4089,15 +4032,13 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>12/12/2022</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>12/12/2022</t>
-        </is>
+      <c r="B45" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -4172,15 +4113,13 @@
       <c r="U45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>13/12/2022</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>02/01/2023</t>
-        </is>
+      <c r="B46" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -4261,15 +4200,13 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>03/01/2023</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>09/01/2023</t>
-        </is>
+      <c r="B47" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -4348,15 +4285,13 @@
       <c r="U47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>05/01/2023</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>23/04/2023</t>
-        </is>
+      <c r="B48" s="2" t="n">
+        <v>45039</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -4431,15 +4366,13 @@
       <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>11/01/2023</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>12/01/2023</t>
-        </is>
+      <c r="B49" s="2" t="n">
+        <v>44938</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -4514,15 +4447,13 @@
       <c r="U49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>11/01/2023</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>11/01/2023</t>
-        </is>
+      <c r="B50" s="2" t="n">
+        <v>44937</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -4593,12 +4524,12 @@
       <c r="U50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>17/01/2023</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" s="2" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>CASA IGUACU COMERCIO DE PRODUTOS AGROPECUARIOS LTDA</t>
@@ -4668,15 +4599,13 @@
       <c r="U51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>23/01/2023</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>20/11/2023</t>
-        </is>
+      <c r="B52" s="2" t="n">
+        <v>45250</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -4751,15 +4680,13 @@
       <c r="U52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>23/01/2023</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>09/02/2023</t>
-        </is>
+      <c r="B53" s="2" t="n">
+        <v>44966</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -4834,15 +4761,13 @@
       <c r="U53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>01/02/2023</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>02/02/2023</t>
-        </is>
+      <c r="B54" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -4917,15 +4842,13 @@
       <c r="U54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>01/02/2023</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>09/02/2023</t>
-        </is>
+      <c r="B55" s="2" t="n">
+        <v>44966</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -5000,15 +4923,13 @@
       <c r="U55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>02/02/2023</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>02/02/2023</t>
-        </is>
+      <c r="B56" s="2" t="n">
+        <v>44959</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -5083,15 +5004,13 @@
       <c r="U56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>03/02/2023</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>03/02/2023</t>
-        </is>
+      <c r="B57" s="2" t="n">
+        <v>44960</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -5166,15 +5085,13 @@
       <c r="U57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>03/02/2023</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>03/02/2023</t>
-        </is>
+      <c r="B58" s="2" t="n">
+        <v>44960</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -5249,15 +5166,13 @@
       <c r="U58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>04/02/2023</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>05/02/2023</t>
-        </is>
+      <c r="B59" s="2" t="n">
+        <v>44962</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -5324,15 +5239,13 @@
       <c r="U59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>07/02/2023</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>07/02/2023</t>
-        </is>
+      <c r="B60" s="2" t="n">
+        <v>44964</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -5407,15 +5320,13 @@
       <c r="U60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>08/02/2023</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>09/02/2023</t>
-        </is>
+      <c r="B61" s="2" t="n">
+        <v>44966</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -5492,15 +5403,13 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>08/02/2023</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>08/02/2023</t>
-        </is>
+      <c r="B62" s="2" t="n">
+        <v>44965</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -5575,15 +5484,13 @@
       <c r="U62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>08/02/2023</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>16/02/2023</t>
-        </is>
+      <c r="B63" s="2" t="n">
+        <v>44973</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -5658,15 +5565,13 @@
       <c r="U63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>10/02/2023</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>10/02/2023</t>
-        </is>
+      <c r="B64" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -5743,15 +5648,13 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>10/02/2023</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>10/02/2023</t>
-        </is>
+      <c r="B65" s="2" t="n">
+        <v>44967</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -5826,15 +5729,13 @@
       <c r="U65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>23/02/2023</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>24/02/2023</t>
-        </is>
+      <c r="B66" s="2" t="n">
+        <v>44981</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -5911,15 +5812,13 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="2" t="inlineStr">
         <is>
           <t>24/02/2023</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>24/02/2023</t>
-        </is>
+      <c r="B67" s="2" t="n">
+        <v>44981</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -5994,15 +5893,13 @@
       <c r="U67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>24/02/2023</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>24/02/2023</t>
-        </is>
+      <c r="B68" s="2" t="n">
+        <v>44981</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -6077,15 +5974,13 @@
       <c r="U68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>28/02/2023</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>28/02/2023</t>
-        </is>
+      <c r="B69" s="2" t="n">
+        <v>44985</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -6160,15 +6055,13 @@
       <c r="U69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>03/03/2023</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>06/03/2023</t>
-        </is>
+      <c r="B70" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -6245,15 +6138,13 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>14/03/2023</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>23/03/2023</t>
-        </is>
+      <c r="B71" s="2" t="n">
+        <v>45008</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -6328,15 +6219,13 @@
       <c r="U71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>14/03/2023</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>15/03/2023</t>
-        </is>
+      <c r="B72" s="2" t="n">
+        <v>45000</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -6411,15 +6300,13 @@
       <c r="U72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>15/03/2023</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>16/03/2023</t>
-        </is>
+      <c r="B73" s="2" t="n">
+        <v>45001</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -6496,15 +6383,13 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>15/03/2023</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>15/03/2023</t>
-        </is>
+      <c r="B74" s="2" t="n">
+        <v>45000</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -6579,15 +6464,13 @@
       <c r="U74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>20/03/2023</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>22/03/2023</t>
-        </is>
+      <c r="B75" s="2" t="n">
+        <v>45007</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -6664,15 +6547,13 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>21/03/2023</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>30/03/2023</t>
-        </is>
+      <c r="B76" s="2" t="n">
+        <v>45015</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -6747,15 +6628,13 @@
       <c r="U76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>03/04/2023</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>08/04/2023</t>
-        </is>
+      <c r="B77" s="2" t="n">
+        <v>45024</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -6828,15 +6707,13 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>03/04/2023</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>06/04/2023</t>
-        </is>
+      <c r="B78" s="2" t="n">
+        <v>45022</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -6911,15 +6788,13 @@
       <c r="U78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="2" t="inlineStr">
         <is>
           <t>06/04/2023</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>11/04/2023</t>
-        </is>
+      <c r="B79" s="2" t="n">
+        <v>45027</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -6994,12 +6869,12 @@
       <c r="U79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>11/04/2023</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" s="2" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>KENNEDY MORAIS DA SILVA</t>
@@ -7069,15 +6944,13 @@
       <c r="U80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="2" t="inlineStr">
         <is>
           <t>02/05/2023</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>04/05/2023</t>
-        </is>
+      <c r="B81" s="2" t="n">
+        <v>45050</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -7154,15 +7027,13 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>03/05/2023</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>07/05/2023</t>
-        </is>
+      <c r="B82" s="2" t="n">
+        <v>45053</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -7237,15 +7108,13 @@
       <c r="U82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>16/05/2023</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>17/05/2023</t>
-        </is>
+      <c r="B83" s="2" t="n">
+        <v>45063</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -7320,15 +7189,13 @@
       <c r="U83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>16/05/2023</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>29/05/2023</t>
-        </is>
+      <c r="B84" s="2" t="n">
+        <v>45075</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -7403,12 +7270,12 @@
       <c r="U84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
+      <c r="B85" s="2" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>A.E.TORRES MARTINS</t>
@@ -7484,12 +7351,12 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
+      <c r="B86" s="2" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>SAMUEL GOMES DA COSTA</t>
@@ -7563,15 +7430,13 @@
       <c r="U86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>05/12/2024</t>
-        </is>
+      <c r="B87" s="2" t="n">
+        <v>45631</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -7648,12 +7513,12 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
+      <c r="B88" s="2" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>A P TORRES MARTINS COMBUSTIVEL LTDA</t>
@@ -7727,12 +7592,12 @@
       <c r="U88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" s="2" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>P TORRES MARTINS COMERCIO EIRELI</t>
@@ -7808,12 +7673,12 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
+      <c r="B90" s="2" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>SIMONE IOP</t>
@@ -7889,12 +7754,12 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" s="2" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>JOELSON LIMA MARTINS</t>
@@ -7970,12 +7835,12 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
+      <c r="B92" s="2" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>JOÃO PEDRO FLORES DELIBERALLI</t>
@@ -8051,15 +7916,13 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>22/11/2024</t>
-        </is>
+      <c r="B93" s="2" t="n">
+        <v>45618</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -8136,12 +7999,12 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" s="2" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>ALDERIZIO SILVA DE CARVALHO</t>
@@ -8215,12 +8078,12 @@
       <c r="U94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" s="2" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>IAM AMARAL SILVA</t>
@@ -8296,12 +8159,12 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
+      <c r="B96" s="2" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>ANA PAULA SOARES ROSA</t>
@@ -8375,12 +8238,12 @@
       <c r="U96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
+      <c r="B97" s="2" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>UBIRAMAR RODRIGUES QUINTINO</t>
@@ -8456,15 +8319,13 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>30/05/2023</t>
-        </is>
+      <c r="B98" s="2" t="n">
+        <v>45076</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -8539,12 +8400,12 @@
       <c r="U98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" s="2" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>VANDERSON ROCHA DIAS</t>
@@ -8618,12 +8479,12 @@
       <c r="U99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" s="2" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
           <t>MARCELLA RODRIGUES SOUZA BESSA DE OLIVEIRA</t>
@@ -8697,12 +8558,12 @@
       <c r="U100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
+      <c r="B101" s="2" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>JALLES BARBOSA DE OLIVEIRA</t>
@@ -8776,12 +8637,12 @@
       <c r="U101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
+      <c r="B102" s="2" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>CARLOS ALBERTO FERREIRA ROCHA</t>
@@ -8857,12 +8718,12 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
+      <c r="B103" s="2" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>R S COMERCIO E SERVICOS CELULARES LTDA</t>
@@ -8938,12 +8799,12 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
+      <c r="B104" s="2" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
           <t>YASMIN LIMA DOS SANTOS</t>
@@ -9019,12 +8880,12 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
+      <c r="B105" s="2" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
           <t>FABIO RODRIGUES</t>
@@ -9098,12 +8959,12 @@
       <c r="U105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
+      <c r="B106" s="2" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>N B PIRES ODONTOLOGIA EIRELI</t>
@@ -9177,12 +9038,12 @@
       <c r="U106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
+      <c r="B107" s="2" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>EDUARDO FELIPE SOUSA MARQUES</t>
@@ -9258,15 +9119,13 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>20/05/2024</t>
-        </is>
+      <c r="B108" s="2" t="n">
+        <v>45432</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -9343,12 +9202,12 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
+      <c r="B109" s="2" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>DIONELDES NUNES DOS SANTOS</t>
@@ -9422,15 +9281,13 @@
       <c r="U109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>08/03/2024</t>
-        </is>
+      <c r="B110" s="2" t="n">
+        <v>45359</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -9505,15 +9362,13 @@
       <c r="U110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>08/09/2023</t>
-        </is>
+      <c r="B111" s="2" t="n">
+        <v>45177</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -9584,12 +9439,12 @@
       <c r="U111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
+      <c r="B112" s="2" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
           <t>APARECIDO PEREIRA DA MOTA</t>
@@ -9665,12 +9520,12 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
+      <c r="B113" s="2" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
           <t>PAULO ROBERTO PITTA JUNIOR</t>
@@ -9744,12 +9599,12 @@
       <c r="U113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
+      <c r="B114" s="2" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
           <t>CAMILA DOS SANTOS COELHO</t>
@@ -9825,12 +9680,12 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
+      <c r="B115" s="2" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>MURILLO MENEZES BRUSQUE VINHAL</t>
@@ -9904,12 +9759,12 @@
       <c r="U115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
+      <c r="B116" s="2" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>ANDERSON VITOR DA SILVA LAMBERT</t>
@@ -9983,15 +9838,13 @@
       <c r="U116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>05/08/2023</t>
-        </is>
+      <c r="B117" s="2" t="n">
+        <v>45143</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -10072,12 +9925,12 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
+      <c r="B118" s="2" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>DIONATHAS FRAZAO DE OLIVEIRA</t>
@@ -10151,12 +10004,12 @@
       <c r="U118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
+      <c r="B119" s="2" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
           <t>KAREN EMANUELLA ALMEIDA RIBEIRO NEVES</t>
@@ -10232,12 +10085,12 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
+      <c r="B120" s="2" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
           <t>CLAUDIVINO RODRIGUES BRANDAO</t>
@@ -10311,12 +10164,12 @@
       <c r="U120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
+      <c r="B121" s="2" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
           <t>LEONARDO MONTEIRO DOS SANTOS</t>
@@ -10392,12 +10245,12 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr"/>
+      <c r="B122" s="2" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
           <t>ERIANE DE SOUZA LIMA</t>
@@ -10473,12 +10326,12 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
+      <c r="B123" s="2" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
           <t>ADRIUS MAGNO GONCALVES ROCHA</t>
@@ -10552,12 +10405,12 @@
       <c r="U123" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
+      <c r="B124" s="2" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
           <t>AMARILDO DA SILVA ALVES</t>
@@ -10633,12 +10486,12 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr"/>
+      <c r="B125" s="2" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
           <t>RB MORAES ULTRA SERVICE EIRELI</t>
@@ -10714,12 +10567,12 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
+      <c r="B126" s="2" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>C L OLIVEIRA OTICA</t>
@@ -10795,15 +10648,13 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>22/05/2023</t>
-        </is>
+      <c r="B127" s="2" t="n">
+        <v>45068</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -10880,15 +10731,13 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="2" t="inlineStr">
         <is>
           <t>17/05/2023</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>18/05/2023</t>
-        </is>
+      <c r="B128" s="2" t="n">
+        <v>45064</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -10963,15 +10812,13 @@
       <c r="U128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="2" t="inlineStr">
         <is>
           <t>18/05/2023</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>18/05/2023</t>
-        </is>
+      <c r="B129" s="2" t="n">
+        <v>45064</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -11046,15 +10893,13 @@
       <c r="U129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="2" t="inlineStr">
         <is>
           <t>19/05/2023</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>22/05/2023</t>
-        </is>
+      <c r="B130" s="2" t="n">
+        <v>45068</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -11125,15 +10970,13 @@
       <c r="U130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="2" t="inlineStr">
         <is>
           <t>22/05/2023</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>22/05/2023</t>
-        </is>
+      <c r="B131" s="2" t="n">
+        <v>45068</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -11204,15 +11047,13 @@
       <c r="U131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" s="2" t="inlineStr">
         <is>
           <t>22/05/2023</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>23/05/2023</t>
-        </is>
+      <c r="B132" s="2" t="n">
+        <v>45069</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -11283,15 +11124,13 @@
       <c r="U132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="2" t="inlineStr">
         <is>
           <t>23/05/2023</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>25/05/2023</t>
-        </is>
+      <c r="B133" s="2" t="n">
+        <v>45071</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -11368,12 +11207,12 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="2" t="inlineStr">
         <is>
           <t>26/05/2023</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr"/>
+      <c r="B134" s="2" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
           <t>IRANILDE DA SILVA RODRIGUES</t>
@@ -11447,15 +11286,13 @@
       <c r="U134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="2" t="inlineStr">
         <is>
           <t>29/05/2023</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>30/05/2023</t>
-        </is>
+      <c r="B135" s="2" t="n">
+        <v>45076</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -11526,15 +11363,13 @@
       <c r="U135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" s="2" t="inlineStr">
         <is>
           <t>31/05/2023</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>02/06/2023</t>
-        </is>
+      <c r="B136" s="2" t="n">
+        <v>45079</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -11613,12 +11448,12 @@
       <c r="U136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" s="2" t="inlineStr">
         <is>
           <t>02/06/2023</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
+      <c r="B137" s="2" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
           <t>JOÃO MARCOS MORAIS COSTA</t>
@@ -11692,12 +11527,12 @@
       <c r="U137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="2" t="inlineStr">
         <is>
           <t>12/06/2023</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
+      <c r="B138" s="2" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
           <t>IOLANDA DE OLIVEIRA PEREIRA</t>
@@ -11771,15 +11606,13 @@
       <c r="U138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="2" t="inlineStr">
         <is>
           <t>13/06/2023</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>15/06/2023</t>
-        </is>
+      <c r="B139" s="2" t="n">
+        <v>45092</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -11854,15 +11687,13 @@
       <c r="U139" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" s="2" t="inlineStr">
         <is>
           <t>14/06/2023</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>15/06/2023</t>
-        </is>
+      <c r="B140" s="2" t="n">
+        <v>45092</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -11939,15 +11770,13 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="2" t="inlineStr">
         <is>
           <t>20/06/2023</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>21/06/2023</t>
-        </is>
+      <c r="B141" s="2" t="n">
+        <v>45098</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -12018,15 +11847,13 @@
       <c r="U141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="2" t="inlineStr">
         <is>
           <t>20/06/2023</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>22/06/2023</t>
-        </is>
+      <c r="B142" s="2" t="n">
+        <v>45099</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -12101,15 +11928,13 @@
       <c r="U142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="2" t="inlineStr">
         <is>
           <t>21/06/2023</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>21/06/2023</t>
-        </is>
+      <c r="B143" s="2" t="n">
+        <v>45098</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -12184,15 +12009,13 @@
       <c r="U143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" s="2" t="inlineStr">
         <is>
           <t>28/06/2023</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>03/07/2023</t>
-        </is>
+      <c r="B144" s="2" t="n">
+        <v>45110</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -12269,15 +12092,13 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" s="2" t="inlineStr">
         <is>
           <t>29/06/2023</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>29/06/2023</t>
-        </is>
+      <c r="B145" s="2" t="n">
+        <v>45106</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -12352,15 +12173,13 @@
       <c r="U145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" s="2" t="inlineStr">
         <is>
           <t>09/07/2023</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>11/07/2023</t>
-        </is>
+      <c r="B146" s="2" t="n">
+        <v>45118</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -12435,15 +12254,13 @@
       <c r="U146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="A147" s="2" t="inlineStr">
         <is>
           <t>11/07/2023</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>01/09/2023</t>
-        </is>
+      <c r="B147" s="2" t="n">
+        <v>45170</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -12518,15 +12335,13 @@
       <c r="U147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="A148" s="2" t="inlineStr">
         <is>
           <t>18/07/2023</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>19/07/2023</t>
-        </is>
+      <c r="B148" s="2" t="n">
+        <v>45126</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -12603,15 +12418,13 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="A149" s="2" t="inlineStr">
         <is>
           <t>19/07/2023</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>19/07/2023</t>
-        </is>
+      <c r="B149" s="2" t="n">
+        <v>45126</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -12688,15 +12501,13 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" s="2" t="inlineStr">
         <is>
           <t>19/07/2023</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>20/07/2023</t>
-        </is>
+      <c r="B150" s="2" t="n">
+        <v>45127</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -12771,15 +12582,13 @@
       <c r="U150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="A151" s="2" t="inlineStr">
         <is>
           <t>19/07/2023</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>21/07/2023</t>
-        </is>
+      <c r="B151" s="2" t="n">
+        <v>45128</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -12856,15 +12665,13 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" s="2" t="inlineStr">
         <is>
           <t>21/07/2023</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>26/07/2023</t>
-        </is>
+      <c r="B152" s="2" t="n">
+        <v>45133</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -12941,15 +12748,13 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="A153" s="2" t="inlineStr">
         <is>
           <t>21/07/2023</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>21/07/2023</t>
-        </is>
+      <c r="B153" s="2" t="n">
+        <v>45128</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -13020,12 +12825,12 @@
       <c r="U153" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="A154" s="2" t="inlineStr">
         <is>
           <t>25/07/2023</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
+      <c r="B154" s="2" t="inlineStr"/>
       <c r="C154" t="inlineStr">
         <is>
           <t>SOBREIRA  ASSITENCIA TECNICA</t>
@@ -13099,15 +12904,13 @@
       <c r="U154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="A155" s="2" t="inlineStr">
         <is>
           <t>31/07/2023</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
+      <c r="B155" s="2" t="n">
+        <v>45139</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -13184,15 +12987,13 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="A156" s="2" t="inlineStr">
         <is>
           <t>31/07/2023</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
+      <c r="B156" s="2" t="n">
+        <v>45139</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -13267,15 +13068,13 @@
       <c r="U156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="A157" s="2" t="inlineStr">
         <is>
           <t>04/08/2023</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>04/08/2023</t>
-        </is>
+      <c r="B157" s="2" t="n">
+        <v>45142</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -13350,15 +13149,13 @@
       <c r="U157" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="A158" s="2" t="inlineStr">
         <is>
           <t>04/08/2023</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>08/08/2023</t>
-        </is>
+      <c r="B158" s="2" t="n">
+        <v>45146</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -13433,12 +13230,12 @@
       <c r="U158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="A159" s="2" t="inlineStr">
         <is>
           <t>08/08/2023</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr"/>
+      <c r="B159" s="2" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
           <t>SARA PEREIRA MARINHO SALDANHA</t>
@@ -13508,12 +13305,12 @@
       <c r="U159" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="A160" s="2" t="inlineStr">
         <is>
           <t>18/08/2023</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr"/>
+      <c r="B160" s="2" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
           <t>PAULA DAMAS LEAL</t>
@@ -13583,15 +13380,13 @@
       <c r="U160" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="A161" s="2" t="inlineStr">
         <is>
           <t>18/08/2023</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>22/08/2023</t>
-        </is>
+      <c r="B161" s="2" t="n">
+        <v>45160</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -13668,15 +13463,13 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="A162" s="2" t="inlineStr">
         <is>
           <t>22/08/2023</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>23/08/2023</t>
-        </is>
+      <c r="B162" s="2" t="n">
+        <v>45161</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -13747,15 +13540,13 @@
       <c r="U162" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="A163" s="2" t="inlineStr">
         <is>
           <t>26/08/2023</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>30/08/2023</t>
-        </is>
+      <c r="B163" s="2" t="n">
+        <v>45168</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -13832,15 +13623,13 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="A164" s="2" t="inlineStr">
         <is>
           <t>30/08/2023</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>31/08/2023</t>
-        </is>
+      <c r="B164" s="2" t="n">
+        <v>45169</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -13911,15 +13700,13 @@
       <c r="U164" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
+      <c r="A165" s="2" t="inlineStr">
         <is>
           <t>30/08/2023</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>05/09/2023</t>
-        </is>
+      <c r="B165" s="2" t="n">
+        <v>45174</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -13994,12 +13781,12 @@
       <c r="U165" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
+      <c r="A166" s="2" t="inlineStr">
         <is>
           <t>05/09/2023</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr"/>
+      <c r="B166" s="2" t="inlineStr"/>
       <c r="C166" t="inlineStr">
         <is>
           <t>RAPHAEL PAIXAO BICALHO</t>
@@ -14069,15 +13856,13 @@
       <c r="U166" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
+      <c r="A167" s="2" t="inlineStr">
         <is>
           <t>14/09/2023</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>18/09/2023</t>
-        </is>
+      <c r="B167" s="2" t="n">
+        <v>45187</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -14156,15 +13941,13 @@
       <c r="U167" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="A168" s="2" t="inlineStr">
         <is>
           <t>14/09/2023</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>18/09/2023</t>
-        </is>
+      <c r="B168" s="2" t="n">
+        <v>45187</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -14239,15 +14022,13 @@
       <c r="U168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="A169" s="2" t="inlineStr">
         <is>
           <t>15/09/2023</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>18/09/2023</t>
-        </is>
+      <c r="B169" s="2" t="n">
+        <v>45187</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -14322,12 +14103,12 @@
       <c r="U169" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="A170" s="2" t="inlineStr">
         <is>
           <t>19/09/2023</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr"/>
+      <c r="B170" s="2" t="inlineStr"/>
       <c r="C170" t="inlineStr">
         <is>
           <t>ISABELLE CRISTINA PEIXOTO DE BARROS</t>
@@ -14397,15 +14178,13 @@
       <c r="U170" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="A171" s="2" t="inlineStr">
         <is>
           <t>20/09/2023</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>21/09/2023</t>
-        </is>
+      <c r="B171" s="2" t="n">
+        <v>45190</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -14480,15 +14259,13 @@
       <c r="U171" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="A172" s="2" t="inlineStr">
         <is>
           <t>20/09/2023</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>21/09/2023</t>
-        </is>
+      <c r="B172" s="2" t="n">
+        <v>45190</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -14559,15 +14336,13 @@
       <c r="U172" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="A173" s="2" t="inlineStr">
         <is>
           <t>22/09/2023</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>22/09/2023</t>
-        </is>
+      <c r="B173" s="2" t="n">
+        <v>45191</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -14644,15 +14419,13 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
+      <c r="A174" s="2" t="inlineStr">
         <is>
           <t>26/09/2023</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>27/09/2023</t>
-        </is>
+      <c r="B174" s="2" t="n">
+        <v>45196</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -14727,15 +14500,13 @@
       <c r="U174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
+      <c r="A175" s="2" t="inlineStr">
         <is>
           <t>26/09/2023</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>27/09/2023</t>
-        </is>
+      <c r="B175" s="2" t="n">
+        <v>45196</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -14810,15 +14581,13 @@
       <c r="U175" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="A176" s="2" t="inlineStr">
         <is>
           <t>27/09/2023</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>29/09/2023</t>
-        </is>
+      <c r="B176" s="2" t="n">
+        <v>45198</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -14893,12 +14662,12 @@
       <c r="U176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
+      <c r="A177" s="2" t="inlineStr">
         <is>
           <t>29/09/2023</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr"/>
+      <c r="B177" s="2" t="inlineStr"/>
       <c r="C177" t="inlineStr">
         <is>
           <t>JOAQUIM NUNES SANTOS</t>
@@ -14968,15 +14737,13 @@
       <c r="U177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
+      <c r="A178" s="2" t="inlineStr">
         <is>
           <t>04/10/2023</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>04/10/2023</t>
-        </is>
+      <c r="B178" s="2" t="n">
+        <v>45203</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -15051,15 +14818,13 @@
       <c r="U178" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="A179" s="2" t="inlineStr">
         <is>
           <t>05/10/2023</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>09/10/2023</t>
-        </is>
+      <c r="B179" s="2" t="n">
+        <v>45208</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -15136,15 +14901,13 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
+      <c r="A180" s="2" t="inlineStr">
         <is>
           <t>06/10/2023</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>17/10/2023</t>
-        </is>
+      <c r="B180" s="2" t="n">
+        <v>45216</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -15215,15 +14978,13 @@
       <c r="U180" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
+      <c r="A181" s="2" t="inlineStr">
         <is>
           <t>11/10/2023</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>11/10/2023</t>
-        </is>
+      <c r="B181" s="2" t="n">
+        <v>45210</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -15298,15 +15059,13 @@
       <c r="U181" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
+      <c r="A182" s="2" t="inlineStr">
         <is>
           <t>11/10/2023</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>11/10/2023</t>
-        </is>
+      <c r="B182" s="2" t="n">
+        <v>45210</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -15381,15 +15140,13 @@
       <c r="U182" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
+      <c r="A183" s="2" t="inlineStr">
         <is>
           <t>11/10/2023</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>16/10/2023</t>
-        </is>
+      <c r="B183" s="2" t="n">
+        <v>45215</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -15464,15 +15221,13 @@
       <c r="U183" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
+      <c r="A184" s="2" t="inlineStr">
         <is>
           <t>16/10/2023</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>16/10/2023</t>
-        </is>
+      <c r="B184" s="2" t="n">
+        <v>45215</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -15549,15 +15304,13 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="A185" s="2" t="inlineStr">
         <is>
           <t>16/10/2023</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>16/10/2023</t>
-        </is>
+      <c r="B185" s="2" t="n">
+        <v>45215</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -15634,15 +15387,13 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="A186" s="2" t="inlineStr">
         <is>
           <t>17/10/2023</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>17/10/2023</t>
-        </is>
+      <c r="B186" s="2" t="n">
+        <v>45216</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -15719,15 +15470,13 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
+      <c r="A187" s="2" t="inlineStr">
         <is>
           <t>17/10/2023</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>17/10/2023</t>
-        </is>
+      <c r="B187" s="2" t="n">
+        <v>45216</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -15804,15 +15553,13 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="A188" s="2" t="inlineStr">
         <is>
           <t>19/10/2023</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>19/10/2023</t>
-        </is>
+      <c r="B188" s="2" t="n">
+        <v>45218</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -15887,15 +15634,13 @@
       <c r="U188" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="A189" s="2" t="inlineStr">
         <is>
           <t>23/10/2023</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>23/10/2023</t>
-        </is>
+      <c r="B189" s="2" t="n">
+        <v>45222</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -15966,15 +15711,13 @@
       <c r="U189" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
+      <c r="A190" s="2" t="inlineStr">
         <is>
           <t>25/10/2023</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>25/10/2023</t>
-        </is>
+      <c r="B190" s="2" t="n">
+        <v>45224</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -16049,12 +15792,12 @@
       <c r="U190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
+      <c r="A191" s="2" t="inlineStr">
         <is>
           <t>26/10/2023</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr"/>
+      <c r="B191" s="2" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
           <t>TESTE DUAL</t>
@@ -16124,15 +15867,13 @@
       <c r="U191" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
+      <c r="A192" s="2" t="inlineStr">
         <is>
           <t>26/10/2023</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>26/10/2023</t>
-        </is>
+      <c r="B192" s="2" t="n">
+        <v>45225</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -16207,15 +15948,13 @@
       <c r="U192" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
+      <c r="A193" s="2" t="inlineStr">
         <is>
           <t>27/10/2023</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>27/10/2023</t>
-        </is>
+      <c r="B193" s="2" t="n">
+        <v>45226</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -16286,12 +16025,12 @@
       <c r="U193" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
+      <c r="A194" s="2" t="inlineStr">
         <is>
           <t>30/10/2023</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
+      <c r="B194" s="2" t="inlineStr"/>
       <c r="C194" t="inlineStr">
         <is>
           <t>BORRACHARIA FERREIRA</t>
@@ -16361,15 +16100,13 @@
       <c r="U194" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
+      <c r="A195" s="2" t="inlineStr">
         <is>
           <t>31/10/2023</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>01/11/2023</t>
-        </is>
+      <c r="B195" s="2" t="n">
+        <v>45231</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -16444,15 +16181,13 @@
       <c r="U195" t="inlineStr"/>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
+      <c r="A196" s="2" t="inlineStr">
         <is>
           <t>31/10/2023</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>07/11/2023</t>
-        </is>
+      <c r="B196" s="2" t="n">
+        <v>45237</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -16527,12 +16262,12 @@
       <c r="U196" t="inlineStr"/>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
+      <c r="A197" s="2" t="inlineStr">
         <is>
           <t>03/11/2023</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr"/>
+      <c r="B197" s="2" t="inlineStr"/>
       <c r="C197" t="inlineStr">
         <is>
           <t>KARLOS HENRIQUE FERNANDES CUNHA</t>
@@ -16602,15 +16337,13 @@
       <c r="U197" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
+      <c r="A198" s="2" t="inlineStr">
         <is>
           <t>03/11/2023</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>03/11/2023</t>
-        </is>
+      <c r="B198" s="2" t="n">
+        <v>45233</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -16685,15 +16418,13 @@
       <c r="U198" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
+      <c r="A199" s="2" t="inlineStr">
         <is>
           <t>04/11/2023</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>05/11/2023</t>
-        </is>
+      <c r="B199" s="2" t="n">
+        <v>45235</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -16768,12 +16499,12 @@
       <c r="U199" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
+      <c r="A200" s="2" t="inlineStr">
         <is>
           <t>06/11/2023</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr"/>
+      <c r="B200" s="2" t="inlineStr"/>
       <c r="C200" t="inlineStr">
         <is>
           <t>GABRIEL MARTINS PIMENTA</t>
@@ -16843,15 +16574,13 @@
       <c r="U200" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
+      <c r="A201" s="2" t="inlineStr">
         <is>
           <t>07/11/2023</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>07/11/2023</t>
-        </is>
+      <c r="B201" s="2" t="n">
+        <v>45237</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -16926,15 +16655,13 @@
       <c r="U201" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
+      <c r="A202" s="2" t="inlineStr">
         <is>
           <t>07/11/2023</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>07/11/2023</t>
-        </is>
+      <c r="B202" s="2" t="n">
+        <v>45237</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -17005,15 +16732,13 @@
       <c r="U202" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
+      <c r="A203" s="2" t="inlineStr">
         <is>
           <t>08/11/2023</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>08/11/2023</t>
-        </is>
+      <c r="B203" s="2" t="n">
+        <v>45238</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -17090,15 +16815,13 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
+      <c r="A204" s="2" t="inlineStr">
         <is>
           <t>09/11/2023</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>09/11/2023</t>
-        </is>
+      <c r="B204" s="2" t="n">
+        <v>45239</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -17175,15 +16898,13 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
+      <c r="A205" s="2" t="inlineStr">
         <is>
           <t>10/11/2023</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>21/05/2024</t>
-        </is>
+      <c r="B205" s="2" t="n">
+        <v>45433</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -17260,15 +16981,13 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
+      <c r="A206" s="2" t="inlineStr">
         <is>
           <t>13/11/2023</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>13/11/2023</t>
-        </is>
+      <c r="B206" s="2" t="n">
+        <v>45243</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -17345,15 +17064,13 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
+      <c r="A207" s="2" t="inlineStr">
         <is>
           <t>13/11/2023</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>13/11/2023</t>
-        </is>
+      <c r="B207" s="2" t="n">
+        <v>45243</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -17424,15 +17141,13 @@
       <c r="U207" t="inlineStr"/>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
+      <c r="A208" s="2" t="inlineStr">
         <is>
           <t>14/11/2023</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>14/11/2023</t>
-        </is>
+      <c r="B208" s="2" t="n">
+        <v>45244</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -17507,12 +17222,12 @@
       <c r="U208" t="inlineStr"/>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
+      <c r="A209" s="2" t="inlineStr">
         <is>
           <t>14/11/2023</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr"/>
+      <c r="B209" s="2" t="inlineStr"/>
       <c r="C209" t="inlineStr">
         <is>
           <t>ATHENAS MOVEIS E DECORACAO</t>
@@ -17582,15 +17297,13 @@
       <c r="U209" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
+      <c r="A210" s="2" t="inlineStr">
         <is>
           <t>16/11/2023</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>16/11/2023</t>
-        </is>
+      <c r="B210" s="2" t="n">
+        <v>45246</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -17671,15 +17384,13 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
+      <c r="A211" s="2" t="inlineStr">
         <is>
           <t>16/11/2023</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>16/11/2023</t>
-        </is>
+      <c r="B211" s="2" t="n">
+        <v>45246</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -17754,15 +17465,13 @@
       <c r="U211" t="inlineStr"/>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
+      <c r="A212" s="2" t="inlineStr">
         <is>
           <t>18/11/2023</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>20/11/2023</t>
-        </is>
+      <c r="B212" s="2" t="n">
+        <v>45250</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -17837,15 +17546,13 @@
       <c r="U212" t="inlineStr"/>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
+      <c r="A213" s="2" t="inlineStr">
         <is>
           <t>20/11/2023</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>20/11/2023</t>
-        </is>
+      <c r="B213" s="2" t="n">
+        <v>45250</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -17916,15 +17623,13 @@
       <c r="U213" t="inlineStr"/>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
+      <c r="A214" s="2" t="inlineStr">
         <is>
           <t>20/11/2023</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>20/11/2023</t>
-        </is>
+      <c r="B214" s="2" t="n">
+        <v>45250</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -17999,15 +17704,13 @@
       <c r="U214" t="inlineStr"/>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
+      <c r="A215" s="2" t="inlineStr">
         <is>
           <t>22/11/2023</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>23/11/2023</t>
-        </is>
+      <c r="B215" s="2" t="n">
+        <v>45253</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -18084,15 +17787,13 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
+      <c r="A216" s="2" t="inlineStr">
         <is>
           <t>23/11/2023</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>23/11/2023</t>
-        </is>
+      <c r="B216" s="2" t="n">
+        <v>45253</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -18169,12 +17870,12 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
+      <c r="A217" s="2" t="inlineStr">
         <is>
           <t>23/11/2023</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
+      <c r="B217" s="2" t="inlineStr"/>
       <c r="C217" t="inlineStr">
         <is>
           <t>NOSSA CASA UTILIDADES</t>
@@ -18244,15 +17945,13 @@
       <c r="U217" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
+      <c r="A218" s="2" t="inlineStr">
         <is>
           <t>28/11/2023</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>05/12/2023</t>
-        </is>
+      <c r="B218" s="2" t="n">
+        <v>45265</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -18329,15 +18028,13 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
+      <c r="A219" s="2" t="inlineStr">
         <is>
           <t>29/11/2023</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>01/12/2023</t>
-        </is>
+      <c r="B219" s="2" t="n">
+        <v>45261</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -18414,15 +18111,13 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
+      <c r="A220" s="2" t="inlineStr">
         <is>
           <t>29/11/2023</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>29/11/2023</t>
-        </is>
+      <c r="B220" s="2" t="n">
+        <v>45259</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -18499,15 +18194,13 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
+      <c r="A221" s="2" t="inlineStr">
         <is>
           <t>29/11/2023</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>29/11/2023</t>
-        </is>
+      <c r="B221" s="2" t="n">
+        <v>45259</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -18582,15 +18275,13 @@
       <c r="U221" t="inlineStr"/>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
+      <c r="A222" s="2" t="inlineStr">
         <is>
           <t>29/11/2023</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>29/11/2023</t>
-        </is>
+      <c r="B222" s="2" t="n">
+        <v>45259</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -18667,15 +18358,13 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
+      <c r="A223" s="2" t="inlineStr">
         <is>
           <t>29/11/2023</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>30/11/2023</t>
-        </is>
+      <c r="B223" s="2" t="n">
+        <v>45260</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -18750,15 +18439,13 @@
       <c r="U223" t="inlineStr"/>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
+      <c r="A224" s="2" t="inlineStr">
         <is>
           <t>30/11/2023</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>30/11/2023</t>
-        </is>
+      <c r="B224" s="2" t="n">
+        <v>45260</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -18833,15 +18520,13 @@
       <c r="U224" t="inlineStr"/>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
+      <c r="A225" s="2" t="inlineStr">
         <is>
           <t>30/11/2023</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>06/12/2023</t>
-        </is>
+      <c r="B225" s="2" t="n">
+        <v>45266</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -18918,12 +18603,12 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
+      <c r="A226" s="2" t="inlineStr">
         <is>
           <t>01/12/2023</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr"/>
+      <c r="B226" s="2" t="inlineStr"/>
       <c r="C226" t="inlineStr">
         <is>
           <t>MARCO ESCOLA DE MUSICA LTDA</t>
@@ -18993,15 +18678,13 @@
       <c r="U226" t="inlineStr"/>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
+      <c r="A227" s="2" t="inlineStr">
         <is>
           <t>02/12/2023</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>04/12/2023</t>
-        </is>
+      <c r="B227" s="2" t="n">
+        <v>45264</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -19078,15 +18761,13 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
+      <c r="A228" s="2" t="inlineStr">
         <is>
           <t>04/12/2023</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>04/12/2023</t>
-        </is>
+      <c r="B228" s="2" t="n">
+        <v>45264</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -19163,15 +18844,13 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
+      <c r="A229" s="2" t="inlineStr">
         <is>
           <t>04/12/2023</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>04/12/2023</t>
-        </is>
+      <c r="B229" s="2" t="n">
+        <v>45264</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -19248,15 +18927,13 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
+      <c r="A230" s="2" t="inlineStr">
         <is>
           <t>04/12/2023</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>04/12/2023</t>
-        </is>
+      <c r="B230" s="2" t="n">
+        <v>45264</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -19333,12 +19010,12 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
+      <c r="A231" s="2" t="inlineStr">
         <is>
           <t>05/12/2023</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr"/>
+      <c r="B231" s="2" t="inlineStr"/>
       <c r="C231" t="inlineStr">
         <is>
           <t>WHENDERSON GOMES DE OLIVEIRA</t>
@@ -19408,12 +19085,12 @@
       <c r="U231" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
+      <c r="A232" s="2" t="inlineStr">
         <is>
           <t>05/12/2023</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr"/>
+      <c r="B232" s="2" t="inlineStr"/>
       <c r="C232" t="inlineStr">
         <is>
           <t>LUSO KAPITAL LTDA</t>
@@ -19483,12 +19160,12 @@
       <c r="U232" t="inlineStr"/>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
+      <c r="A233" s="2" t="inlineStr">
         <is>
           <t>05/12/2023</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr"/>
+      <c r="B233" s="2" t="inlineStr"/>
       <c r="C233" t="inlineStr">
         <is>
           <t>ANGELA KELLY GOMES CAMARGOS</t>
@@ -19558,15 +19235,13 @@
       <c r="U233" t="inlineStr"/>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
+      <c r="A234" s="2" t="inlineStr">
         <is>
           <t>06/12/2023</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>13/12/2023</t>
-        </is>
+      <c r="B234" s="2" t="n">
+        <v>45273</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -19643,12 +19318,12 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
+      <c r="A235" s="2" t="inlineStr">
         <is>
           <t>07/12/2023</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr"/>
+      <c r="B235" s="2" t="inlineStr"/>
       <c r="C235" t="inlineStr">
         <is>
           <t>JOSE WIRES DA SILVA</t>
@@ -19718,12 +19393,12 @@
       <c r="U235" t="inlineStr"/>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
+      <c r="A236" s="2" t="inlineStr">
         <is>
           <t>08/12/2023</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr"/>
+      <c r="B236" s="2" t="inlineStr"/>
       <c r="C236" t="inlineStr">
         <is>
           <t>RICARDO DE ABREU MANGABEIRO</t>
@@ -19793,15 +19468,13 @@
       <c r="U236" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
+      <c r="A237" s="2" t="inlineStr">
         <is>
           <t>11/12/2023</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>11/12/2023</t>
-        </is>
+      <c r="B237" s="2" t="n">
+        <v>45271</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -19876,15 +19549,13 @@
       <c r="U237" t="inlineStr"/>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
+      <c r="A238" s="2" t="inlineStr">
         <is>
           <t>19/12/2023</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>19/12/2023</t>
-        </is>
+      <c r="B238" s="2" t="n">
+        <v>45279</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -19959,15 +19630,13 @@
       <c r="U238" t="inlineStr"/>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
+      <c r="A239" s="2" t="inlineStr">
         <is>
           <t>19/12/2023</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>19/12/2023</t>
-        </is>
+      <c r="B239" s="2" t="n">
+        <v>45279</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -20042,12 +19711,12 @@
       <c r="U239" t="inlineStr"/>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
+      <c r="A240" s="2" t="inlineStr">
         <is>
           <t>21/12/2023</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr"/>
+      <c r="B240" s="2" t="inlineStr"/>
       <c r="C240" t="inlineStr">
         <is>
           <t>GILBER MARQUES TAVARES</t>
@@ -20117,15 +19786,13 @@
       <c r="U240" t="inlineStr"/>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
+      <c r="A241" s="2" t="inlineStr">
         <is>
           <t>22/12/2023</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>22/12/2023</t>
-        </is>
+      <c r="B241" s="2" t="n">
+        <v>45282</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -20206,15 +19873,13 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
+      <c r="A242" s="2" t="inlineStr">
         <is>
           <t>28/12/2023</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>28/12/2023</t>
-        </is>
+      <c r="B242" s="2" t="n">
+        <v>45288</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -20289,12 +19954,12 @@
       <c r="U242" t="inlineStr"/>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
+      <c r="A243" s="2" t="inlineStr">
         <is>
           <t>03/01/2024</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr"/>
+      <c r="B243" s="2" t="inlineStr"/>
       <c r="C243" t="inlineStr">
         <is>
           <t>MARCOS BRITO LACERDA</t>
@@ -20364,12 +20029,12 @@
       <c r="U243" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
+      <c r="A244" s="2" t="inlineStr">
         <is>
           <t>03/01/2024</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr"/>
+      <c r="B244" s="2" t="inlineStr"/>
       <c r="C244" t="inlineStr">
         <is>
           <t>JOABE GOMES SALES CAMARGOS</t>
@@ -20439,15 +20104,13 @@
       <c r="U244" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
+      <c r="A245" s="2" t="inlineStr">
         <is>
           <t>05/01/2024</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>08/01/2024</t>
-        </is>
+      <c r="B245" s="2" t="n">
+        <v>45299</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -20524,12 +20187,12 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
+      <c r="A246" s="2" t="inlineStr">
         <is>
           <t>08/01/2024</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr"/>
+      <c r="B246" s="2" t="inlineStr"/>
       <c r="C246" t="inlineStr">
         <is>
           <t>HERMES ALVES DA SILVA</t>
@@ -20599,12 +20262,12 @@
       <c r="U246" t="inlineStr"/>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
+      <c r="A247" s="2" t="inlineStr">
         <is>
           <t>08/01/2024</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr"/>
+      <c r="B247" s="2" t="inlineStr"/>
       <c r="C247" t="inlineStr">
         <is>
           <t>MENEGUETTI &amp; SARTORI LTDA</t>
@@ -20674,15 +20337,13 @@
       <c r="U247" t="inlineStr"/>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
+      <c r="A248" s="2" t="inlineStr">
         <is>
           <t>09/01/2024</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>11/01/2024</t>
-        </is>
+      <c r="B248" s="2" t="n">
+        <v>45302</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -20757,15 +20418,13 @@
       <c r="U248" t="inlineStr"/>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
+      <c r="A249" s="2" t="inlineStr">
         <is>
           <t>17/01/2024</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>17/01/2024</t>
-        </is>
+      <c r="B249" s="2" t="n">
+        <v>45308</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -20842,15 +20501,13 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
+      <c r="A250" s="2" t="inlineStr">
         <is>
           <t>02/02/2024</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>02/02/2024</t>
-        </is>
+      <c r="B250" s="2" t="n">
+        <v>45324</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -20927,12 +20584,12 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
+      <c r="A251" s="2" t="inlineStr">
         <is>
           <t>05/02/2024</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr"/>
+      <c r="B251" s="2" t="inlineStr"/>
       <c r="C251" t="inlineStr">
         <is>
           <t>TWANY NUNES DE AZEVEDO</t>
@@ -21002,15 +20659,13 @@
       <c r="U251" t="inlineStr"/>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
+      <c r="A252" s="2" t="inlineStr">
         <is>
           <t>05/02/2024</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>08/02/2024</t>
-        </is>
+      <c r="B252" s="2" t="n">
+        <v>45330</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -21085,15 +20740,13 @@
       <c r="U252" t="inlineStr"/>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
+      <c r="A253" s="2" t="inlineStr">
         <is>
           <t>07/02/2024</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>09/02/2024</t>
-        </is>
+      <c r="B253" s="2" t="n">
+        <v>45331</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -21166,15 +20819,13 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
+      <c r="A254" s="2" t="inlineStr">
         <is>
           <t>07/02/2024</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>09/02/2024</t>
-        </is>
+      <c r="B254" s="2" t="n">
+        <v>45331</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -21251,15 +20902,13 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
+      <c r="A255" s="2" t="inlineStr">
         <is>
           <t>09/02/2024</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>12/02/2024</t>
-        </is>
+      <c r="B255" s="2" t="n">
+        <v>45334</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -21334,15 +20983,13 @@
       <c r="U255" t="inlineStr"/>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
+      <c r="A256" s="2" t="inlineStr">
         <is>
           <t>19/02/2024</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>19/02/2024</t>
-        </is>
+      <c r="B256" s="2" t="n">
+        <v>45341</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -21417,12 +21064,12 @@
       <c r="U256" t="inlineStr"/>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
+      <c r="A257" s="2" t="inlineStr">
         <is>
           <t>20/02/2024</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr"/>
+      <c r="B257" s="2" t="inlineStr"/>
       <c r="C257" t="inlineStr">
         <is>
           <t>ADEMAR ARAUJO DA CRUZ</t>
@@ -21492,15 +21139,13 @@
       <c r="U257" t="inlineStr"/>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
+      <c r="A258" s="2" t="inlineStr">
         <is>
           <t>21/02/2024</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>21/02/2024</t>
-        </is>
+      <c r="B258" s="2" t="n">
+        <v>45343</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -21575,15 +21220,13 @@
       <c r="U258" t="inlineStr"/>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
+      <c r="A259" s="2" t="inlineStr">
         <is>
           <t>21/02/2024</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>21/02/2024</t>
-        </is>
+      <c r="B259" s="2" t="n">
+        <v>45343</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -21660,15 +21303,13 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
+      <c r="A260" s="2" t="inlineStr">
         <is>
           <t>27/02/2024</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>29/02/2024</t>
-        </is>
+      <c r="B260" s="2" t="n">
+        <v>45351</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -21743,15 +21384,13 @@
       <c r="U260" t="inlineStr"/>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
+      <c r="A261" s="2" t="inlineStr">
         <is>
           <t>01/03/2024</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>04/03/2024</t>
-        </is>
+      <c r="B261" s="2" t="n">
+        <v>45355</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -21826,12 +21465,12 @@
       <c r="U261" t="inlineStr"/>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
+      <c r="A262" s="2" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr"/>
+      <c r="B262" s="2" t="inlineStr"/>
       <c r="C262" t="inlineStr">
         <is>
           <t>FLAVIO DA SILVA ARAUJO</t>
@@ -21901,15 +21540,13 @@
       <c r="U262" t="inlineStr"/>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
+      <c r="A263" s="2" t="inlineStr">
         <is>
           <t>06/03/2024</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>07/03/2024</t>
-        </is>
+      <c r="B263" s="2" t="n">
+        <v>45358</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -21984,15 +21621,13 @@
       <c r="U263" t="inlineStr"/>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
+      <c r="A264" s="2" t="inlineStr">
         <is>
           <t>07/03/2024</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>07/03/2024</t>
-        </is>
+      <c r="B264" s="2" t="n">
+        <v>45358</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -22069,15 +21704,13 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
+      <c r="A265" s="2" t="inlineStr">
         <is>
           <t>08/03/2024</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>08/03/2024</t>
-        </is>
+      <c r="B265" s="2" t="n">
+        <v>45359</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -22154,15 +21787,13 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
+      <c r="A266" s="2" t="inlineStr">
         <is>
           <t>08/03/2024</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>11/03/2024</t>
-        </is>
+      <c r="B266" s="2" t="n">
+        <v>45362</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -22237,15 +21868,13 @@
       <c r="U266" t="inlineStr"/>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
+      <c r="A267" s="2" t="inlineStr">
         <is>
           <t>12/03/2024</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>13/03/2024</t>
-        </is>
+      <c r="B267" s="2" t="n">
+        <v>45364</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -22316,12 +21945,12 @@
       <c r="U267" t="inlineStr"/>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
+      <c r="A268" s="2" t="inlineStr">
         <is>
           <t>13/03/2024</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr"/>
+      <c r="B268" s="2" t="inlineStr"/>
       <c r="C268" t="inlineStr">
         <is>
           <t>50.637.469 VITOR MACHADO DE ARAUJO CARDOSO</t>
@@ -22391,15 +22020,13 @@
       <c r="U268" t="inlineStr"/>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
+      <c r="A269" s="2" t="inlineStr">
         <is>
           <t>20/03/2024</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>22/03/2024</t>
-        </is>
+      <c r="B269" s="2" t="n">
+        <v>45373</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -22476,15 +22103,13 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
+      <c r="A270" s="2" t="inlineStr">
         <is>
           <t>10/04/2024</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>11/04/2024</t>
-        </is>
+      <c r="B270" s="2" t="n">
+        <v>45393</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -22559,15 +22184,13 @@
       <c r="U270" t="inlineStr"/>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
+      <c r="A271" s="2" t="inlineStr">
         <is>
           <t>16/04/2024</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>23/04/2024</t>
-        </is>
+      <c r="B271" s="2" t="n">
+        <v>45405</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -22642,15 +22265,13 @@
       <c r="U271" t="inlineStr"/>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
+      <c r="A272" s="2" t="inlineStr">
         <is>
           <t>19/04/2024</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>22/04/2024</t>
-        </is>
+      <c r="B272" s="2" t="n">
+        <v>45404</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -22721,15 +22342,13 @@
       <c r="U272" t="inlineStr"/>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
+      <c r="A273" s="2" t="inlineStr">
         <is>
           <t>19/04/2024</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>22/04/2024</t>
-        </is>
+      <c r="B273" s="2" t="n">
+        <v>45404</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -22806,15 +22425,13 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
+      <c r="A274" s="2" t="inlineStr">
         <is>
           <t>22/04/2024</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>23/04/2024</t>
-        </is>
+      <c r="B274" s="2" t="n">
+        <v>45405</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -22891,15 +22508,13 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
+      <c r="A275" s="2" t="inlineStr">
         <is>
           <t>23/04/2024</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>30/04/2024</t>
-        </is>
+      <c r="B275" s="2" t="n">
+        <v>45412</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -22980,12 +22595,12 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
+      <c r="A276" s="2" t="inlineStr">
         <is>
           <t>24/04/2024</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr"/>
+      <c r="B276" s="2" t="inlineStr"/>
       <c r="C276" t="inlineStr">
         <is>
           <t>OLIVIA RODRIGUES FRANCO</t>
@@ -23055,15 +22670,13 @@
       <c r="U276" t="inlineStr"/>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
+      <c r="A277" s="2" t="inlineStr">
         <is>
           <t>30/04/2024</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>30/04/2024</t>
-        </is>
+      <c r="B277" s="2" t="n">
+        <v>45412</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -23134,12 +22747,12 @@
       <c r="U277" t="inlineStr"/>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
+      <c r="A278" s="2" t="inlineStr">
         <is>
           <t>02/05/2024</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr"/>
+      <c r="B278" s="2" t="inlineStr"/>
       <c r="C278" t="inlineStr">
         <is>
           <t>CHARLES JUNIOR SOUZA MONTEIRO</t>
@@ -23209,15 +22822,13 @@
       <c r="U278" t="inlineStr"/>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
+      <c r="A279" s="2" t="inlineStr">
         <is>
           <t>06/05/2024</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>06/05/2024</t>
-        </is>
+      <c r="B279" s="2" t="n">
+        <v>45418</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -23292,15 +22903,13 @@
       <c r="U279" t="inlineStr"/>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
+      <c r="A280" s="2" t="inlineStr">
         <is>
           <t>11/05/2024</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>14/05/2024</t>
-        </is>
+      <c r="B280" s="2" t="n">
+        <v>45426</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -23375,15 +22984,13 @@
       <c r="U280" t="inlineStr"/>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
+      <c r="A281" s="2" t="inlineStr">
         <is>
           <t>13/05/2024</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>13/05/2024</t>
-        </is>
+      <c r="B281" s="2" t="n">
+        <v>45425</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -23460,15 +23067,13 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
+      <c r="A282" s="2" t="inlineStr">
         <is>
           <t>13/05/2024</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>06/08/2024</t>
-        </is>
+      <c r="B282" s="2" t="n">
+        <v>45510</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -23543,15 +23148,13 @@
       <c r="U282" t="inlineStr"/>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
+      <c r="A283" s="2" t="inlineStr">
         <is>
           <t>20/05/2024</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>20/05/2024</t>
-        </is>
+      <c r="B283" s="2" t="n">
+        <v>45432</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -23622,15 +23225,13 @@
       <c r="U283" t="inlineStr"/>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
+      <c r="A284" s="2" t="inlineStr">
         <is>
           <t>20/05/2024</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>20/05/2024</t>
-        </is>
+      <c r="B284" s="2" t="n">
+        <v>45432</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -23705,15 +23306,13 @@
       <c r="U284" t="inlineStr"/>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
+      <c r="A285" s="2" t="inlineStr">
         <is>
           <t>27/05/2024</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>27/05/2024</t>
-        </is>
+      <c r="B285" s="2" t="n">
+        <v>45439</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -23790,15 +23389,13 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
+      <c r="A286" s="2" t="inlineStr">
         <is>
           <t>28/05/2024</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>28/05/2024</t>
-        </is>
+      <c r="B286" s="2" t="n">
+        <v>45440</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -23875,12 +23472,12 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
+      <c r="A287" s="2" t="inlineStr">
         <is>
           <t>06/06/2024</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr"/>
+      <c r="B287" s="2" t="inlineStr"/>
       <c r="C287" t="inlineStr">
         <is>
           <t>ELIANA DE FARIA VAZ</t>
@@ -23950,15 +23547,13 @@
       <c r="U287" t="inlineStr"/>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
+      <c r="A288" s="2" t="inlineStr">
         <is>
           <t>08/06/2024</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>10/06/2024</t>
-        </is>
+      <c r="B288" s="2" t="n">
+        <v>45453</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -24033,15 +23628,13 @@
       <c r="U288" t="inlineStr"/>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
+      <c r="A289" s="2" t="inlineStr">
         <is>
           <t>11/06/2024</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>12/06/2024</t>
-        </is>
+      <c r="B289" s="2" t="n">
+        <v>45455</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -24118,15 +23711,13 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
+      <c r="A290" s="2" t="inlineStr">
         <is>
           <t>12/06/2024</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>12/06/2024</t>
-        </is>
+      <c r="B290" s="2" t="n">
+        <v>45455</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -24201,15 +23792,13 @@
       <c r="U290" t="inlineStr"/>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
+      <c r="A291" s="2" t="inlineStr">
         <is>
           <t>13/06/2024</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>13/06/2024</t>
-        </is>
+      <c r="B291" s="2" t="n">
+        <v>45456</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -24286,15 +23875,13 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
+      <c r="A292" s="2" t="inlineStr">
         <is>
           <t>13/06/2024</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>24/06/2024</t>
-        </is>
+      <c r="B292" s="2" t="n">
+        <v>45467</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -24365,15 +23952,13 @@
       <c r="U292" t="inlineStr"/>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
+      <c r="A293" s="2" t="inlineStr">
         <is>
           <t>20/06/2024</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>20/06/2024</t>
-        </is>
+      <c r="B293" s="2" t="n">
+        <v>45463</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -24448,15 +24033,13 @@
       <c r="U293" t="inlineStr"/>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
+      <c r="A294" s="2" t="inlineStr">
         <is>
           <t>20/06/2024</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>20/06/2024</t>
-        </is>
+      <c r="B294" s="2" t="n">
+        <v>45463</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -24531,15 +24114,13 @@
       <c r="U294" t="inlineStr"/>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
+      <c r="A295" s="2" t="inlineStr">
         <is>
           <t>20/06/2024</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>20/06/2024</t>
-        </is>
+      <c r="B295" s="2" t="n">
+        <v>45463</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -24614,15 +24195,13 @@
       <c r="U295" t="inlineStr"/>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
+      <c r="A296" s="2" t="inlineStr">
         <is>
           <t>24/06/2024</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>24/06/2024</t>
-        </is>
+      <c r="B296" s="2" t="n">
+        <v>45467</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -24699,15 +24278,13 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
+      <c r="A297" s="2" t="inlineStr">
         <is>
           <t>24/06/2024</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>24/06/2024</t>
-        </is>
+      <c r="B297" s="2" t="n">
+        <v>45467</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -24784,15 +24361,13 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
+      <c r="A298" s="2" t="inlineStr">
         <is>
           <t>26/06/2024</t>
         </is>
       </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>26/06/2024</t>
-        </is>
+      <c r="B298" s="2" t="n">
+        <v>45469</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -24869,12 +24444,12 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr">
+      <c r="A299" s="2" t="inlineStr">
         <is>
           <t>01/07/2024</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr"/>
+      <c r="B299" s="2" t="inlineStr"/>
       <c r="C299" t="inlineStr">
         <is>
           <t>ANA MARIA SILVA CANDIDO BORGES</t>
@@ -24944,15 +24519,13 @@
       <c r="U299" t="inlineStr"/>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
+      <c r="A300" s="2" t="inlineStr">
         <is>
           <t>17/07/2024</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>17/07/2024</t>
-        </is>
+      <c r="B300" s="2" t="n">
+        <v>45490</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -25023,12 +24596,12 @@
       <c r="U300" t="inlineStr"/>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
+      <c r="A301" s="2" t="inlineStr">
         <is>
           <t>17/07/2024</t>
         </is>
       </c>
-      <c r="B301" t="inlineStr"/>
+      <c r="B301" s="2" t="inlineStr"/>
       <c r="C301" t="inlineStr">
         <is>
           <t>SORAIA DA PAZ OLIVEIRA</t>
@@ -25098,15 +24671,13 @@
       <c r="U301" t="inlineStr"/>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
+      <c r="A302" s="2" t="inlineStr">
         <is>
           <t>22/07/2024</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>26/07/2024</t>
-        </is>
+      <c r="B302" s="2" t="n">
+        <v>45499</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -25183,15 +24754,13 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
+      <c r="A303" s="2" t="inlineStr">
         <is>
           <t>24/07/2024</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>24/07/2024</t>
-        </is>
+      <c r="B303" s="2" t="n">
+        <v>45497</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -25268,15 +24837,13 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
+      <c r="A304" s="2" t="inlineStr">
         <is>
           <t>30/07/2024</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
+      <c r="B304" s="2" t="n">
+        <v>45503</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -25349,15 +24916,13 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
+      <c r="A305" s="2" t="inlineStr">
         <is>
           <t>31/07/2024</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
+      <c r="B305" s="2" t="n">
+        <v>45505</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -25432,15 +24997,13 @@
       <c r="U305" t="inlineStr"/>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
+      <c r="A306" s="2" t="inlineStr">
         <is>
           <t>05/08/2024</t>
         </is>
       </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>07/08/2024</t>
-        </is>
+      <c r="B306" s="2" t="n">
+        <v>45511</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -25511,12 +25074,12 @@
       <c r="U306" t="inlineStr"/>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
+      <c r="A307" s="2" t="inlineStr">
         <is>
           <t>06/08/2024</t>
         </is>
       </c>
-      <c r="B307" t="inlineStr"/>
+      <c r="B307" s="2" t="inlineStr"/>
       <c r="C307" t="inlineStr">
         <is>
           <t>ANTONIO RUBENS GONÇALVES</t>
@@ -25586,15 +25149,13 @@
       <c r="U307" t="inlineStr"/>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
+      <c r="A308" s="2" t="inlineStr">
         <is>
           <t>07/08/2024</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>08/08/2024</t>
-        </is>
+      <c r="B308" s="2" t="n">
+        <v>45512</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -25665,15 +25226,13 @@
       <c r="U308" t="inlineStr"/>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
+      <c r="A309" s="2" t="inlineStr">
         <is>
           <t>07/08/2024</t>
         </is>
       </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
+      <c r="B309" s="2" t="n">
+        <v>45600</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -25748,15 +25307,13 @@
       <c r="U309" t="inlineStr"/>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
+      <c r="A310" s="2" t="inlineStr">
         <is>
           <t>08/08/2024</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>09/08/2024</t>
-        </is>
+      <c r="B310" s="2" t="n">
+        <v>45513</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -25831,12 +25388,12 @@
       <c r="U310" t="inlineStr"/>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
+      <c r="A311" s="2" t="inlineStr">
         <is>
           <t>09/08/2024</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr"/>
+      <c r="B311" s="2" t="inlineStr"/>
       <c r="C311" t="inlineStr">
         <is>
           <t>CAMILA VITORIA MACHADO DA SILVA</t>
@@ -25906,15 +25463,13 @@
       <c r="U311" t="inlineStr"/>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr">
+      <c r="A312" s="2" t="inlineStr">
         <is>
           <t>13/08/2024</t>
         </is>
       </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>13/08/2024</t>
-        </is>
+      <c r="B312" s="2" t="n">
+        <v>45517</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -25991,15 +25546,13 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
+      <c r="A313" s="2" t="inlineStr">
         <is>
           <t>16/08/2024</t>
         </is>
       </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>19/08/2024</t>
-        </is>
+      <c r="B313" s="2" t="n">
+        <v>45523</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -26076,15 +25629,13 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
+      <c r="A314" s="2" t="inlineStr">
         <is>
           <t>16/08/2024</t>
         </is>
       </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>19/08/2024</t>
-        </is>
+      <c r="B314" s="2" t="n">
+        <v>45523</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -26161,15 +25712,13 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
+      <c r="A315" s="2" t="inlineStr">
         <is>
           <t>16/08/2024</t>
         </is>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>19/08/2024</t>
-        </is>
+      <c r="B315" s="2" t="n">
+        <v>45523</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -26246,12 +25795,12 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr">
+      <c r="A316" s="2" t="inlineStr">
         <is>
           <t>17/08/2024</t>
         </is>
       </c>
-      <c r="B316" t="inlineStr"/>
+      <c r="B316" s="2" t="inlineStr"/>
       <c r="C316" t="inlineStr">
         <is>
           <t>RAUL CAVALCANTE DE SOUZA</t>
@@ -26321,15 +25870,13 @@
       <c r="U316" t="inlineStr"/>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
+      <c r="A317" s="2" t="inlineStr">
         <is>
           <t>20/08/2024</t>
         </is>
       </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>20/08/2024</t>
-        </is>
+      <c r="B317" s="2" t="n">
+        <v>45524</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -26406,15 +25953,13 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
+      <c r="A318" s="2" t="inlineStr">
         <is>
           <t>23/08/2024</t>
         </is>
       </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>27/08/2024</t>
-        </is>
+      <c r="B318" s="2" t="n">
+        <v>45531</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -26491,15 +26036,13 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr">
+      <c r="A319" s="2" t="inlineStr">
         <is>
           <t>23/08/2024</t>
         </is>
       </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>23/08/2024</t>
-        </is>
+      <c r="B319" s="2" t="n">
+        <v>45527</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -26574,12 +26117,12 @@
       <c r="U319" t="inlineStr"/>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
+      <c r="A320" s="2" t="inlineStr">
         <is>
           <t>27/08/2024</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr"/>
+      <c r="B320" s="2" t="inlineStr"/>
       <c r="C320" t="inlineStr">
         <is>
           <t>JUNIOR GOMES PEREIRA</t>
@@ -26649,15 +26192,13 @@
       <c r="U320" t="inlineStr"/>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
+      <c r="A321" s="2" t="inlineStr">
         <is>
           <t>28/08/2024</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>28/08/2024</t>
-        </is>
+      <c r="B321" s="2" t="n">
+        <v>45532</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -26728,15 +26269,13 @@
       <c r="U321" t="inlineStr"/>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr">
+      <c r="A322" s="2" t="inlineStr">
         <is>
           <t>02/09/2024</t>
         </is>
       </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
+      <c r="B322" s="2" t="n">
+        <v>45540</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -26813,15 +26352,13 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
+      <c r="A323" s="2" t="inlineStr">
         <is>
           <t>04/09/2024</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>06/09/2024</t>
-        </is>
+      <c r="B323" s="2" t="n">
+        <v>45541</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -26898,15 +26435,13 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
+      <c r="A324" s="2" t="inlineStr">
         <is>
           <t>05/09/2024</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
+      <c r="B324" s="2" t="n">
+        <v>45540</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -26981,15 +26516,13 @@
       <c r="U324" t="inlineStr"/>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
+      <c r="A325" s="2" t="inlineStr">
         <is>
           <t>09/09/2024</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>09/09/2024</t>
-        </is>
+      <c r="B325" s="2" t="n">
+        <v>45544</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -27066,15 +26599,13 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
+      <c r="A326" s="2" t="inlineStr">
         <is>
           <t>11/09/2024</t>
         </is>
       </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>13/09/2024</t>
-        </is>
+      <c r="B326" s="2" t="n">
+        <v>45548</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -27151,15 +26682,13 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
+      <c r="A327" s="2" t="inlineStr">
         <is>
           <t>12/09/2024</t>
         </is>
       </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>13/09/2024</t>
-        </is>
+      <c r="B327" s="2" t="n">
+        <v>45548</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -27234,15 +26763,13 @@
       <c r="U327" t="inlineStr"/>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
+      <c r="A328" s="2" t="inlineStr">
         <is>
           <t>16/09/2024</t>
         </is>
       </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>17/09/2024</t>
-        </is>
+      <c r="B328" s="2" t="n">
+        <v>45552</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -27317,15 +26844,13 @@
       <c r="U328" t="inlineStr"/>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
+      <c r="A329" s="2" t="inlineStr">
         <is>
           <t>20/09/2024</t>
         </is>
       </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>20/09/2024</t>
-        </is>
+      <c r="B329" s="2" t="n">
+        <v>45555</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -27402,15 +26927,13 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
+      <c r="A330" s="2" t="inlineStr">
         <is>
           <t>22/09/2024</t>
         </is>
       </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>08/10/2024</t>
-        </is>
+      <c r="B330" s="2" t="n">
+        <v>45573</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -27487,12 +27010,12 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
+      <c r="A331" s="2" t="inlineStr">
         <is>
           <t>24/09/2024</t>
         </is>
       </c>
-      <c r="B331" t="inlineStr"/>
+      <c r="B331" s="2" t="inlineStr"/>
       <c r="C331" t="inlineStr">
         <is>
           <t>MATEUS TARCISIO DE SOUSA CARNEIRO</t>
@@ -27562,15 +27085,13 @@
       <c r="U331" t="inlineStr"/>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
+      <c r="A332" s="2" t="inlineStr">
         <is>
           <t>24/09/2024</t>
         </is>
       </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>24/09/2024</t>
-        </is>
+      <c r="B332" s="2" t="n">
+        <v>45559</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -27647,15 +27168,13 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
+      <c r="A333" s="2" t="inlineStr">
         <is>
           <t>24/09/2024</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>24/09/2024</t>
-        </is>
+      <c r="B333" s="2" t="n">
+        <v>45559</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -27732,15 +27251,13 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
+      <c r="A334" s="2" t="inlineStr">
         <is>
           <t>25/09/2024</t>
         </is>
       </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>26/09/2024</t>
-        </is>
+      <c r="B334" s="2" t="n">
+        <v>45561</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -27817,15 +27334,13 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
+      <c r="A335" s="2" t="inlineStr">
         <is>
           <t>04/10/2024</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>04/10/2024</t>
-        </is>
+      <c r="B335" s="2" t="n">
+        <v>45569</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -27902,15 +27417,13 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
+      <c r="A336" s="2" t="inlineStr">
         <is>
           <t>07/10/2024</t>
         </is>
       </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>08/10/2024</t>
-        </is>
+      <c r="B336" s="2" t="n">
+        <v>45573</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -27983,15 +27496,13 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
+      <c r="A337" s="2" t="inlineStr">
         <is>
           <t>14/10/2024</t>
         </is>
       </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>15/10/2024</t>
-        </is>
+      <c r="B337" s="2" t="n">
+        <v>45580</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -28066,15 +27577,13 @@
       <c r="U337" t="inlineStr"/>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
+      <c r="A338" s="2" t="inlineStr">
         <is>
           <t>18/10/2024</t>
         </is>
       </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>21/10/2024</t>
-        </is>
+      <c r="B338" s="2" t="n">
+        <v>45586</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -28151,12 +27660,12 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
+      <c r="A339" s="2" t="inlineStr">
         <is>
           <t>18/10/2024</t>
         </is>
       </c>
-      <c r="B339" t="inlineStr"/>
+      <c r="B339" s="2" t="inlineStr"/>
       <c r="C339" t="inlineStr">
         <is>
           <t>FRANCISCO EDILANO TOME DOS SANTOS</t>
@@ -28226,15 +27735,13 @@
       <c r="U339" t="inlineStr"/>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
+      <c r="A340" s="2" t="inlineStr">
         <is>
           <t>21/10/2024</t>
         </is>
       </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>22/10/2024</t>
-        </is>
+      <c r="B340" s="2" t="n">
+        <v>45587</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -28305,15 +27812,13 @@
       <c r="U340" t="inlineStr"/>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
+      <c r="A341" s="2" t="inlineStr">
         <is>
           <t>23/10/2024</t>
         </is>
       </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>23/10/2024</t>
-        </is>
+      <c r="B341" s="2" t="n">
+        <v>45588</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -28388,15 +27893,13 @@
       <c r="U341" t="inlineStr"/>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
+      <c r="A342" s="2" t="inlineStr">
         <is>
           <t>24/10/2024</t>
         </is>
       </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
+      <c r="B342" s="2" t="n">
+        <v>45590</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -28469,15 +27972,13 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
+      <c r="A343" s="2" t="inlineStr">
         <is>
           <t>25/10/2024</t>
         </is>
       </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
+      <c r="B343" s="2" t="n">
+        <v>45590</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -28550,15 +28051,13 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
+      <c r="A344" s="2" t="inlineStr">
         <is>
           <t>29/10/2024</t>
         </is>
       </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
+      <c r="B344" s="2" t="n">
+        <v>45595</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -28635,15 +28134,13 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
+      <c r="A345" s="2" t="inlineStr">
         <is>
           <t>30/10/2024</t>
         </is>
       </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>31/10/2024</t>
-        </is>
+      <c r="B345" s="2" t="n">
+        <v>45596</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -28720,12 +28217,12 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
+      <c r="A346" s="2" t="inlineStr">
         <is>
           <t>30/10/2024</t>
         </is>
       </c>
-      <c r="B346" t="inlineStr"/>
+      <c r="B346" s="2" t="inlineStr"/>
       <c r="C346" t="inlineStr">
         <is>
           <t>ERIKA GARCIA LOURENCO</t>
@@ -28795,15 +28292,13 @@
       <c r="U346" t="inlineStr"/>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
+      <c r="A347" s="2" t="inlineStr">
         <is>
           <t>31/10/2024</t>
         </is>
       </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>31/10/2024</t>
-        </is>
+      <c r="B347" s="2" t="n">
+        <v>45596</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -28880,15 +28375,13 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
+      <c r="A348" s="2" t="inlineStr">
         <is>
           <t>05/11/2024</t>
         </is>
       </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
+      <c r="B348" s="2" t="n">
+        <v>45602</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -28963,15 +28456,13 @@
       <c r="U348" t="inlineStr"/>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
+      <c r="A349" s="2" t="inlineStr">
         <is>
           <t>11/11/2024</t>
         </is>
       </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>12/11/2024</t>
-        </is>
+      <c r="B349" s="2" t="n">
+        <v>45608</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -29042,15 +28533,13 @@
       <c r="U349" t="inlineStr"/>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
+      <c r="A350" s="2" t="inlineStr">
         <is>
           <t>16/11/2024</t>
         </is>
       </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>19/11/2024</t>
-        </is>
+      <c r="B350" s="2" t="n">
+        <v>45615</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -29127,15 +28616,13 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
+      <c r="A351" s="2" t="inlineStr">
         <is>
           <t>19/11/2024</t>
         </is>
       </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
+      <c r="B351" s="2" t="n">
+        <v>45617</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -29212,15 +28699,13 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
+      <c r="A352" s="2" t="inlineStr">
         <is>
           <t>21/11/2024</t>
         </is>
       </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
+      <c r="B352" s="2" t="n">
+        <v>45621</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -29295,15 +28780,13 @@
       <c r="U352" t="inlineStr"/>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
+      <c r="A353" s="2" t="inlineStr">
         <is>
           <t>21/11/2024</t>
         </is>
       </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
+      <c r="B353" s="2" t="n">
+        <v>45621</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -29378,15 +28861,13 @@
       <c r="U353" t="inlineStr"/>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
+      <c r="A354" s="2" t="inlineStr">
         <is>
           <t>21/11/2024</t>
         </is>
       </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
+      <c r="B354" s="2" t="n">
+        <v>45621</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -29463,12 +28944,12 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
+      <c r="A355" s="2" t="inlineStr">
         <is>
           <t>22/11/2024</t>
         </is>
       </c>
-      <c r="B355" t="inlineStr"/>
+      <c r="B355" s="2" t="inlineStr"/>
       <c r="C355" t="inlineStr">
         <is>
           <t>KAREN KAROLINE DE ARAUJO MARINHO</t>
@@ -29538,15 +29019,13 @@
       <c r="U355" t="inlineStr"/>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr">
+      <c r="A356" s="2" t="inlineStr">
         <is>
           <t>22/11/2024</t>
         </is>
       </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>25/11/2024</t>
-        </is>
+      <c r="B356" s="2" t="n">
+        <v>45621</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -29623,12 +29102,12 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
+      <c r="A357" s="2" t="inlineStr">
         <is>
           <t>23/11/2024</t>
         </is>
       </c>
-      <c r="B357" t="inlineStr"/>
+      <c r="B357" s="2" t="inlineStr"/>
       <c r="C357" t="inlineStr">
         <is>
           <t>RADIAL SOLAR LTDA</t>
@@ -29698,12 +29177,12 @@
       <c r="U357" t="inlineStr"/>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr">
+      <c r="A358" s="2" t="inlineStr">
         <is>
           <t>25/11/2024</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr"/>
+      <c r="B358" s="2" t="inlineStr"/>
       <c r="C358" t="inlineStr">
         <is>
           <t>ADALBERTO GOMES DE OLIVEIRA</t>
@@ -29773,15 +29252,13 @@
       <c r="U358" t="inlineStr"/>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr">
+      <c r="A359" s="2" t="inlineStr">
         <is>
           <t>25/11/2024</t>
         </is>
       </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
+      <c r="B359" s="2" t="n">
+        <v>45623</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -29852,15 +29329,13 @@
       <c r="U359" t="inlineStr"/>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr">
+      <c r="A360" s="2" t="inlineStr">
         <is>
           <t>26/11/2024</t>
         </is>
       </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>02/12/2024</t>
-        </is>
+      <c r="B360" s="2" t="n">
+        <v>45628</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -29931,12 +29406,12 @@
       <c r="U360" t="inlineStr"/>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
+      <c r="A361" s="2" t="inlineStr">
         <is>
           <t>26/11/2024</t>
         </is>
       </c>
-      <c r="B361" t="inlineStr"/>
+      <c r="B361" s="2" t="inlineStr"/>
       <c r="C361" t="inlineStr">
         <is>
           <t>GLOBAL COMERCIO E REPRESENTACAO AGRICOLA LTDA</t>
@@ -30006,15 +29481,13 @@
       <c r="U361" t="inlineStr"/>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr">
+      <c r="A362" s="2" t="inlineStr">
         <is>
           <t>27/11/2024</t>
         </is>
       </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>03/12/2024</t>
-        </is>
+      <c r="B362" s="2" t="n">
+        <v>45629</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -30091,15 +29564,13 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
+      <c r="A363" s="2" t="inlineStr">
         <is>
           <t>02/12/2024</t>
         </is>
       </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>04/12/2024</t>
-        </is>
+      <c r="B363" s="2" t="n">
+        <v>45630</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -30176,15 +29647,13 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr">
+      <c r="A364" s="2" t="inlineStr">
         <is>
           <t>02/12/2024</t>
         </is>
       </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>04/12/2024</t>
-        </is>
+      <c r="B364" s="2" t="n">
+        <v>45630</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -30261,15 +29730,13 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
+      <c r="A365" s="2" t="inlineStr">
         <is>
           <t>03/12/2024</t>
         </is>
       </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>04/12/2024</t>
-        </is>
+      <c r="B365" s="2" t="n">
+        <v>45630</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -30346,15 +29813,13 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
+      <c r="A366" s="2" t="inlineStr">
         <is>
           <t>05/12/2024</t>
         </is>
       </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>09/12/2024</t>
-        </is>
+      <c r="B366" s="2" t="n">
+        <v>45635</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -30429,15 +29894,13 @@
       <c r="U366" t="inlineStr"/>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr">
+      <c r="A367" s="2" t="inlineStr">
         <is>
           <t>06/12/2024</t>
         </is>
       </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>09/12/2024</t>
-        </is>
+      <c r="B367" s="2" t="n">
+        <v>45635</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -30512,15 +29975,13 @@
       <c r="U367" t="inlineStr"/>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
+      <c r="A368" s="2" t="inlineStr">
         <is>
           <t>09/12/2024</t>
         </is>
       </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>11/12/2024</t>
-        </is>
+      <c r="B368" s="2" t="n">
+        <v>45637</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -30597,15 +30058,13 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
+      <c r="A369" s="2" t="inlineStr">
         <is>
           <t>11/12/2024</t>
         </is>
       </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>13/12/2024</t>
-        </is>
+      <c r="B369" s="2" t="n">
+        <v>45639</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -30680,15 +30139,13 @@
       <c r="U369" t="inlineStr"/>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
+      <c r="A370" s="2" t="inlineStr">
         <is>
           <t>11/12/2024</t>
         </is>
       </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>13/12/2024</t>
-        </is>
+      <c r="B370" s="2" t="n">
+        <v>45639</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -30763,15 +30220,13 @@
       <c r="U370" t="inlineStr"/>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
+      <c r="A371" s="2" t="inlineStr">
         <is>
           <t>12/12/2024</t>
         </is>
       </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>13/12/2024</t>
-        </is>
+      <c r="B371" s="2" t="n">
+        <v>45639</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -30846,12 +30301,12 @@
       <c r="U371" t="inlineStr"/>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr">
+      <c r="A372" s="2" t="inlineStr">
         <is>
           <t>16/12/2024</t>
         </is>
       </c>
-      <c r="B372" t="inlineStr"/>
+      <c r="B372" s="2" t="inlineStr"/>
       <c r="C372" t="inlineStr">
         <is>
           <t>EDUARDO BASTOS GODOI</t>
@@ -30921,15 +30376,13 @@
       <c r="U372" t="inlineStr"/>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr">
+      <c r="A373" s="2" t="inlineStr">
         <is>
           <t>16/12/2024</t>
         </is>
       </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>18/12/2024</t>
-        </is>
+      <c r="B373" s="2" t="n">
+        <v>45644</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -31008,15 +30461,13 @@
       <c r="U373" t="inlineStr"/>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr">
+      <c r="A374" s="2" t="inlineStr">
         <is>
           <t>16/12/2024</t>
         </is>
       </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>18/12/2024</t>
-        </is>
+      <c r="B374" s="2" t="n">
+        <v>45644</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -31087,15 +30538,13 @@
       <c r="U374" t="inlineStr"/>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr">
+      <c r="A375" s="2" t="inlineStr">
         <is>
           <t>17/12/2024</t>
         </is>
       </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>18/12/2024</t>
-        </is>
+      <c r="B375" s="2" t="n">
+        <v>45644</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -31166,15 +30615,13 @@
       <c r="U375" t="inlineStr"/>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr">
+      <c r="A376" s="2" t="inlineStr">
         <is>
           <t>17/12/2024</t>
         </is>
       </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>18/12/2024</t>
-        </is>
+      <c r="B376" s="2" t="n">
+        <v>45644</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -31255,15 +30702,13 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr">
+      <c r="A377" s="2" t="inlineStr">
         <is>
           <t>18/12/2024</t>
         </is>
       </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>19/12/2024</t>
-        </is>
+      <c r="B377" s="2" t="n">
+        <v>45645</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -31344,15 +30789,13 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr">
+      <c r="A378" s="2" t="inlineStr">
         <is>
           <t>08/01/2025</t>
         </is>
       </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>10/01/2025</t>
-        </is>
+      <c r="B378" s="2" t="n">
+        <v>45667</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -31429,15 +30872,13 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
+      <c r="A379" s="2" t="inlineStr">
         <is>
           <t>08/01/2025</t>
         </is>
       </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>10/01/2025</t>
-        </is>
+      <c r="B379" s="2" t="n">
+        <v>45667</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -31512,15 +30953,13 @@
       <c r="U379" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
+      <c r="A380" s="2" t="inlineStr">
         <is>
           <t>08/01/2025</t>
         </is>
       </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>10/01/2025</t>
-        </is>
+      <c r="B380" s="2" t="n">
+        <v>45667</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -31591,15 +31030,13 @@
       <c r="U380" t="inlineStr"/>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
+      <c r="A381" s="2" t="inlineStr">
         <is>
           <t>10/01/2025</t>
         </is>
       </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>16/01/2025</t>
-        </is>
+      <c r="B381" s="2" t="n">
+        <v>45673</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -31676,15 +31113,13 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr">
+      <c r="A382" s="2" t="inlineStr">
         <is>
           <t>13/01/2025</t>
         </is>
       </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>15/01/2025</t>
-        </is>
+      <c r="B382" s="2" t="n">
+        <v>45672</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -31761,15 +31196,13 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr">
+      <c r="A383" s="2" t="inlineStr">
         <is>
           <t>16/01/2025</t>
         </is>
       </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>16/01/2025</t>
-        </is>
+      <c r="B383" s="2" t="n">
+        <v>45673</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -31850,15 +31283,13 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr">
+      <c r="A384" s="2" t="inlineStr">
         <is>
           <t>16/01/2025</t>
         </is>
       </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>16/01/2025</t>
-        </is>
+      <c r="B384" s="2" t="n">
+        <v>45673</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -31931,15 +31362,13 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr">
+      <c r="A385" s="2" t="inlineStr">
         <is>
           <t>17/01/2025</t>
         </is>
       </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>20/01/2025</t>
-        </is>
+      <c r="B385" s="2" t="n">
+        <v>45677</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -32024,12 +31453,12 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr">
+      <c r="A386" s="2" t="inlineStr">
         <is>
           <t>17/01/2025</t>
         </is>
       </c>
-      <c r="B386" t="inlineStr"/>
+      <c r="B386" s="2" t="inlineStr"/>
       <c r="C386" t="inlineStr">
         <is>
           <t>ARISTOTELES DE SOUSA ATHAIR FILHO</t>
@@ -32099,15 +31528,13 @@
       <c r="U386" t="inlineStr"/>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr">
+      <c r="A387" s="2" t="inlineStr">
         <is>
           <t>21/01/2025</t>
         </is>
       </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>21/01/2025</t>
-        </is>
+      <c r="B387" s="2" t="n">
+        <v>45678</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -32192,15 +31619,13 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="inlineStr">
+      <c r="A388" s="2" t="inlineStr">
         <is>
           <t>22/01/2025</t>
         </is>
       </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>22/01/2025</t>
-        </is>
+      <c r="B388" s="2" t="n">
+        <v>45679</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -32281,12 +31706,12 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr">
+      <c r="A389" s="2" t="inlineStr">
         <is>
           <t>29/01/2025</t>
         </is>
       </c>
-      <c r="B389" t="inlineStr"/>
+      <c r="B389" s="2" t="inlineStr"/>
       <c r="C389" t="inlineStr">
         <is>
           <t>J L DE OLIVEIRA OTICA LTDA</t>
@@ -32356,15 +31781,13 @@
       <c r="U389" t="inlineStr"/>
     </row>
     <row r="390">
-      <c r="A390" t="inlineStr">
+      <c r="A390" s="2" t="inlineStr">
         <is>
           <t>30/01/2025</t>
         </is>
       </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>30/01/2025</t>
-        </is>
+      <c r="B390" s="2" t="n">
+        <v>45687</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -32439,15 +31862,13 @@
       <c r="U390" t="inlineStr"/>
     </row>
     <row r="391">
-      <c r="A391" t="inlineStr">
+      <c r="A391" s="2" t="inlineStr">
         <is>
           <t>30/01/2025</t>
         </is>
       </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>30/01/2025</t>
-        </is>
+      <c r="B391" s="2" t="n">
+        <v>45687</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -32522,15 +31943,13 @@
       <c r="U391" t="inlineStr"/>
     </row>
     <row r="392">
-      <c r="A392" t="inlineStr">
+      <c r="A392" s="2" t="inlineStr">
         <is>
           <t>30/01/2025</t>
         </is>
       </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>30/01/2025</t>
-        </is>
+      <c r="B392" s="2" t="n">
+        <v>45687</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -32605,15 +32024,13 @@
       <c r="U392" t="inlineStr"/>
     </row>
     <row r="393">
-      <c r="A393" t="inlineStr">
+      <c r="A393" s="2" t="inlineStr">
         <is>
           <t>31/01/2025</t>
         </is>
       </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>31/01/2025</t>
-        </is>
+      <c r="B393" s="2" t="n">
+        <v>45688</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -32690,15 +32107,13 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="inlineStr">
+      <c r="A394" s="2" t="inlineStr">
         <is>
           <t>04/02/2025</t>
         </is>
       </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>04/02/2025</t>
-        </is>
+      <c r="B394" s="2" t="n">
+        <v>45692</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -32773,15 +32188,13 @@
       <c r="U394" t="inlineStr"/>
     </row>
     <row r="395">
-      <c r="A395" t="inlineStr">
+      <c r="A395" s="2" t="inlineStr">
         <is>
           <t>04/02/2025</t>
         </is>
       </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>04/02/2025</t>
-        </is>
+      <c r="B395" s="2" t="n">
+        <v>45692</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -32856,15 +32269,13 @@
       <c r="U395" t="inlineStr"/>
     </row>
     <row r="396">
-      <c r="A396" t="inlineStr">
+      <c r="A396" s="2" t="inlineStr">
         <is>
           <t>06/02/2025</t>
         </is>
       </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>06/02/2025</t>
-        </is>
+      <c r="B396" s="2" t="n">
+        <v>45694</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -32943,15 +32354,13 @@
       <c r="U396" t="inlineStr"/>
     </row>
     <row r="397">
-      <c r="A397" t="inlineStr">
+      <c r="A397" s="2" t="inlineStr">
         <is>
           <t>07/02/2025</t>
         </is>
       </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>07/02/2025</t>
-        </is>
+      <c r="B397" s="2" t="n">
+        <v>45695</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -33030,15 +32439,13 @@
       <c r="U397" t="inlineStr"/>
     </row>
     <row r="398">
-      <c r="A398" t="inlineStr">
+      <c r="A398" s="2" t="inlineStr">
         <is>
           <t>11/02/2025</t>
         </is>
       </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>11/02/2025</t>
-        </is>
+      <c r="B398" s="2" t="n">
+        <v>45699</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -33109,15 +32516,13 @@
       <c r="U398" t="inlineStr"/>
     </row>
     <row r="399">
-      <c r="A399" t="inlineStr">
+      <c r="A399" s="2" t="inlineStr">
         <is>
           <t>11/02/2025</t>
         </is>
       </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>11/02/2025</t>
-        </is>
+      <c r="B399" s="2" t="n">
+        <v>45699</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -33192,15 +32597,13 @@
       <c r="U399" t="inlineStr"/>
     </row>
     <row r="400">
-      <c r="A400" t="inlineStr">
+      <c r="A400" s="2" t="inlineStr">
         <is>
           <t>13/02/2025</t>
         </is>
       </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>13/02/2025</t>
-        </is>
+      <c r="B400" s="2" t="n">
+        <v>45701</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -33279,15 +32682,13 @@
       <c r="U400" t="inlineStr"/>
     </row>
     <row r="401">
-      <c r="A401" t="inlineStr">
+      <c r="A401" s="2" t="inlineStr">
         <is>
           <t>13/02/2025</t>
         </is>
       </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>13/02/2025</t>
-        </is>
+      <c r="B401" s="2" t="n">
+        <v>45701</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -33362,15 +32763,13 @@
       <c r="U401" t="inlineStr"/>
     </row>
     <row r="402">
-      <c r="A402" t="inlineStr">
+      <c r="A402" s="2" t="inlineStr">
         <is>
           <t>19/02/2025</t>
         </is>
       </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>20/02/2025</t>
-        </is>
+      <c r="B402" s="2" t="n">
+        <v>45708</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -33445,15 +32844,13 @@
       <c r="U402" t="inlineStr"/>
     </row>
     <row r="403">
-      <c r="A403" t="inlineStr">
+      <c r="A403" s="2" t="inlineStr">
         <is>
           <t>20/02/2025</t>
         </is>
       </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>20/02/2025</t>
-        </is>
+      <c r="B403" s="2" t="n">
+        <v>45708</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -33528,15 +32925,13 @@
       <c r="U403" t="inlineStr"/>
     </row>
     <row r="404">
-      <c r="A404" t="inlineStr">
+      <c r="A404" s="2" t="inlineStr">
         <is>
           <t>20/02/2025</t>
         </is>
       </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>20/02/2025</t>
-        </is>
+      <c r="B404" s="2" t="n">
+        <v>45708</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -33607,15 +33002,13 @@
       <c r="U404" t="inlineStr"/>
     </row>
     <row r="405">
-      <c r="A405" t="inlineStr">
+      <c r="A405" s="2" t="inlineStr">
         <is>
           <t>25/02/2025</t>
         </is>
       </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>25/02/2025</t>
-        </is>
+      <c r="B405" s="2" t="n">
+        <v>45713</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -33690,15 +33083,13 @@
       <c r="U405" t="inlineStr"/>
     </row>
     <row r="406">
-      <c r="A406" t="inlineStr">
+      <c r="A406" s="2" t="inlineStr">
         <is>
           <t>28/02/2025</t>
         </is>
       </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>28/02/2025</t>
-        </is>
+      <c r="B406" s="2" t="n">
+        <v>45716</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -33769,15 +33160,13 @@
       <c r="U406" t="inlineStr"/>
     </row>
     <row r="407">
-      <c r="A407" t="inlineStr">
+      <c r="A407" s="2" t="inlineStr">
         <is>
           <t>03/03/2025</t>
         </is>
       </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>03/03/2025</t>
-        </is>
+      <c r="B407" s="2" t="n">
+        <v>45719</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -33852,15 +33241,13 @@
       <c r="U407" t="inlineStr"/>
     </row>
     <row r="408">
-      <c r="A408" t="inlineStr">
+      <c r="A408" s="2" t="inlineStr">
         <is>
           <t>07/03/2025</t>
         </is>
       </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>07/03/2025</t>
-        </is>
+      <c r="B408" s="2" t="n">
+        <v>45723</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -33935,15 +33322,13 @@
       <c r="U408" t="inlineStr"/>
     </row>
     <row r="409">
-      <c r="A409" t="inlineStr">
+      <c r="A409" s="2" t="inlineStr">
         <is>
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>10/03/2025</t>
-        </is>
+      <c r="B409" s="2" t="n">
+        <v>45726</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -34018,15 +33403,13 @@
       <c r="U409" t="inlineStr"/>
     </row>
     <row r="410">
-      <c r="A410" t="inlineStr">
+      <c r="A410" s="2" t="inlineStr">
         <is>
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>10/03/2025</t>
-        </is>
+      <c r="B410" s="2" t="n">
+        <v>45726</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -34101,15 +33484,13 @@
       <c r="U410" t="inlineStr"/>
     </row>
     <row r="411">
-      <c r="A411" t="inlineStr">
+      <c r="A411" s="2" t="inlineStr">
         <is>
           <t>11/03/2025</t>
         </is>
       </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>12/03/2025</t>
-        </is>
+      <c r="B411" s="2" t="n">
+        <v>45728</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -34184,15 +33565,13 @@
       <c r="U411" t="inlineStr"/>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr">
+      <c r="A412" s="2" t="inlineStr">
         <is>
           <t>17/03/2025</t>
         </is>
       </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>17/03/2025</t>
-        </is>
+      <c r="B412" s="2" t="n">
+        <v>45733</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -34267,15 +33646,13 @@
       <c r="U412" t="inlineStr"/>
     </row>
     <row r="413">
-      <c r="A413" t="inlineStr">
+      <c r="A413" s="2" t="inlineStr">
         <is>
           <t>17/03/2025</t>
         </is>
       </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>17/03/2025</t>
-        </is>
+      <c r="B413" s="2" t="n">
+        <v>45733</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -34350,15 +33727,13 @@
       <c r="U413" t="inlineStr"/>
     </row>
     <row r="414">
-      <c r="A414" t="inlineStr">
+      <c r="A414" s="2" t="inlineStr">
         <is>
           <t>17/03/2025</t>
         </is>
       </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>17/03/2025</t>
-        </is>
+      <c r="B414" s="2" t="n">
+        <v>45733</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -34433,15 +33808,13 @@
       <c r="U414" t="inlineStr"/>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr">
+      <c r="A415" s="2" t="inlineStr">
         <is>
           <t>28/03/2025</t>
         </is>
       </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>28/03/2025</t>
-        </is>
+      <c r="B415" s="2" t="n">
+        <v>45744</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -34512,15 +33885,13 @@
       <c r="U415" t="inlineStr"/>
     </row>
     <row r="416">
-      <c r="A416" t="inlineStr">
+      <c r="A416" s="2" t="inlineStr">
         <is>
           <t>31/03/2025</t>
         </is>
       </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>31/03/2025</t>
-        </is>
+      <c r="B416" s="2" t="n">
+        <v>45747</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -34595,15 +33966,13 @@
       <c r="U416" t="inlineStr"/>
     </row>
     <row r="417">
-      <c r="A417" t="inlineStr">
+      <c r="A417" s="2" t="inlineStr">
         <is>
           <t>31/03/2025</t>
         </is>
       </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>31/03/2025</t>
-        </is>
+      <c r="B417" s="2" t="n">
+        <v>45747</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -34674,15 +34043,13 @@
       <c r="U417" t="inlineStr"/>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr">
+      <c r="A418" s="2" t="inlineStr">
         <is>
           <t>31/03/2025</t>
         </is>
       </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>31/03/2025</t>
-        </is>
+      <c r="B418" s="2" t="n">
+        <v>45747</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -34757,15 +34124,13 @@
       <c r="U418" t="inlineStr"/>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr">
+      <c r="A419" s="2" t="inlineStr">
         <is>
           <t>01/04/2025</t>
         </is>
       </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>01/04/2025</t>
-        </is>
+      <c r="B419" s="2" t="n">
+        <v>45748</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -34836,15 +34201,13 @@
       <c r="U419" t="inlineStr"/>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr">
+      <c r="A420" s="2" t="inlineStr">
         <is>
           <t>03/04/2025</t>
         </is>
       </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>03/04/2025</t>
-        </is>
+      <c r="B420" s="2" t="n">
+        <v>45750</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -34915,12 +34278,12 @@
       <c r="U420" t="inlineStr"/>
     </row>
     <row r="421">
-      <c r="A421" t="inlineStr">
+      <c r="A421" s="2" t="inlineStr">
         <is>
           <t>07/04/2025</t>
         </is>
       </c>
-      <c r="B421" t="inlineStr"/>
+      <c r="B421" s="2" t="inlineStr"/>
       <c r="C421" t="inlineStr">
         <is>
           <t>PRIMEX ENCOMENDAS E CARGAS LTDA</t>
@@ -34986,33 +34349,33 @@
       <c r="U421" t="inlineStr"/>
     </row>
     <row r="422">
-      <c r="A422" t="inlineStr"/>
-      <c r="B422" t="inlineStr"/>
+      <c r="A422" s="2" t="inlineStr">
+        <is>
+          <t>2025-04-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="B422" s="2" t="n">
+        <v>45763</v>
+      </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Kallil Oliveira Coimbra</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>10665138130</t>
-        </is>
+          <t>jãozin dos teste</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>10665138130</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>BOMBACLAT</t>
+          <t>Lilliri larila</t>
         </is>
       </c>
       <c r="F422" t="inlineStr"/>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>1289031290</t>
-        </is>
-      </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>62982672667</t>
-        </is>
+      <c r="G422" t="n">
+        <v>123123</v>
+      </c>
+      <c r="H422" t="n">
+        <v>62982672667</v>
       </c>
       <c r="I422" t="inlineStr">
         <is>
@@ -35021,27 +34384,27 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>sadam russein</t>
+          <t>TRALALERO TRALALA</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>ATIVO</t>
+          <t>INATIVO</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>HABILITADO</t>
+          <t>DESABILITADO</t>
         </is>
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>BLABLABLEBLEBLEBLUBLBULBU#GMAIL.COM</t>
+          <t>blablablableblebleblbiulbulbualbubububububububulinganguliguli@gmail.com</t>
         </is>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>NÃO HABILITADO</t>
+          <t>HABILITADO</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -35051,14 +34414,75 @@
       </c>
       <c r="P422" t="inlineStr">
         <is>
-          <t>NNB</t>
+          <t>NNA</t>
         </is>
       </c>
       <c r="Q422" t="inlineStr"/>
-      <c r="R422" t="inlineStr"/>
-      <c r="S422" t="inlineStr"/>
-      <c r="T422" t="inlineStr"/>
+      <c r="R422" t="n">
+        <v>0</v>
+      </c>
+      <c r="S422" t="n">
+        <v>0</v>
+      </c>
+      <c r="T422" t="n">
+        <v>0</v>
+      </c>
       <c r="U422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B423" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr"/>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>PENDENTE</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>INATIVO</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>DESABILITADO</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr"/>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>NÃO HABILITADO</t>
+        </is>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>NÃO HABILITADO</t>
+        </is>
+      </c>
+      <c r="P423" t="inlineStr"/>
+      <c r="Q423" t="inlineStr"/>
+      <c r="R423" t="n">
+        <v>0</v>
+      </c>
+      <c r="S423" t="n">
+        <v>0</v>
+      </c>
+      <c r="T423" t="n">
+        <v>0</v>
+      </c>
+      <c r="U423" t="n">
         <v>0</v>
       </c>
     </row>

--- a/stores.xlsx
+++ b/stores.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Transacoes" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="30_days_analysis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="30_days_analysis" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transacoes" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -687,7 +687,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>82a9b46a-0036-4f9d-a98d-6bb4a5c1f594</t>
+          <t>15f48122-6bb7-42d3-a9e4-e6a65bc0e3f6</t>
         </is>
       </c>
     </row>
@@ -770,8 +770,12 @@
       <c r="T3" t="n">
         <v>801391.86</v>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>90000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>100000</v>
+      </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
@@ -785,7 +789,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>67e5f53b-e8a0-4126-936c-0b6d0f0b00d9</t>
+          <t>60998da9-f0ca-4e2f-86db-ded479ee6334</t>
         </is>
       </c>
     </row>
@@ -877,7 +881,7 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>859ded2a-8961-42cb-b7a3-cc0bd4134d37</t>
+          <t>b596bc51-66e3-4659-87e0-b1c1ffdd72c8</t>
         </is>
       </c>
     </row>
@@ -975,7 +979,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>f60c0c40-3c59-4dc8-b4be-598f407b0397</t>
+          <t>e40071da-f4c9-45f5-9137-ed0f2a5d517b</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1077,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>337c9478-75ad-4424-958f-127e320b3b24</t>
+          <t>6c3f46fe-ff75-47df-a717-483756219554</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1169,7 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>26f344ca-6a35-4b28-9d20-9bc80db8b427</t>
+          <t>36ba121d-688e-4bf2-88a3-3197b43efc11</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1265,7 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>11e6d9c5-ce7d-465f-8b95-b442dc5db554</t>
+          <t>871fe923-989e-44d8-89a9-0fecca8590a5</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1357,7 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>9b86abca-d113-40de-b19f-892962e13f7d</t>
+          <t>990b2a3b-b73b-4171-9484-d99789173483</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1453,7 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>50b40365-6ce9-4772-8b78-4b5ea0dc5563</t>
+          <t>40a6fb8b-6fd1-4dac-b934-18a6022bf67b</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1551,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>a372a355-ac35-43c2-ae13-f4634e9f7917</t>
+          <t>6b6e5c0e-b94f-441a-83bc-efb2ca61754b</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1641,7 @@
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2e10ce18-110f-481a-9202-4ec523cc208b</t>
+          <t>3375dcb7-2090-44f3-8536-d6892f3ed64e</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1731,7 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>32e698b2-c136-4603-a3c2-464de6c20012</t>
+          <t>1ba7214c-7018-499c-aa2e-068a1ccc47be</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1829,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1ee53f62-2429-44ed-afa0-3862c61633cd</t>
+          <t>07672ae0-5edb-42f4-852a-173634ba74f7</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1925,7 @@
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>01c41a88-ae6f-4e4d-90e0-25dfab5290b5</t>
+          <t>70ed1d3b-5399-46ea-bc24-54835fa775ec</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2023,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>f9a7ba4a-aa4b-4916-9ce2-7fadfb8bd26b</t>
+          <t>aaa0cd09-b44c-466e-b5ee-44034d3d97da</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2115,7 @@
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>cf817579-cc8a-42c3-b32d-bc4ccffbd73b</t>
+          <t>7798b1b7-791a-4310-aa96-a94f9e2aaf66</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2213,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>be04ad22-b8b1-40fc-9f19-a717e92d62d4</t>
+          <t>b1df0bf4-f383-4e83-9ef7-dec7e43d6022</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2303,7 @@
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>8627cfab-5b0f-4c29-9606-5f929b4f2f01</t>
+          <t>79c99e64-5cae-4c69-bc9a-21102d8d8cc2</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2395,7 @@
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>4b9430d0-1b77-4bdc-a8ac-7e2d659a8537</t>
+          <t>ac480168-eb52-44a6-8dab-764273f48a24</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2491,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>eebf8428-4305-4144-9b6b-d35ac94dd096</t>
+          <t>b4bbb701-4a24-47fe-8f1a-252201c3b635</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2583,7 @@
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>d8fab7fb-a559-4674-b5df-d3b1d23eb5ec</t>
+          <t>81d5b2b2-106b-4b04-89d5-269d27ffbb86</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2685,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>01dc41eb-4879-4713-b355-be31ab5f1b19</t>
+          <t>3d366005-2768-4cd6-8fa5-62286d6a9585</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2779,7 @@
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>b695b127-40d8-46eb-bf6a-cd7260a6524e</t>
+          <t>2548cc1f-8010-4d4d-a167-bfdf69c6f9a3</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2877,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>1db9091f-00f3-4c80-a381-f6ff5bba8f7c</t>
+          <t>fdbfd717-0c1f-415f-93fb-04a6c69e41e3</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2971,7 @@
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>9627e60b-2431-4818-8e09-70a5f84b838d</t>
+          <t>cbdf403b-ab99-468e-9e2b-c02c30e183dc</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3067,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>c52d8828-dc15-402f-bccb-bd86ba909b22</t>
+          <t>814aeee3-cd22-4616-ae8d-3fa807980fc2</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3161,7 @@
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>144bb0ce-f224-45e9-a815-aa3feb4172da</t>
+          <t>a0e7b5ec-8f9f-406d-9d98-d591b2095539</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3257,7 @@
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>455f660b-ec99-4bc9-b2bd-4a81c879c663</t>
+          <t>e29667ac-4dd8-4bcf-95e2-8f0d4b54641c</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3353,7 @@
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>8af7cfbc-35e0-44cd-888b-5fb1e5593357</t>
+          <t>2135c714-8404-4e91-959e-1da00b7784e0</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3449,7 @@
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>40014d93-ca1b-408b-95eb-5e084a149f2a</t>
+          <t>6b13d139-6fb7-4116-a34a-76975d5c3776</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3541,7 @@
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>fe1cf518-ab64-4c8f-b308-ac98f4399f84</t>
+          <t>4c487d67-74dd-466e-b5ae-cf66896406ee</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3637,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>b4d8c78e-f21c-430c-9d03-73d875c1925b</t>
+          <t>eb83bad3-0ef5-4814-9cb3-3cf7a8629fb9</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3733,7 @@
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>7ac1ba42-e4ae-4b17-9a44-41833bd856cb</t>
+          <t>fa9dbfbb-84da-4644-82f3-a4ab0a0606e5</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3831,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>7a8f313a-d6bd-4e15-a773-045ba348ed73</t>
+          <t>27d32c4d-eeb3-4c62-bed4-e02eda7a0414</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3929,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>51c7fa2c-8b45-4769-b0ad-5c50006ce713</t>
+          <t>c07d7d31-fc68-4601-90e1-22415fbe9e3e</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4025,7 @@
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>6f9aebe9-18f1-4f62-bc3d-fb1c3113b6d0</t>
+          <t>17fbdb21-336a-49f5-a344-17619845e940</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4123,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>9a9ac916-1a5d-4120-aa54-fd15dede4973</t>
+          <t>c60f8be4-e4d2-4e72-8c11-a647676a4a88</t>
         </is>
       </c>
     </row>
@@ -4215,7 +4219,7 @@
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>e29735ef-7518-4194-8936-5b752cf73636</t>
+          <t>15b95cdc-d88d-456b-a6d8-de796760ede1</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4315,7 @@
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>fcb18679-b95d-4758-8c3c-5471d851254a</t>
+          <t>969f70b1-4c75-42e1-bd6f-1363ab59ae5b</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4411,7 @@
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>3a649b18-558a-4896-8d3a-c4044ea5457c</t>
+          <t>d7606276-63a2-4371-bc60-f0f30d80dcd3</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4507,7 @@
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>4338d3a4-5a23-4c9f-8a75-8cea97a9cd90</t>
+          <t>88a67af2-48f7-480a-afc1-7f6bf354e9c6</t>
         </is>
       </c>
     </row>
@@ -4595,7 +4599,7 @@
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>5d7e186c-8f80-467b-8908-1f19f2e7ad9e</t>
+          <t>55daea49-5bb5-4e6d-ab37-eb1bd65f6e29</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4697,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>f02ef55e-612b-4a01-9a23-076131ad84f6</t>
+          <t>a59e89ef-c8d0-40b3-810d-d372d883e7c2</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4793,7 @@
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>e1e3aa14-d0ea-468e-ac9a-593fc358e084</t>
+          <t>75eb1504-f045-43f9-a89f-6d40ce989ae4</t>
         </is>
       </c>
     </row>
@@ -4891,7 +4895,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>aa61a8f6-3a04-4795-a873-9fd8ef303a74</t>
+          <t>ad29190e-5fc2-47fb-be30-ca2c33860018</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4995,7 @@
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>4053e1d4-22b7-450d-a314-015cd19e3283</t>
+          <t>7ba142a6-e8e3-42a3-ac5d-181ba68795a8</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5091,7 @@
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>5ebb0fff-d49b-43a2-81a0-e06ec31c2326</t>
+          <t>f1354a96-3865-4f76-94f3-e6e81e7a2e0f</t>
         </is>
       </c>
     </row>
@@ -5183,7 +5187,7 @@
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>0fa30cb3-1405-4f4c-ba9c-ae9351890d88</t>
+          <t>1f61668a-4322-486e-984d-567ec4fa2e3e</t>
         </is>
       </c>
     </row>
@@ -5275,7 +5279,7 @@
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>5fadc591-908a-42f7-aa0a-7c70c0be7c3f</t>
+          <t>854cabf1-ee53-40e5-8d5c-347eb0f94057</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5369,7 @@
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>631c6a4b-88c2-410a-ab53-22c21809dd04</t>
+          <t>84e41c28-40d8-48d0-9574-3cf8f1bdc909</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5465,7 @@
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>9d27ba85-f355-4366-8191-bb0106c04abe</t>
+          <t>bbf47805-c93f-4df3-bc47-9b33496159e8</t>
         </is>
       </c>
     </row>
@@ -5557,7 +5561,7 @@
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>1f89b3db-3df0-4a13-8acf-984cee233a3c</t>
+          <t>1ca5d37b-7aa3-4687-9b7f-f02266d585fc</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5657,7 @@
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>973ac3d1-0fac-4b03-9ab9-1ddcdc96418e</t>
+          <t>ac366b1d-6559-4f71-bba1-5521890698fc</t>
         </is>
       </c>
     </row>
@@ -5749,7 +5753,7 @@
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>3b671afc-aa0d-4dbc-9e01-871762394cd7</t>
+          <t>82f8bb1d-de82-4904-8f2a-02056169d9f4</t>
         </is>
       </c>
     </row>
@@ -5845,7 +5849,7 @@
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>3f0d84c2-f5e6-4d31-aaf1-6c0ede6e2390</t>
+          <t>73805eb5-cb6d-4d35-9af8-77b000f2f7fc</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5945,7 @@
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>49859ca1-f1b1-4381-b53d-d46f25dbd33e</t>
+          <t>2757efee-a0e6-47a7-a2cd-d87c889b6fd5</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6041,7 @@
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>8bccd8bd-9ba5-43d4-8700-40937374dbda</t>
+          <t>d93edc4a-fe57-4e8f-ba90-dbd1b1684ff1</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6129,7 @@
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>e0237935-0673-42c2-95d4-e68de8446812</t>
+          <t>37234e6d-d9a7-4594-b5f6-22d1295b5e5c</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6225,7 @@
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>7a5bdc58-89ec-4c2b-b1fe-bd8a894093bd</t>
+          <t>4be636ec-401e-4927-8a3a-aa9ebf735d1a</t>
         </is>
       </c>
     </row>
@@ -6319,7 +6323,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>01126c72-063c-4b8e-8799-c001543c1ddd</t>
+          <t>ef417f9c-536c-45d4-9985-b833e4d3eb80</t>
         </is>
       </c>
     </row>
@@ -6415,7 +6419,7 @@
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>fba9fbad-4bf1-46a7-b52c-ad7b751b4373</t>
+          <t>3a78af2b-6566-40da-8a75-3cae9e721f7c</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6515,7 @@
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>dc425a93-edda-4bb9-8d43-0416219145e8</t>
+          <t>ca0a376d-35f8-48d0-93b3-3c6d1ac26a43</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6613,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>eb1b8329-74dc-4fab-b8ba-f95104539260</t>
+          <t>d47108ef-19e6-4221-ba6a-0c4f300b235a</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6709,7 @@
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>88f62f95-c02e-44cd-a5df-fe72b9a18bb9</t>
+          <t>8adecc7b-af7d-4eee-b1f1-387d84ef70fd</t>
         </is>
       </c>
     </row>
@@ -6803,7 +6807,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>678ba9b7-7665-495a-84bc-6ab4191b5725</t>
+          <t>32c7e6a6-58b7-47d0-b86d-009e8129ae52</t>
         </is>
       </c>
     </row>
@@ -6899,7 +6903,7 @@
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>81d87947-d869-489f-a1cf-200d2e81c5e3</t>
+          <t>ae637e1d-c933-4ae9-baad-d66db7e24d8e</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6999,7 @@
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>657934b9-b84d-4f6a-85d2-78bcf2522b22</t>
+          <t>cc51cd71-8c3c-4e5a-a841-936094fde8b3</t>
         </is>
       </c>
     </row>
@@ -7091,7 +7095,7 @@
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>b26f2902-4dab-4ea9-b154-f070bb25e80c</t>
+          <t>ea4f53fb-5605-4c43-920e-31de7028511a</t>
         </is>
       </c>
     </row>
@@ -7189,7 +7193,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>34a77e7f-23a1-4b2c-81b2-8f13777f26d7</t>
+          <t>d9ebe81f-1684-4aaf-bc66-d69f7687227a</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7289,7 @@
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>a40afbfe-c038-4481-95d5-8a93a8fa0acc</t>
+          <t>0f9a9fff-f49a-47a2-bd33-6277e24c656b</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7385,7 @@
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>c6e55558-faab-4f0c-90dc-278281ce1c0b</t>
+          <t>bea50049-518e-4ca1-b5c7-08a14ffe673f</t>
         </is>
       </c>
     </row>
@@ -7479,7 +7483,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>2768301b-7121-4b2b-ba37-4e9cfeca4875</t>
+          <t>0d0598b7-5639-4f77-b2e6-ccfcbe6a879b</t>
         </is>
       </c>
     </row>
@@ -7575,7 +7579,7 @@
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>08dd9eb2-f5f7-47bf-9b35-7245105ae4af</t>
+          <t>9d16a711-d128-480d-b704-80ea8dbc6a96</t>
         </is>
       </c>
     </row>
@@ -7673,7 +7677,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>7e39619d-f73b-4d92-9386-0cc816bf8dc4</t>
+          <t>3a414acf-2a6d-4fed-b36a-0fadfd5a44b6</t>
         </is>
       </c>
     </row>
@@ -7769,7 +7773,7 @@
       <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>6f796f83-3cfe-45e9-b4af-299a3496dcac</t>
+          <t>f5f2e562-0501-44ed-b770-57340da5d100</t>
         </is>
       </c>
     </row>
@@ -7863,7 +7867,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>7035a412-9bae-4eed-beed-65d1f904f923</t>
+          <t>44b2b58c-7254-4263-ba6c-f3d55d40ea92</t>
         </is>
       </c>
     </row>
@@ -7959,7 +7963,7 @@
       <c r="AE78" t="inlineStr"/>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>db2eeb63-f7b1-401b-afeb-34912880eb82</t>
+          <t>9f958db2-f842-4a67-9532-3093e5a3ccc4</t>
         </is>
       </c>
     </row>
@@ -8055,7 +8059,7 @@
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>f57976de-5199-44a9-8102-96bf0fa6099b</t>
+          <t>c30ee1e5-748d-4945-a780-bc490c34dcc8</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8149,7 @@
       <c r="AE80" t="inlineStr"/>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>a77fd4d3-83a4-4aaf-8074-7c3aa669bc37</t>
+          <t>b06fd01b-ebe7-45e8-900b-4a73dcf26c43</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8247,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>84aeb22e-0dcd-426a-9a06-7e865373ae5c</t>
+          <t>2812ca81-5e05-4bfe-a1d6-265e499b4243</t>
         </is>
       </c>
     </row>
@@ -8339,7 +8343,7 @@
       <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>7bde65fd-286e-43ee-8bc6-f786bce6a680</t>
+          <t>3d9ee910-bd82-44b4-a0c3-a35cf7d379c9</t>
         </is>
       </c>
     </row>
@@ -8435,7 +8439,7 @@
       <c r="AE83" t="inlineStr"/>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>d492c24d-2536-4189-8623-09100b794c10</t>
+          <t>d354dcf1-725a-4715-9d98-ae3d4a7b4c51</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8535,7 @@
       <c r="AE84" t="inlineStr"/>
       <c r="AF84" t="inlineStr">
         <is>
-          <t>069d55a1-c4c8-4e4a-b0da-1c14c506be57</t>
+          <t>d2bef4fc-b68a-43c0-a57e-aad8d1af7f1e</t>
         </is>
       </c>
     </row>
@@ -8627,7 +8631,7 @@
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>90306a8c-325d-41dd-80fe-787978bc1a99</t>
+          <t>2eee9531-2149-4286-9d56-e39019db4ba7</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8725,7 @@
       <c r="AE86" t="inlineStr"/>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>1eed59d5-9272-43af-b873-6850462823ef</t>
+          <t>4aaf76c6-dfba-4f27-8f1b-5808276f5eb6</t>
         </is>
       </c>
     </row>
@@ -8819,7 +8823,7 @@
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>9c0c6385-f640-4991-85be-7e640678ad50</t>
+          <t>f6fa4c2e-889d-4d6b-8e89-28b74ada3e8b</t>
         </is>
       </c>
     </row>
@@ -8913,7 +8917,7 @@
       <c r="AE88" t="inlineStr"/>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>ccc3558c-469b-4603-981c-d0582afab586</t>
+          <t>eb72ff56-6b67-4cf1-a8b2-492efd9e009f</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9013,7 @@
       </c>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>dbe0fa20-1dc6-407d-abc9-f3dd09ef4da9</t>
+          <t>ac4ed2cd-5efa-4872-8013-9f1a1023f85b</t>
         </is>
       </c>
     </row>
@@ -9105,7 +9109,7 @@
       </c>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>b338299e-ed03-458f-ba53-7b9a688018ee</t>
+          <t>058c9fca-8b75-41b7-8600-53ba479a71a2</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9205,7 @@
       </c>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>3a1bd515-c270-403f-af65-8c389ca0c0c7</t>
+          <t>84078c96-e4d5-436a-9d12-027825458fe1</t>
         </is>
       </c>
     </row>
@@ -9297,7 +9301,7 @@
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>15ebfa8a-b930-4001-b821-f9eac62df79f</t>
+          <t>3e0e928a-b3eb-4a46-876e-9602fc9a24e3</t>
         </is>
       </c>
     </row>
@@ -9395,7 +9399,7 @@
       </c>
       <c r="AF93" t="inlineStr">
         <is>
-          <t>293326a2-f91c-46e8-ab0f-7771bd907dc6</t>
+          <t>280bcf61-c8ca-4ebe-bff8-8db7cd71dc30</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9493,7 @@
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>867caaa0-84f4-41ec-9ee6-46fb8ec2d3a4</t>
+          <t>1212ef12-d093-4ffe-b274-f70c236426fd</t>
         </is>
       </c>
     </row>
@@ -9585,7 +9589,7 @@
       </c>
       <c r="AF95" t="inlineStr">
         <is>
-          <t>f895590e-13ad-4e9a-b67f-a02bbad4b33f</t>
+          <t>30a4af12-c531-4cbc-b91c-beeab1a53520</t>
         </is>
       </c>
     </row>
@@ -9679,7 +9683,7 @@
       <c r="AE96" t="inlineStr"/>
       <c r="AF96" t="inlineStr">
         <is>
-          <t>0ed59e7a-af5f-4b59-9166-b9ad48c64eee</t>
+          <t>760d5f23-8216-4c2c-a6e4-a125859bad60</t>
         </is>
       </c>
     </row>
@@ -9775,7 +9779,7 @@
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>30f4e393-d341-49ff-8f32-50556df75df9</t>
+          <t>12b497a4-d0a2-452f-a78e-f48ca733d67a</t>
         </is>
       </c>
     </row>
@@ -9871,7 +9875,7 @@
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" t="inlineStr">
         <is>
-          <t>b639735f-b403-4f7f-97b5-58743074d321</t>
+          <t>ad3402f9-93c1-42ef-8c79-aa5e340dce37</t>
         </is>
       </c>
     </row>
@@ -9965,7 +9969,7 @@
       <c r="AE99" t="inlineStr"/>
       <c r="AF99" t="inlineStr">
         <is>
-          <t>d7bb5b55-4832-4f5f-8202-b254a1f24cf5</t>
+          <t>fa0df38f-8246-4e51-963b-69690b64357a</t>
         </is>
       </c>
     </row>
@@ -10059,7 +10063,7 @@
       <c r="AE100" t="inlineStr"/>
       <c r="AF100" t="inlineStr">
         <is>
-          <t>93a10831-176d-4e93-ba2c-cf85bf788629</t>
+          <t>374b4085-b598-4f0d-af6a-a184e26231aa</t>
         </is>
       </c>
     </row>
@@ -10153,7 +10157,7 @@
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" t="inlineStr">
         <is>
-          <t>e09c97d1-997f-44b4-87ca-5eb32c4f4e3d</t>
+          <t>bc100d2c-c9f9-4fd9-9beb-04f8fee654fd</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10253,7 @@
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>9706c1bf-cb86-48b7-ab7b-516b957c93ca</t>
+          <t>0ff31dae-4861-452f-b947-7efcfdbc95b8</t>
         </is>
       </c>
     </row>
@@ -10345,7 +10349,7 @@
       </c>
       <c r="AF103" t="inlineStr">
         <is>
-          <t>c47fc412-e64c-4e4e-b4bc-03a4d2574f8f</t>
+          <t>371ea252-40d9-408e-9928-fb204dbee554</t>
         </is>
       </c>
     </row>
@@ -10441,7 +10445,7 @@
       </c>
       <c r="AF104" t="inlineStr">
         <is>
-          <t>5068fe58-e925-4645-a762-3599d500c2cf</t>
+          <t>3abdc8fb-95b4-4809-b562-92bb23ae1c0c</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10539,7 @@
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" t="inlineStr">
         <is>
-          <t>201f8b37-5486-45f5-b7b5-d3284e43b694</t>
+          <t>88e8f28d-9671-4741-9c65-848c0c01e268</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10633,7 @@
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" t="inlineStr">
         <is>
-          <t>cd56b706-545d-4f28-822a-78698bcbb1d0</t>
+          <t>5acb9b6e-579b-4238-9d6b-bd12bec2d255</t>
         </is>
       </c>
     </row>
@@ -10725,7 +10729,7 @@
       </c>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>1ec1ad20-10ff-4bc6-9375-f43f565cfedb</t>
+          <t>136584cf-a0c7-4f68-bf4b-4b4a28aecd72</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10827,7 @@
       </c>
       <c r="AF108" t="inlineStr">
         <is>
-          <t>2df3d9a7-c0ae-4e28-93f6-d358532816a0</t>
+          <t>ad735460-4bb1-4065-ab91-6210d53bad9f</t>
         </is>
       </c>
     </row>
@@ -10917,7 +10921,7 @@
       <c r="AE109" t="inlineStr"/>
       <c r="AF109" t="inlineStr">
         <is>
-          <t>3c86e6aa-13ba-43d0-9f0f-ad5a92f1d43c</t>
+          <t>09105e32-1f4f-4d4a-9149-d072478e05d4</t>
         </is>
       </c>
     </row>
@@ -11013,7 +11017,7 @@
       <c r="AE110" t="inlineStr"/>
       <c r="AF110" t="inlineStr">
         <is>
-          <t>55701296-eff3-41e4-aab3-4254d273f84b</t>
+          <t>4f809df6-0584-4f69-8bb2-bf540b217047</t>
         </is>
       </c>
     </row>
@@ -11105,7 +11109,7 @@
       <c r="AE111" t="inlineStr"/>
       <c r="AF111" t="inlineStr">
         <is>
-          <t>b4b4db05-0a4b-4b67-b1f3-2bca9c4cc7d1</t>
+          <t>6839b4e7-7da9-485c-96f9-c8e4650948b9</t>
         </is>
       </c>
     </row>
@@ -11201,7 +11205,7 @@
       </c>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>a429f98c-43bb-4591-911d-3d51afba4971</t>
+          <t>2f518b06-bee6-42bd-a2fa-249f42ebdfb5</t>
         </is>
       </c>
     </row>
@@ -11295,7 +11299,7 @@
       <c r="AE113" t="inlineStr"/>
       <c r="AF113" t="inlineStr">
         <is>
-          <t>9e982f40-d1b4-4a1f-aee7-30aee4fd67dd</t>
+          <t>f0cc64da-13e0-45e0-aaf3-e39c7771de1b</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11395,7 @@
       </c>
       <c r="AF114" t="inlineStr">
         <is>
-          <t>0bda5aef-45a5-4ede-82a5-e6329ebfbfe8</t>
+          <t>2a32dd86-5144-4951-abf0-b51926a54432</t>
         </is>
       </c>
     </row>
@@ -11485,7 +11489,7 @@
       <c r="AE115" t="inlineStr"/>
       <c r="AF115" t="inlineStr">
         <is>
-          <t>68afd627-65c5-4014-8e92-8c8a6dd7179e</t>
+          <t>740bbef6-be51-435e-a81b-bfbf198d7397</t>
         </is>
       </c>
     </row>
@@ -11579,7 +11583,7 @@
       <c r="AE116" t="inlineStr"/>
       <c r="AF116" t="inlineStr">
         <is>
-          <t>5f12573e-6ebe-40a9-81c5-40c39b857e42</t>
+          <t>bc0b9e2a-d0ef-4b28-88a4-bde7af150d92</t>
         </is>
       </c>
     </row>
@@ -11681,7 +11685,7 @@
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>b1b81bce-92b8-4033-9d92-f5125eccea62</t>
+          <t>7cd607b6-302f-4ae1-83ab-43a077ed285a</t>
         </is>
       </c>
     </row>
@@ -11775,7 +11779,7 @@
       <c r="AE118" t="inlineStr"/>
       <c r="AF118" t="inlineStr">
         <is>
-          <t>0c3b792b-61da-4b9a-952b-8f0ff1b995f0</t>
+          <t>3fcbbebd-6972-41a8-b1ae-75db900600f2</t>
         </is>
       </c>
     </row>
@@ -11871,7 +11875,7 @@
       </c>
       <c r="AF119" t="inlineStr">
         <is>
-          <t>99c802c9-ba52-48e2-926c-facbdd214063</t>
+          <t>f736f4d5-f356-4881-b95b-56de5d92fecf</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11969,7 @@
       <c r="AE120" t="inlineStr"/>
       <c r="AF120" t="inlineStr">
         <is>
-          <t>2ff9d993-5c40-46bb-bfb1-c1533dbff811</t>
+          <t>9baa09d2-0dbb-45db-859a-f2a79170f08f</t>
         </is>
       </c>
     </row>
@@ -12061,7 +12065,7 @@
       </c>
       <c r="AF121" t="inlineStr">
         <is>
-          <t>1243d000-ce89-4a8f-a258-24af64624bd0</t>
+          <t>de6ea473-6f18-4fca-b2cf-47b1356d028d</t>
         </is>
       </c>
     </row>
@@ -12157,7 +12161,7 @@
       </c>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>1184fbc1-9ea4-4bb0-9fd3-616fec37039e</t>
+          <t>de854d7f-d4d5-4d3e-a6df-365498dca956</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12255,7 @@
       <c r="AE123" t="inlineStr"/>
       <c r="AF123" t="inlineStr">
         <is>
-          <t>24aa9518-61e1-461d-a71c-869f97c05d2b</t>
+          <t>33536415-e7d0-418e-8a14-fe0a902d56a5</t>
         </is>
       </c>
     </row>
@@ -12347,7 +12351,7 @@
       </c>
       <c r="AF124" t="inlineStr">
         <is>
-          <t>0f8f29d6-7508-4b98-8c5b-9d83c8bbba4b</t>
+          <t>c3fbf512-ed2f-4cd5-b01c-06ec1a5ac75d</t>
         </is>
       </c>
     </row>
@@ -12443,7 +12447,7 @@
       </c>
       <c r="AF125" t="inlineStr">
         <is>
-          <t>644aa32d-87fd-4414-bc01-8feb4490950f</t>
+          <t>f08e61ba-a17a-4854-b4fd-4f676c9efaf4</t>
         </is>
       </c>
     </row>
@@ -12539,7 +12543,7 @@
       </c>
       <c r="AF126" t="inlineStr">
         <is>
-          <t>0090ab8b-d2e0-4370-8dc0-63ec78ebbf3f</t>
+          <t>6876152a-b405-4df0-86f1-51d1771c19e0</t>
         </is>
       </c>
     </row>
@@ -12637,7 +12641,7 @@
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>42777e73-714d-4e7d-ba9d-3778b5789de0</t>
+          <t>44d15be9-1072-453c-b273-c6f3a0a8c41e</t>
         </is>
       </c>
     </row>
@@ -12733,7 +12737,7 @@
       <c r="AE128" t="inlineStr"/>
       <c r="AF128" t="inlineStr">
         <is>
-          <t>2c514dee-232d-4b89-8b74-dc0c88456791</t>
+          <t>44d5547c-cbe0-4be3-9ad4-8b9a7cf4a7ef</t>
         </is>
       </c>
     </row>
@@ -12829,7 +12833,7 @@
       <c r="AE129" t="inlineStr"/>
       <c r="AF129" t="inlineStr">
         <is>
-          <t>4c6ef6b5-5c33-4aed-9fb4-87fe08d7f9e0</t>
+          <t>7542eca3-9c0e-4cc8-87fb-3f28ec52136b</t>
         </is>
       </c>
     </row>
@@ -12921,7 +12925,7 @@
       <c r="AE130" t="inlineStr"/>
       <c r="AF130" t="inlineStr">
         <is>
-          <t>52ad4275-c0c9-4698-bb53-b304450df541</t>
+          <t>f77ab9a0-8510-4396-b390-49c50825d1e5</t>
         </is>
       </c>
     </row>
@@ -13013,7 +13017,7 @@
       <c r="AE131" t="inlineStr"/>
       <c r="AF131" t="inlineStr">
         <is>
-          <t>ec580eb1-d11c-407b-99db-5f131c31739c</t>
+          <t>0844a94c-91bc-4b52-b0b9-896b4ec56d3e</t>
         </is>
       </c>
     </row>
@@ -13105,7 +13109,7 @@
       <c r="AE132" t="inlineStr"/>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>2c9c5058-a3e5-40eb-9c49-40cf0efe740d</t>
+          <t>a5b0c2da-d90f-4b84-bd0d-61dda192786c</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13207,7 @@
       </c>
       <c r="AF133" t="inlineStr">
         <is>
-          <t>99046bfe-1c9a-4853-8ef0-dc262806a3d9</t>
+          <t>6188ef4e-d811-41aa-8cd6-acd57f58ab82</t>
         </is>
       </c>
     </row>
@@ -13297,7 +13301,7 @@
       <c r="AE134" t="inlineStr"/>
       <c r="AF134" t="inlineStr">
         <is>
-          <t>965bd5d3-d223-4336-91ff-df9f85548306</t>
+          <t>aaee2f77-adb2-40d0-9114-54699e24faba</t>
         </is>
       </c>
     </row>
@@ -13389,7 +13393,7 @@
       <c r="AE135" t="inlineStr"/>
       <c r="AF135" t="inlineStr">
         <is>
-          <t>de5f6de0-5b71-4d72-96b1-cb0678ba3614</t>
+          <t>9f57e551-74e2-4d37-bc9e-9683a9c8622a</t>
         </is>
       </c>
     </row>
@@ -13489,7 +13493,7 @@
       <c r="AE136" t="inlineStr"/>
       <c r="AF136" t="inlineStr">
         <is>
-          <t>8ee712d1-4d55-41a5-9584-39655e7134a9</t>
+          <t>29223f0e-0bff-4116-8044-df686edc2ce1</t>
         </is>
       </c>
     </row>
@@ -13583,7 +13587,7 @@
       <c r="AE137" t="inlineStr"/>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>c307c685-fb70-4cdd-9599-fbaabde30c1a</t>
+          <t>27a7a3f2-1ef6-4bb5-82f7-8e608c8a6f51</t>
         </is>
       </c>
     </row>
@@ -13677,7 +13681,7 @@
       <c r="AE138" t="inlineStr"/>
       <c r="AF138" t="inlineStr">
         <is>
-          <t>cd30c989-1957-476f-b879-930e3632f859</t>
+          <t>1e08f543-5e73-4f40-a70b-d762a914d6ba</t>
         </is>
       </c>
     </row>
@@ -13773,7 +13777,7 @@
       <c r="AE139" t="inlineStr"/>
       <c r="AF139" t="inlineStr">
         <is>
-          <t>75ec9bc0-21a1-456a-9ab3-8afc0de0dbb6</t>
+          <t>050d7854-97ab-4026-8476-63fcec12bb8a</t>
         </is>
       </c>
     </row>
@@ -13871,7 +13875,7 @@
       </c>
       <c r="AF140" t="inlineStr">
         <is>
-          <t>5f37d77e-669f-4b62-894b-4e30ba2cbf3f</t>
+          <t>396ca73a-b07a-4a45-880f-65ad8d106083</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13967,7 @@
       <c r="AE141" t="inlineStr"/>
       <c r="AF141" t="inlineStr">
         <is>
-          <t>c6a23dee-6f90-478d-a76d-2927e22bafd0</t>
+          <t>c8d2130f-29df-4f5a-b058-9630ece68e93</t>
         </is>
       </c>
     </row>
@@ -14059,7 +14063,7 @@
       <c r="AE142" t="inlineStr"/>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>4d067dd8-4efd-4e64-aec8-74a621d73a59</t>
+          <t>29d7ef94-c11f-4a24-86af-a01e34046455</t>
         </is>
       </c>
     </row>
@@ -14155,7 +14159,7 @@
       <c r="AE143" t="inlineStr"/>
       <c r="AF143" t="inlineStr">
         <is>
-          <t>1ba68e5f-0803-44d9-a2d1-bbb1a163b19b</t>
+          <t>d3681dbd-18f0-460c-b74e-32237848c048</t>
         </is>
       </c>
     </row>
@@ -14253,7 +14257,7 @@
       </c>
       <c r="AF144" t="inlineStr">
         <is>
-          <t>135c238f-66a0-438a-b34a-97fe014ccba9</t>
+          <t>2e80a6a7-a156-4be5-be14-53becc24c8a3</t>
         </is>
       </c>
     </row>
@@ -14349,7 +14353,7 @@
       <c r="AE145" t="inlineStr"/>
       <c r="AF145" t="inlineStr">
         <is>
-          <t>01dbfd0b-f6cd-4c4b-ba0f-0903ad98ad69</t>
+          <t>51ed97f3-c364-4b81-be5a-96e47b598d40</t>
         </is>
       </c>
     </row>
@@ -14445,7 +14449,7 @@
       <c r="AE146" t="inlineStr"/>
       <c r="AF146" t="inlineStr">
         <is>
-          <t>a01a8e15-52b0-4115-83d3-84f4e7801d22</t>
+          <t>33b2e026-de4a-4e57-8ba6-61371d398af9</t>
         </is>
       </c>
     </row>
@@ -14541,7 +14545,7 @@
       <c r="AE147" t="inlineStr"/>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>94acb2ea-49be-473c-9749-ebeec89947db</t>
+          <t>351cbd71-9ee3-4205-9663-8ec6157b97eb</t>
         </is>
       </c>
     </row>
@@ -14639,7 +14643,7 @@
       </c>
       <c r="AF148" t="inlineStr">
         <is>
-          <t>7844c8d5-2b7d-4c7f-bfaf-18bc4a84f71c</t>
+          <t>5dd1c006-ff5b-47eb-a972-8f7ffd051726</t>
         </is>
       </c>
     </row>
@@ -14737,7 +14741,7 @@
       </c>
       <c r="AF149" t="inlineStr">
         <is>
-          <t>583fd004-af26-444e-87c0-6c62506cd17b</t>
+          <t>dc2cd3be-aec7-4291-875f-2f4ac4b5a485</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14837,7 @@
       <c r="AE150" t="inlineStr"/>
       <c r="AF150" t="inlineStr">
         <is>
-          <t>5042c4f2-712f-49e9-b45b-15fcf0f08d54</t>
+          <t>dd7cdcd6-c3ce-4f91-9871-02ab8ee6441a</t>
         </is>
       </c>
     </row>
@@ -14931,7 +14935,7 @@
       </c>
       <c r="AF151" t="inlineStr">
         <is>
-          <t>10cc4587-02be-441b-98bf-6912c8e154f4</t>
+          <t>4ec8f19c-048a-442d-bc2b-1a4e64cd015e</t>
         </is>
       </c>
     </row>
@@ -15029,7 +15033,7 @@
       </c>
       <c r="AF152" t="inlineStr">
         <is>
-          <t>0d44fc4d-75ca-4985-985a-086eccb6d8dc</t>
+          <t>9537faff-1efd-469b-87f9-1ff0fa5bbf05</t>
         </is>
       </c>
     </row>
@@ -15121,7 +15125,7 @@
       <c r="AE153" t="inlineStr"/>
       <c r="AF153" t="inlineStr">
         <is>
-          <t>24040f8f-d23c-4699-8e1a-72b1d21497a1</t>
+          <t>dfa529a7-9dbc-410e-b9ef-754672ed5f30</t>
         </is>
       </c>
     </row>
@@ -15215,7 +15219,7 @@
       <c r="AE154" t="inlineStr"/>
       <c r="AF154" t="inlineStr">
         <is>
-          <t>a5bde969-a5b8-4970-8a68-4cf0907d0a4f</t>
+          <t>d695c358-371c-47a1-97bd-1895f6f5e1b5</t>
         </is>
       </c>
     </row>
@@ -15313,7 +15317,7 @@
       </c>
       <c r="AF155" t="inlineStr">
         <is>
-          <t>473f6924-261c-4a65-8da7-f824547ab59d</t>
+          <t>41db7772-5e23-454d-867f-e34b7e91683e</t>
         </is>
       </c>
     </row>
@@ -15409,7 +15413,7 @@
       <c r="AE156" t="inlineStr"/>
       <c r="AF156" t="inlineStr">
         <is>
-          <t>6b23146a-8337-4af5-9ee4-97528b0f360f</t>
+          <t>7c4c943f-900e-4473-be6f-320382da3aa0</t>
         </is>
       </c>
     </row>
@@ -15505,7 +15509,7 @@
       <c r="AE157" t="inlineStr"/>
       <c r="AF157" t="inlineStr">
         <is>
-          <t>e840371a-bea4-46f9-93f6-be60067cefba</t>
+          <t>a643439a-493c-485e-98a9-8a46184820e1</t>
         </is>
       </c>
     </row>
@@ -15601,7 +15605,7 @@
       <c r="AE158" t="inlineStr"/>
       <c r="AF158" t="inlineStr">
         <is>
-          <t>bb163efc-4af8-4d73-b4d6-38b9e5eeed59</t>
+          <t>47db7357-6785-43bf-acdf-f7f9115cba64</t>
         </is>
       </c>
     </row>
@@ -15691,7 +15695,7 @@
       <c r="AE159" t="inlineStr"/>
       <c r="AF159" t="inlineStr">
         <is>
-          <t>f843a6cc-7b42-40d9-b200-5ea4eb29e255</t>
+          <t>7c940e45-2294-48f4-be1b-4c072f2c55d8</t>
         </is>
       </c>
     </row>
@@ -15781,7 +15785,7 @@
       <c r="AE160" t="inlineStr"/>
       <c r="AF160" t="inlineStr">
         <is>
-          <t>56a6c720-ec73-43af-860b-a6a5cc903be4</t>
+          <t>26c0eae3-1c7d-47a7-a042-a4a87253fb6a</t>
         </is>
       </c>
     </row>
@@ -15879,7 +15883,7 @@
       </c>
       <c r="AF161" t="inlineStr">
         <is>
-          <t>54ba67d0-f1d1-4268-b94b-881e9f5d64fb</t>
+          <t>1760b7a1-86a0-4623-ac8e-32041d501918</t>
         </is>
       </c>
     </row>
@@ -15971,7 +15975,7 @@
       <c r="AE162" t="inlineStr"/>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>fc639943-b47c-41cf-8022-c289762fe046</t>
+          <t>90798c00-6cac-4025-a4da-37da997f55c4</t>
         </is>
       </c>
     </row>
@@ -16069,7 +16073,7 @@
       </c>
       <c r="AF163" t="inlineStr">
         <is>
-          <t>d5be66a4-b112-41c6-b5b1-a2e7a88abb6a</t>
+          <t>3bb6d762-f31c-4237-ac00-91822782e385</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16165,7 @@
       <c r="AE164" t="inlineStr"/>
       <c r="AF164" t="inlineStr">
         <is>
-          <t>34a2f1c2-97fa-4a0b-a3ef-d5f530c61873</t>
+          <t>feea2102-5f82-416c-8f12-490a3b978df6</t>
         </is>
       </c>
     </row>
@@ -16257,7 +16261,7 @@
       <c r="AE165" t="inlineStr"/>
       <c r="AF165" t="inlineStr">
         <is>
-          <t>e4e8fb45-ff2e-4841-80e8-3a22d75674f4</t>
+          <t>b582d49c-8b1a-4a7c-9861-f807a9b2ea24</t>
         </is>
       </c>
     </row>
@@ -16347,7 +16351,7 @@
       <c r="AE166" t="inlineStr"/>
       <c r="AF166" t="inlineStr">
         <is>
-          <t>040fa696-0541-46aa-9564-d8b5fe54b754</t>
+          <t>6787405e-52db-422e-9b72-4698881c4123</t>
         </is>
       </c>
     </row>
@@ -16447,7 +16451,7 @@
       <c r="AE167" t="inlineStr"/>
       <c r="AF167" t="inlineStr">
         <is>
-          <t>d2dd00b2-3d7d-4e0b-b8a6-4d6434b82d68</t>
+          <t>3082d3c3-d2c1-40bd-829b-7046c45fa28c</t>
         </is>
       </c>
     </row>
@@ -16543,7 +16547,7 @@
       <c r="AE168" t="inlineStr"/>
       <c r="AF168" t="inlineStr">
         <is>
-          <t>33609a91-4115-4b6f-a004-1484405a58cd</t>
+          <t>5ec95f29-27e4-49a2-8557-e5f9d0982d97</t>
         </is>
       </c>
     </row>
@@ -16639,7 +16643,7 @@
       <c r="AE169" t="inlineStr"/>
       <c r="AF169" t="inlineStr">
         <is>
-          <t>23e8ffae-e9e8-403c-8217-3d1b391e4806</t>
+          <t>8f2f90c9-5cbd-4235-b28e-6a57b25cf4e3</t>
         </is>
       </c>
     </row>
@@ -16729,7 +16733,7 @@
       <c r="AE170" t="inlineStr"/>
       <c r="AF170" t="inlineStr">
         <is>
-          <t>86cae463-ffd7-473c-972e-d93be95f90b1</t>
+          <t>0cdd52cb-9f39-4d78-8bea-4038b6c0218b</t>
         </is>
       </c>
     </row>
@@ -16825,7 +16829,7 @@
       <c r="AE171" t="inlineStr"/>
       <c r="AF171" t="inlineStr">
         <is>
-          <t>8c3741e1-cc5b-46f0-b61c-a76667bd0339</t>
+          <t>d9507e4f-4ed6-4968-b076-46830a008ed7</t>
         </is>
       </c>
     </row>
@@ -16917,7 +16921,7 @@
       <c r="AE172" t="inlineStr"/>
       <c r="AF172" t="inlineStr">
         <is>
-          <t>9ac07896-ba49-4fac-9874-f9b43af87cac</t>
+          <t>e55c29a5-99c4-4fb0-be21-d2589610c666</t>
         </is>
       </c>
     </row>
@@ -17015,7 +17019,7 @@
       </c>
       <c r="AF173" t="inlineStr">
         <is>
-          <t>ef20ded3-0ec2-44a0-9268-13a0bfffafe7</t>
+          <t>1f5726e3-2569-48e7-bb90-529492f37e5f</t>
         </is>
       </c>
     </row>
@@ -17111,7 +17115,7 @@
       <c r="AE174" t="inlineStr"/>
       <c r="AF174" t="inlineStr">
         <is>
-          <t>2dbdfff2-b050-44e8-9e8d-4b89cebd7b88</t>
+          <t>464438b5-52e8-4d95-be45-b5a5fbb0df65</t>
         </is>
       </c>
     </row>
@@ -17207,7 +17211,7 @@
       <c r="AE175" t="inlineStr"/>
       <c r="AF175" t="inlineStr">
         <is>
-          <t>9ed81d40-7c56-4414-ae1f-4659aa72d26c</t>
+          <t>75827760-5b1a-4bce-9ba6-6dc94b5c42db</t>
         </is>
       </c>
     </row>
@@ -17303,7 +17307,7 @@
       <c r="AE176" t="inlineStr"/>
       <c r="AF176" t="inlineStr">
         <is>
-          <t>6064c830-5b53-4936-9937-d9b190bb3184</t>
+          <t>40a831a7-7f7b-4fe4-996c-cfb0dbb14d58</t>
         </is>
       </c>
     </row>
@@ -17393,7 +17397,7 @@
       <c r="AE177" t="inlineStr"/>
       <c r="AF177" t="inlineStr">
         <is>
-          <t>529f3e5e-d200-4065-90a6-555bf0c9c9b2</t>
+          <t>98769d2c-aad2-4c51-9751-2e7c0982766e</t>
         </is>
       </c>
     </row>
@@ -17489,7 +17493,7 @@
       <c r="AE178" t="inlineStr"/>
       <c r="AF178" t="inlineStr">
         <is>
-          <t>f989f573-be72-4df6-974c-4a0718dda72c</t>
+          <t>354d7c49-ccaa-47c2-9706-607f95d1e457</t>
         </is>
       </c>
     </row>
@@ -17587,7 +17591,7 @@
       </c>
       <c r="AF179" t="inlineStr">
         <is>
-          <t>9e7f7e79-cb56-434c-87c9-a7697d80b31e</t>
+          <t>f0397d1f-b3a5-4c6a-a615-38b35092f430</t>
         </is>
       </c>
     </row>
@@ -17679,7 +17683,7 @@
       <c r="AE180" t="inlineStr"/>
       <c r="AF180" t="inlineStr">
         <is>
-          <t>326715df-4f2a-427d-b3fa-892a0462b1d6</t>
+          <t>491ca8d4-7bdf-4bb8-af61-090206c528c1</t>
         </is>
       </c>
     </row>
@@ -17775,7 +17779,7 @@
       <c r="AE181" t="inlineStr"/>
       <c r="AF181" t="inlineStr">
         <is>
-          <t>263d1d67-8427-401f-953b-58b41ff14d87</t>
+          <t>86b5ba62-f391-4399-8f0b-b9d6ab59382c</t>
         </is>
       </c>
     </row>
@@ -17871,7 +17875,7 @@
       <c r="AE182" t="inlineStr"/>
       <c r="AF182" t="inlineStr">
         <is>
-          <t>645d47d0-962a-47c7-bc1e-7c47da6d9f0f</t>
+          <t>55f9813f-0363-4cf8-bc6e-400f5558e1e8</t>
         </is>
       </c>
     </row>
@@ -17967,7 +17971,7 @@
       <c r="AE183" t="inlineStr"/>
       <c r="AF183" t="inlineStr">
         <is>
-          <t>c9b744cf-d462-4bd5-9b38-4913705e3330</t>
+          <t>9e7f3119-8f76-4cca-80b1-504a90544caa</t>
         </is>
       </c>
     </row>
@@ -18065,7 +18069,7 @@
       </c>
       <c r="AF184" t="inlineStr">
         <is>
-          <t>5db433c8-c793-4dee-9c85-a4dc1512f873</t>
+          <t>4dbb6e7c-57ae-499a-8e7f-7e21ad726e7c</t>
         </is>
       </c>
     </row>
@@ -18163,7 +18167,7 @@
       </c>
       <c r="AF185" t="inlineStr">
         <is>
-          <t>c6311f2b-de5d-404b-8d5e-5e9a155024c0</t>
+          <t>3344c209-1b32-4828-9bfd-566e80d29229</t>
         </is>
       </c>
     </row>
@@ -18261,7 +18265,7 @@
       </c>
       <c r="AF186" t="inlineStr">
         <is>
-          <t>fa5c4577-fa1a-4b06-a25a-a2e80a99c3e9</t>
+          <t>a4130f05-e49b-4853-a7f3-3108ba38fc61</t>
         </is>
       </c>
     </row>
@@ -18359,7 +18363,7 @@
       </c>
       <c r="AF187" t="inlineStr">
         <is>
-          <t>7c2cbee5-4b0f-4b09-9620-405edb4ad862</t>
+          <t>612e0b7f-3a1b-476f-abd0-e6a0b65842fd</t>
         </is>
       </c>
     </row>
@@ -18455,7 +18459,7 @@
       <c r="AE188" t="inlineStr"/>
       <c r="AF188" t="inlineStr">
         <is>
-          <t>dfd083ea-0062-44e2-b0a7-0d310ce2b603</t>
+          <t>66e29b4e-d161-4140-a178-6825aab300fd</t>
         </is>
       </c>
     </row>
@@ -18547,7 +18551,7 @@
       <c r="AE189" t="inlineStr"/>
       <c r="AF189" t="inlineStr">
         <is>
-          <t>982c327e-a2a9-48c4-a0e5-770365f56f89</t>
+          <t>ea3b1344-3661-425d-b5ab-81aa0951fd94</t>
         </is>
       </c>
     </row>
@@ -18643,7 +18647,7 @@
       <c r="AE190" t="inlineStr"/>
       <c r="AF190" t="inlineStr">
         <is>
-          <t>d7cceaf2-56d6-4b5e-b836-d3cb5f8f2dea</t>
+          <t>975acd0d-54ef-4059-a852-2d9f99085336</t>
         </is>
       </c>
     </row>
@@ -18733,7 +18737,7 @@
       <c r="AE191" t="inlineStr"/>
       <c r="AF191" t="inlineStr">
         <is>
-          <t>17c39193-a173-4b80-8b0e-14a4b359af5d</t>
+          <t>70393d3f-453f-4ec9-9661-acb7527aea17</t>
         </is>
       </c>
     </row>
@@ -18829,7 +18833,7 @@
       <c r="AE192" t="inlineStr"/>
       <c r="AF192" t="inlineStr">
         <is>
-          <t>9941c6fc-bbc3-4c5e-b7d6-7ef1ee615f07</t>
+          <t>4a566018-f56d-4cad-ab5b-52db8681b77c</t>
         </is>
       </c>
     </row>
@@ -18921,7 +18925,7 @@
       <c r="AE193" t="inlineStr"/>
       <c r="AF193" t="inlineStr">
         <is>
-          <t>bb3fcba4-7c46-4554-8ac1-cd8de6a2979e</t>
+          <t>906900b0-54a7-4c7b-a0c1-9832c5e77c44</t>
         </is>
       </c>
     </row>
@@ -19011,7 +19015,7 @@
       <c r="AE194" t="inlineStr"/>
       <c r="AF194" t="inlineStr">
         <is>
-          <t>0ed9bb15-ea10-4192-958b-5c4bec70a876</t>
+          <t>dae1bde9-4723-4a8a-bf05-02e3e02c41a7</t>
         </is>
       </c>
     </row>
@@ -19107,7 +19111,7 @@
       <c r="AE195" t="inlineStr"/>
       <c r="AF195" t="inlineStr">
         <is>
-          <t>650e3840-f9f0-4637-b7c2-9eb934fb0da1</t>
+          <t>b148bd2c-e3c2-4ba4-b0ae-9d6d67646cca</t>
         </is>
       </c>
     </row>
@@ -19203,7 +19207,7 @@
       <c r="AE196" t="inlineStr"/>
       <c r="AF196" t="inlineStr">
         <is>
-          <t>429604ed-79a6-45df-b57f-c3eaeff3ce8a</t>
+          <t>0e166773-bd81-4952-a4ef-4b7d1f11396f</t>
         </is>
       </c>
     </row>
@@ -19293,7 +19297,7 @@
       <c r="AE197" t="inlineStr"/>
       <c r="AF197" t="inlineStr">
         <is>
-          <t>12909212-22b1-4493-9085-c3319d1a370a</t>
+          <t>fd4c05e7-7620-436f-acb4-17faaead816d</t>
         </is>
       </c>
     </row>
@@ -19389,7 +19393,7 @@
       <c r="AE198" t="inlineStr"/>
       <c r="AF198" t="inlineStr">
         <is>
-          <t>74f9d134-2731-4535-a526-da135abb49aa</t>
+          <t>cc4a917e-9329-4082-aaf9-a9bdd0faae8a</t>
         </is>
       </c>
     </row>
@@ -19485,7 +19489,7 @@
       <c r="AE199" t="inlineStr"/>
       <c r="AF199" t="inlineStr">
         <is>
-          <t>8f85614a-3603-4a01-af4c-639070970413</t>
+          <t>86501c82-efa1-4af1-8f14-c7f1da58c942</t>
         </is>
       </c>
     </row>
@@ -19575,7 +19579,7 @@
       <c r="AE200" t="inlineStr"/>
       <c r="AF200" t="inlineStr">
         <is>
-          <t>9a65af03-8250-467a-a0cd-4449f96e304e</t>
+          <t>a384ad88-d7fe-4d39-ac6b-f6a2f50a530b</t>
         </is>
       </c>
     </row>
@@ -19671,7 +19675,7 @@
       <c r="AE201" t="inlineStr"/>
       <c r="AF201" t="inlineStr">
         <is>
-          <t>9f7f9c3d-16d6-45f4-b551-45a8e477000e</t>
+          <t>e2cd8a4e-1883-4857-ab13-ada674ac0cd0</t>
         </is>
       </c>
     </row>
@@ -19763,7 +19767,7 @@
       <c r="AE202" t="inlineStr"/>
       <c r="AF202" t="inlineStr">
         <is>
-          <t>69312093-2a65-4fcf-b5e1-50d59c4735ff</t>
+          <t>77a777bf-968b-4dbc-91aa-3ca26c49bd13</t>
         </is>
       </c>
     </row>
@@ -19861,7 +19865,7 @@
       </c>
       <c r="AF203" t="inlineStr">
         <is>
-          <t>935247fb-4420-4fa2-b267-c9283155ef31</t>
+          <t>e7351605-1a3f-469b-8b46-07e08d42f8c0</t>
         </is>
       </c>
     </row>
@@ -19959,7 +19963,7 @@
       </c>
       <c r="AF204" t="inlineStr">
         <is>
-          <t>8a82b70d-756d-44d1-a23b-0167b798e3f5</t>
+          <t>2ea56652-f0fc-4771-82d6-39968fbf4b99</t>
         </is>
       </c>
     </row>
@@ -20057,7 +20061,7 @@
       </c>
       <c r="AF205" t="inlineStr">
         <is>
-          <t>e4700803-5283-4575-bc25-6d82ed124b7b</t>
+          <t>e9160203-c6ed-478e-8c57-b9cb36e2d72d</t>
         </is>
       </c>
     </row>
@@ -20155,7 +20159,7 @@
       </c>
       <c r="AF206" t="inlineStr">
         <is>
-          <t>a2d39282-1df0-4f46-92e8-bb945372ad30</t>
+          <t>f32b7807-be95-4fa6-916a-4c68007f030a</t>
         </is>
       </c>
     </row>
@@ -20247,7 +20251,7 @@
       <c r="AE207" t="inlineStr"/>
       <c r="AF207" t="inlineStr">
         <is>
-          <t>06574912-0aa9-4c57-a95f-f2b05932ca55</t>
+          <t>c0104624-3591-4dc5-95e6-d73076171a6e</t>
         </is>
       </c>
     </row>
@@ -20343,7 +20347,7 @@
       <c r="AE208" t="inlineStr"/>
       <c r="AF208" t="inlineStr">
         <is>
-          <t>2a061997-7702-45ab-88eb-78a27fdeb9fb</t>
+          <t>485159b7-f20c-405b-944f-d9309c154469</t>
         </is>
       </c>
     </row>
@@ -20433,7 +20437,7 @@
       <c r="AE209" t="inlineStr"/>
       <c r="AF209" t="inlineStr">
         <is>
-          <t>b6e31de3-b60f-4e92-ae8e-0cb2e8a8572a</t>
+          <t>9f9c4aae-2213-4ea6-82ae-648db4368ab8</t>
         </is>
       </c>
     </row>
@@ -20535,7 +20539,7 @@
       </c>
       <c r="AF210" t="inlineStr">
         <is>
-          <t>cdcc25a6-7f29-432e-878f-8d3026b379a3</t>
+          <t>996029de-8f12-4a4b-961e-d26dc34c45aa</t>
         </is>
       </c>
     </row>
@@ -20631,7 +20635,7 @@
       <c r="AE211" t="inlineStr"/>
       <c r="AF211" t="inlineStr">
         <is>
-          <t>f7e8480e-99c6-4d00-a6a9-60d628aed674</t>
+          <t>1755ed24-f2b1-4f22-8c50-411da308e8c1</t>
         </is>
       </c>
     </row>
@@ -20727,7 +20731,7 @@
       <c r="AE212" t="inlineStr"/>
       <c r="AF212" t="inlineStr">
         <is>
-          <t>6775ec66-abc6-40b7-a44b-71270dd9d1cf</t>
+          <t>a46ae040-9edb-4baa-8a2b-99a83e79939b</t>
         </is>
       </c>
     </row>
@@ -20819,7 +20823,7 @@
       <c r="AE213" t="inlineStr"/>
       <c r="AF213" t="inlineStr">
         <is>
-          <t>416c3f5e-7271-4972-b1b6-0f92ddcf9cd8</t>
+          <t>c0302454-d221-4611-b0fc-e11f25d74072</t>
         </is>
       </c>
     </row>
@@ -20915,7 +20919,7 @@
       <c r="AE214" t="inlineStr"/>
       <c r="AF214" t="inlineStr">
         <is>
-          <t>4d177b9e-ea14-459f-b9a5-cfaeb4781228</t>
+          <t>0595043b-746e-4d2f-8fe6-b4573e244b18</t>
         </is>
       </c>
     </row>
@@ -21013,7 +21017,7 @@
       </c>
       <c r="AF215" t="inlineStr">
         <is>
-          <t>6e599481-83db-4c3d-901c-f3f6783a61eb</t>
+          <t>42ca6579-082a-4df4-84a4-0570f1f7b630</t>
         </is>
       </c>
     </row>
@@ -21111,7 +21115,7 @@
       </c>
       <c r="AF216" t="inlineStr">
         <is>
-          <t>5b93fcbe-0280-4f2b-bb3d-67c364feaafd</t>
+          <t>3fc5a961-50f9-4b52-9326-0a88bf427ddf</t>
         </is>
       </c>
     </row>
@@ -21201,7 +21205,7 @@
       <c r="AE217" t="inlineStr"/>
       <c r="AF217" t="inlineStr">
         <is>
-          <t>b901d057-bc37-4cb0-be49-ea6932db058e</t>
+          <t>de1f2267-b2d6-481f-acf2-7b579efbfb15</t>
         </is>
       </c>
     </row>
@@ -21299,7 +21303,7 @@
       </c>
       <c r="AF218" t="inlineStr">
         <is>
-          <t>ea98fa7c-5824-47f1-a670-cf138a9caed7</t>
+          <t>57c08a1a-545c-49ee-9e88-b17b9ea72efa</t>
         </is>
       </c>
     </row>
@@ -21397,7 +21401,7 @@
       </c>
       <c r="AF219" t="inlineStr">
         <is>
-          <t>a5fc6bdc-317c-487c-ae78-00afef05eaa5</t>
+          <t>fc178e19-859e-41f3-ad95-1431c50c0a29</t>
         </is>
       </c>
     </row>
@@ -21495,7 +21499,7 @@
       </c>
       <c r="AF220" t="inlineStr">
         <is>
-          <t>7f9b74a0-be21-45f5-a347-509d9fec9a6b</t>
+          <t>d6df258e-8771-4454-adaf-5ea79ee588df</t>
         </is>
       </c>
     </row>
@@ -21591,7 +21595,7 @@
       <c r="AE221" t="inlineStr"/>
       <c r="AF221" t="inlineStr">
         <is>
-          <t>a014fc86-dcf6-45b4-84c3-51cf1b2d5f1b</t>
+          <t>6185aa21-8522-43b9-8027-bfa98159adf1</t>
         </is>
       </c>
     </row>
@@ -21689,7 +21693,7 @@
       </c>
       <c r="AF222" t="inlineStr">
         <is>
-          <t>506b34d1-bd74-4cc9-ad11-ce3f9449dad7</t>
+          <t>faa25825-a76d-4864-9752-d441ede14c18</t>
         </is>
       </c>
     </row>
@@ -21785,7 +21789,7 @@
       <c r="AE223" t="inlineStr"/>
       <c r="AF223" t="inlineStr">
         <is>
-          <t>b35964bc-c49d-48c2-81e7-e0facd2cba05</t>
+          <t>07e9d2d8-781a-477e-849b-c2dae99d824e</t>
         </is>
       </c>
     </row>
@@ -21881,7 +21885,7 @@
       <c r="AE224" t="inlineStr"/>
       <c r="AF224" t="inlineStr">
         <is>
-          <t>8d868beb-0f88-48ef-8776-5d91db65e250</t>
+          <t>e5f84f39-9d37-44d4-a56d-ad3124be5a51</t>
         </is>
       </c>
     </row>
@@ -21979,7 +21983,7 @@
       </c>
       <c r="AF225" t="inlineStr">
         <is>
-          <t>94656788-96fa-4a14-be5d-06631e0245da</t>
+          <t>31acf670-d6fd-4a3e-a009-89706d7d938a</t>
         </is>
       </c>
     </row>
@@ -22069,7 +22073,7 @@
       <c r="AE226" t="inlineStr"/>
       <c r="AF226" t="inlineStr">
         <is>
-          <t>4c7dae74-ef56-4f5e-ac9d-79fde6d85b84</t>
+          <t>1457fa54-5a11-4a4c-89a7-006020a2c6a6</t>
         </is>
       </c>
     </row>
@@ -22167,7 +22171,7 @@
       </c>
       <c r="AF227" t="inlineStr">
         <is>
-          <t>5ce4a1fc-54b9-4fe2-bb2f-655df7c418f9</t>
+          <t>f68c18d4-1136-42a2-b871-3ed664eb5bbc</t>
         </is>
       </c>
     </row>
@@ -22265,7 +22269,7 @@
       </c>
       <c r="AF228" t="inlineStr">
         <is>
-          <t>fa4b9fc9-0da9-48f2-a043-2d13f1ff58bb</t>
+          <t>3cf44258-d070-4bd0-bdd7-b5134bf498c4</t>
         </is>
       </c>
     </row>
@@ -22363,7 +22367,7 @@
       </c>
       <c r="AF229" t="inlineStr">
         <is>
-          <t>f0495b15-ba99-4754-b24b-e289fbd6ada0</t>
+          <t>276c66aa-3b2c-4dc0-8aff-86e880d22f9d</t>
         </is>
       </c>
     </row>
@@ -22461,7 +22465,7 @@
       </c>
       <c r="AF230" t="inlineStr">
         <is>
-          <t>12331d9a-392c-4184-89c5-63b0205348b6</t>
+          <t>a1aee894-0207-47eb-8322-4059fdfc7ed6</t>
         </is>
       </c>
     </row>
@@ -22551,7 +22555,7 @@
       <c r="AE231" t="inlineStr"/>
       <c r="AF231" t="inlineStr">
         <is>
-          <t>7a93d232-c477-4a98-93b5-539ad71b7b00</t>
+          <t>5fcabb87-4d20-40dd-8f99-358ede4d91c5</t>
         </is>
       </c>
     </row>
@@ -22641,7 +22645,7 @@
       <c r="AE232" t="inlineStr"/>
       <c r="AF232" t="inlineStr">
         <is>
-          <t>adf2382b-d6ef-40ea-8e35-461b29f0b3d6</t>
+          <t>9563d309-6742-454c-b6eb-0e1c4a8447eb</t>
         </is>
       </c>
     </row>
@@ -22731,7 +22735,7 @@
       <c r="AE233" t="inlineStr"/>
       <c r="AF233" t="inlineStr">
         <is>
-          <t>e20f9787-0f6a-4949-b926-8e42fa398613</t>
+          <t>629032f9-d373-44cf-9fd0-3f9c9285bf38</t>
         </is>
       </c>
     </row>
@@ -22829,7 +22833,7 @@
       </c>
       <c r="AF234" t="inlineStr">
         <is>
-          <t>5805853a-1297-43b2-9637-cd929ffacb4c</t>
+          <t>ef438590-dc63-4964-8843-088d9e9c8dfa</t>
         </is>
       </c>
     </row>
@@ -22919,7 +22923,7 @@
       <c r="AE235" t="inlineStr"/>
       <c r="AF235" t="inlineStr">
         <is>
-          <t>f4b51af2-5253-469d-b472-2e143ca5ec20</t>
+          <t>6a2dc544-afcf-40be-809d-b7d5f58823c9</t>
         </is>
       </c>
     </row>
@@ -23009,7 +23013,7 @@
       <c r="AE236" t="inlineStr"/>
       <c r="AF236" t="inlineStr">
         <is>
-          <t>26d867c0-4707-4e50-954a-58dfa6964126</t>
+          <t>ccbaaa12-defa-4f73-ab24-edde445db7ed</t>
         </is>
       </c>
     </row>
@@ -23105,7 +23109,7 @@
       <c r="AE237" t="inlineStr"/>
       <c r="AF237" t="inlineStr">
         <is>
-          <t>27f34cce-0437-41f4-991a-19d220bcd012</t>
+          <t>24b82b0c-0a36-434c-9e12-31db1f353fcd</t>
         </is>
       </c>
     </row>
@@ -23201,7 +23205,7 @@
       <c r="AE238" t="inlineStr"/>
       <c r="AF238" t="inlineStr">
         <is>
-          <t>7842945d-1c9b-4a05-9213-663c639301c1</t>
+          <t>57a7693f-e197-4404-b634-6fc65b7f604a</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23301,7 @@
       <c r="AE239" t="inlineStr"/>
       <c r="AF239" t="inlineStr">
         <is>
-          <t>baa55aa7-3d7a-4f8b-bca1-f39bbc2afc09</t>
+          <t>fb275570-18e5-4996-8001-2196aac9bf85</t>
         </is>
       </c>
     </row>
@@ -23387,7 +23391,7 @@
       <c r="AE240" t="inlineStr"/>
       <c r="AF240" t="inlineStr">
         <is>
-          <t>5762be25-bf04-4945-915a-7839f8ee1cab</t>
+          <t>2ffaa80a-0908-4e12-80dc-28e976bf7eca</t>
         </is>
       </c>
     </row>
@@ -23489,7 +23493,7 @@
       </c>
       <c r="AF241" t="inlineStr">
         <is>
-          <t>b4625bad-d749-4524-a16a-0ccb3f7c906c</t>
+          <t>4c237642-a7a3-4c6d-bb6b-f165ad3a0303</t>
         </is>
       </c>
     </row>
@@ -23585,7 +23589,7 @@
       <c r="AE242" t="inlineStr"/>
       <c r="AF242" t="inlineStr">
         <is>
-          <t>a6453886-c3d0-4b6a-8fda-3fda711bfc14</t>
+          <t>595947ed-3ab1-458a-ba91-39c20b5913ee</t>
         </is>
       </c>
     </row>
@@ -23675,7 +23679,7 @@
       <c r="AE243" t="inlineStr"/>
       <c r="AF243" t="inlineStr">
         <is>
-          <t>d8661f5e-5589-4abb-a61f-e0a6207a0d39</t>
+          <t>21762a9a-25b0-4ba8-b137-ea909f8b223b</t>
         </is>
       </c>
     </row>
@@ -23765,7 +23769,7 @@
       <c r="AE244" t="inlineStr"/>
       <c r="AF244" t="inlineStr">
         <is>
-          <t>8604c473-9034-46a1-b7f4-2750cb405d25</t>
+          <t>2be3c1fb-b059-4252-9fe5-2cce49b4a43f</t>
         </is>
       </c>
     </row>
@@ -23863,7 +23867,7 @@
       </c>
       <c r="AF245" t="inlineStr">
         <is>
-          <t>ebf3c81c-36a4-4eaa-8bb0-e3789b2fe8d5</t>
+          <t>7b5fc795-8858-4426-b1be-a17549f4168e</t>
         </is>
       </c>
     </row>
@@ -23953,7 +23957,7 @@
       <c r="AE246" t="inlineStr"/>
       <c r="AF246" t="inlineStr">
         <is>
-          <t>d015f93d-2845-4663-b123-d12474a8796e</t>
+          <t>aed8ebed-c2cd-4311-b149-f4aa82b63a63</t>
         </is>
       </c>
     </row>
@@ -24043,7 +24047,7 @@
       <c r="AE247" t="inlineStr"/>
       <c r="AF247" t="inlineStr">
         <is>
-          <t>a65124c7-7ccd-404e-916d-4a62d6905cbb</t>
+          <t>15f1fee8-9d1d-4916-b3f3-0abc04ea3061</t>
         </is>
       </c>
     </row>
@@ -24139,7 +24143,7 @@
       <c r="AE248" t="inlineStr"/>
       <c r="AF248" t="inlineStr">
         <is>
-          <t>ac2082c0-ce9c-4b08-ba6d-ddae7e38a216</t>
+          <t>2ff2a327-2e09-427f-9b91-4179a3f3d3c8</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24241,7 @@
       </c>
       <c r="AF249" t="inlineStr">
         <is>
-          <t>f66dded7-0a88-473d-b299-fa6534668d0c</t>
+          <t>5e57a549-1750-4a35-b9dd-c9140a181253</t>
         </is>
       </c>
     </row>
@@ -24335,7 +24339,7 @@
       </c>
       <c r="AF250" t="inlineStr">
         <is>
-          <t>82147196-4d0b-40a1-9af9-79805a5642a3</t>
+          <t>de27954a-bb74-4db9-b001-811a6db667de</t>
         </is>
       </c>
     </row>
@@ -24425,7 +24429,7 @@
       <c r="AE251" t="inlineStr"/>
       <c r="AF251" t="inlineStr">
         <is>
-          <t>dfbcd614-883d-4a7c-9456-e48ff4f1316a</t>
+          <t>483132e6-4dfc-4fd1-8cbb-fb91df3f09e6</t>
         </is>
       </c>
     </row>
@@ -24521,7 +24525,7 @@
       <c r="AE252" t="inlineStr"/>
       <c r="AF252" t="inlineStr">
         <is>
-          <t>fb6f738c-f085-4304-8050-2f5652d78bd1</t>
+          <t>4462503d-1358-480a-aed6-616e4c894ce6</t>
         </is>
       </c>
     </row>
@@ -24615,7 +24619,7 @@
       </c>
       <c r="AF253" t="inlineStr">
         <is>
-          <t>b2a0b52d-0e90-4c9e-b43c-07258ea8d083</t>
+          <t>515e0d0f-c865-43fa-bac3-cf29e61d50a9</t>
         </is>
       </c>
     </row>
@@ -24713,7 +24717,7 @@
       </c>
       <c r="AF254" t="inlineStr">
         <is>
-          <t>3fb67150-8ce2-4efb-8700-770bea6e3a51</t>
+          <t>5ce20ba0-8d4f-41c9-a341-d8710dd82300</t>
         </is>
       </c>
     </row>
@@ -24809,7 +24813,7 @@
       <c r="AE255" t="inlineStr"/>
       <c r="AF255" t="inlineStr">
         <is>
-          <t>58ed01c2-0b63-4ff3-918f-e57e3900fb0f</t>
+          <t>fd6bfe66-5e55-4325-a60d-f31420017ed5</t>
         </is>
       </c>
     </row>
@@ -24905,7 +24909,7 @@
       <c r="AE256" t="inlineStr"/>
       <c r="AF256" t="inlineStr">
         <is>
-          <t>65697c7c-f10b-443b-bc47-b98e9f6d73ba</t>
+          <t>3f50fca7-5e95-46b0-9264-5a0cb4b28077</t>
         </is>
       </c>
     </row>
@@ -24995,7 +24999,7 @@
       <c r="AE257" t="inlineStr"/>
       <c r="AF257" t="inlineStr">
         <is>
-          <t>dcbe47a1-44d6-41d3-b88d-c580b97fdd4e</t>
+          <t>016453ee-1019-4f8c-8639-c55184a72185</t>
         </is>
       </c>
     </row>
@@ -25091,7 +25095,7 @@
       <c r="AE258" t="inlineStr"/>
       <c r="AF258" t="inlineStr">
         <is>
-          <t>f5af768d-6b6c-4947-9bed-807ef5d9a744</t>
+          <t>a58866c1-8b58-423c-a59c-04b349e5c6cf</t>
         </is>
       </c>
     </row>
@@ -25189,7 +25193,7 @@
       </c>
       <c r="AF259" t="inlineStr">
         <is>
-          <t>77b6af3e-c930-447c-bafe-2b70ca64e96c</t>
+          <t>9d2e8213-ab84-4ec1-a17c-bf207da155a7</t>
         </is>
       </c>
     </row>
@@ -25285,7 +25289,7 @@
       <c r="AE260" t="inlineStr"/>
       <c r="AF260" t="inlineStr">
         <is>
-          <t>1d5e84f6-5a27-4b27-bc98-8a91fe84240a</t>
+          <t>43d2c73a-230a-44e2-949f-52329fccee34</t>
         </is>
       </c>
     </row>
@@ -25381,7 +25385,7 @@
       <c r="AE261" t="inlineStr"/>
       <c r="AF261" t="inlineStr">
         <is>
-          <t>fc3f2909-b113-45ab-8a68-f5074bf3282b</t>
+          <t>dac2d819-8e39-4155-9288-3948b7141889</t>
         </is>
       </c>
     </row>
@@ -25471,7 +25475,7 @@
       <c r="AE262" t="inlineStr"/>
       <c r="AF262" t="inlineStr">
         <is>
-          <t>25739a7c-e386-4a82-89b0-f43a4f295e44</t>
+          <t>8cfb0a29-3189-4a05-aeb9-120374899603</t>
         </is>
       </c>
     </row>
@@ -25567,7 +25571,7 @@
       <c r="AE263" t="inlineStr"/>
       <c r="AF263" t="inlineStr">
         <is>
-          <t>1d2f63f8-214c-4ac8-98df-7d0115d8a7bf</t>
+          <t>b4486ede-ded5-42b4-a94e-1b310e9f38aa</t>
         </is>
       </c>
     </row>
@@ -25665,7 +25669,7 @@
       </c>
       <c r="AF264" t="inlineStr">
         <is>
-          <t>d64f8bb0-cc65-4f64-8c1b-2e1a6ebb9bf5</t>
+          <t>784dd599-5fc5-4b5f-aaab-1f1100c81924</t>
         </is>
       </c>
     </row>
@@ -25763,7 +25767,7 @@
       </c>
       <c r="AF265" t="inlineStr">
         <is>
-          <t>f48cc8de-480a-4402-986f-f9b3e6c5cbba</t>
+          <t>bd73e180-6995-4f2a-af60-775c0fb6ab02</t>
         </is>
       </c>
     </row>
@@ -25859,7 +25863,7 @@
       <c r="AE266" t="inlineStr"/>
       <c r="AF266" t="inlineStr">
         <is>
-          <t>e38ed26c-6bdb-42e4-b364-7645684ebdd4</t>
+          <t>b7398fe7-ef6d-4757-89d1-94afc6adbb9b</t>
         </is>
       </c>
     </row>
@@ -25951,7 +25955,7 @@
       <c r="AE267" t="inlineStr"/>
       <c r="AF267" t="inlineStr">
         <is>
-          <t>c90b8ea8-ff87-4408-a14c-b61a16ebd2bb</t>
+          <t>2c5fd662-69f0-4f48-bb0a-712745489329</t>
         </is>
       </c>
     </row>
@@ -26041,7 +26045,7 @@
       <c r="AE268" t="inlineStr"/>
       <c r="AF268" t="inlineStr">
         <is>
-          <t>6c1de88a-9976-4963-a8c8-7f10fe822687</t>
+          <t>014eb969-2e15-4ee4-8622-977169d75e41</t>
         </is>
       </c>
     </row>
@@ -26139,7 +26143,7 @@
       </c>
       <c r="AF269" t="inlineStr">
         <is>
-          <t>3f17d6e0-3138-475f-a900-fa55ed56209d</t>
+          <t>76422b21-d0b4-4d64-9bee-049c8889997b</t>
         </is>
       </c>
     </row>
@@ -26235,7 +26239,7 @@
       <c r="AE270" t="inlineStr"/>
       <c r="AF270" t="inlineStr">
         <is>
-          <t>e4fb5edd-93dc-4452-ada1-cf20c8078128</t>
+          <t>0ce06923-b2b9-42e8-9a9c-851e3ce1d77d</t>
         </is>
       </c>
     </row>
@@ -26331,7 +26335,7 @@
       <c r="AE271" t="inlineStr"/>
       <c r="AF271" t="inlineStr">
         <is>
-          <t>b3d712df-b654-4906-ba01-3dc37c6459d4</t>
+          <t>7d1e1d2e-628f-4c31-9162-becc5d27f55d</t>
         </is>
       </c>
     </row>
@@ -26423,7 +26427,7 @@
       <c r="AE272" t="inlineStr"/>
       <c r="AF272" t="inlineStr">
         <is>
-          <t>dac8c9b5-bf67-43c6-b875-8ad6e2594477</t>
+          <t>7e00f544-20ca-4040-b54b-f1574f395de4</t>
         </is>
       </c>
     </row>
@@ -26521,7 +26525,7 @@
       </c>
       <c r="AF273" t="inlineStr">
         <is>
-          <t>eefc50d4-fe02-4c72-9689-5ae123208b85</t>
+          <t>fba3a56a-2e0b-4fd6-b15a-60f535594783</t>
         </is>
       </c>
     </row>
@@ -26619,7 +26623,7 @@
       </c>
       <c r="AF274" t="inlineStr">
         <is>
-          <t>765bb1c7-1377-4c3c-9550-460b843d28e7</t>
+          <t>fe2d7ec6-9c6e-4606-9b43-18671a37f813</t>
         </is>
       </c>
     </row>
@@ -26721,7 +26725,7 @@
       </c>
       <c r="AF275" t="inlineStr">
         <is>
-          <t>6d762445-e75a-49ec-aedf-2a3b90da519f</t>
+          <t>a7818844-b893-4c4b-81ec-5682d7ebbf20</t>
         </is>
       </c>
     </row>
@@ -26811,7 +26815,7 @@
       <c r="AE276" t="inlineStr"/>
       <c r="AF276" t="inlineStr">
         <is>
-          <t>2261ef86-586f-43ab-b1c5-e59f76f9869e</t>
+          <t>0b6a32b9-ca7f-4965-807f-96a63b7d0931</t>
         </is>
       </c>
     </row>
@@ -26903,7 +26907,7 @@
       <c r="AE277" t="inlineStr"/>
       <c r="AF277" t="inlineStr">
         <is>
-          <t>4d5834fc-e67d-4039-bf46-7d22d22c7e41</t>
+          <t>ccb485a0-272d-41b3-b28b-350281740a76</t>
         </is>
       </c>
     </row>
@@ -26993,7 +26997,7 @@
       <c r="AE278" t="inlineStr"/>
       <c r="AF278" t="inlineStr">
         <is>
-          <t>dac1e5cb-b203-49bf-9bc3-72b2e46cbc53</t>
+          <t>27e70432-ba43-4988-8537-88afd11fe77d</t>
         </is>
       </c>
     </row>
@@ -27089,7 +27093,7 @@
       <c r="AE279" t="inlineStr"/>
       <c r="AF279" t="inlineStr">
         <is>
-          <t>ab091576-d2d6-42b3-9049-3511ce985277</t>
+          <t>5c9467f3-75e9-4d61-b420-9cd8090dbb8c</t>
         </is>
       </c>
     </row>
@@ -27185,7 +27189,7 @@
       <c r="AE280" t="inlineStr"/>
       <c r="AF280" t="inlineStr">
         <is>
-          <t>5cee5f63-fa09-4dab-82cf-dafc21ffacdc</t>
+          <t>c0eeafb5-c8d4-408f-8e11-cd884d30cf60</t>
         </is>
       </c>
     </row>
@@ -27283,7 +27287,7 @@
       </c>
       <c r="AF281" t="inlineStr">
         <is>
-          <t>35c6c777-fc82-4c76-8657-cb19dc527f47</t>
+          <t>f079df63-b889-4529-9573-39be8ca2c436</t>
         </is>
       </c>
     </row>
@@ -27379,7 +27383,7 @@
       <c r="AE282" t="inlineStr"/>
       <c r="AF282" t="inlineStr">
         <is>
-          <t>ec17bce4-b048-417a-bd63-e893fd838fdc</t>
+          <t>5196842e-55bc-42a4-b61a-605817294929</t>
         </is>
       </c>
     </row>
@@ -27471,7 +27475,7 @@
       <c r="AE283" t="inlineStr"/>
       <c r="AF283" t="inlineStr">
         <is>
-          <t>1d5220c6-d1a2-4cae-9861-acc3e38da865</t>
+          <t>c4d5f0e2-c545-4927-a5b0-d21b45ff26f6</t>
         </is>
       </c>
     </row>
@@ -27567,7 +27571,7 @@
       <c r="AE284" t="inlineStr"/>
       <c r="AF284" t="inlineStr">
         <is>
-          <t>f63fd1bb-218a-40ce-bfba-47625af97ef0</t>
+          <t>4b39d8c9-babf-4c7c-859e-959147c2a0c5</t>
         </is>
       </c>
     </row>
@@ -27665,7 +27669,7 @@
       </c>
       <c r="AF285" t="inlineStr">
         <is>
-          <t>1e2a572a-17f8-48d8-a0e1-320320d0d2ef</t>
+          <t>9d4ad30a-d394-43e3-9139-110e91a53607</t>
         </is>
       </c>
     </row>
@@ -27763,7 +27767,7 @@
       </c>
       <c r="AF286" t="inlineStr">
         <is>
-          <t>bb2d9ce8-6e75-457e-86d5-13bea58b6367</t>
+          <t>f49d20a6-4fd6-4b99-b9be-3ca5cb3440c7</t>
         </is>
       </c>
     </row>
@@ -27853,7 +27857,7 @@
       <c r="AE287" t="inlineStr"/>
       <c r="AF287" t="inlineStr">
         <is>
-          <t>d902e823-3356-4749-b0ae-0ca94a4287dc</t>
+          <t>94fdd7ff-cf40-4bd4-91bb-164f44b72406</t>
         </is>
       </c>
     </row>
@@ -27949,7 +27953,7 @@
       <c r="AE288" t="inlineStr"/>
       <c r="AF288" t="inlineStr">
         <is>
-          <t>5f2c9045-0303-493d-984e-f0c295deec63</t>
+          <t>603ec23a-9dc0-407e-97ac-711b97fdfcfe</t>
         </is>
       </c>
     </row>
@@ -28047,7 +28051,7 @@
       </c>
       <c r="AF289" t="inlineStr">
         <is>
-          <t>6a4ec9e9-96e8-4ea5-ba0f-9f98cead72d9</t>
+          <t>a960bc4b-4eaf-40a5-9497-5f070e58eb85</t>
         </is>
       </c>
     </row>
@@ -28143,7 +28147,7 @@
       <c r="AE290" t="inlineStr"/>
       <c r="AF290" t="inlineStr">
         <is>
-          <t>5e60322a-156c-4e77-9099-7417d1bd01e3</t>
+          <t>69d620c0-6b24-46ce-8e2b-a6771282876d</t>
         </is>
       </c>
     </row>
@@ -28241,7 +28245,7 @@
       </c>
       <c r="AF291" t="inlineStr">
         <is>
-          <t>a7c4e38d-60a8-41a3-8703-d92cf30b7d2a</t>
+          <t>cf1a072a-cef5-4ab9-b8b8-dd670d9528cc</t>
         </is>
       </c>
     </row>
@@ -28333,7 +28337,7 @@
       <c r="AE292" t="inlineStr"/>
       <c r="AF292" t="inlineStr">
         <is>
-          <t>ca869413-cba1-402e-87bb-e738f219b29e</t>
+          <t>7d74887b-af52-493a-997a-8f3800a3c17d</t>
         </is>
       </c>
     </row>
@@ -28429,7 +28433,7 @@
       <c r="AE293" t="inlineStr"/>
       <c r="AF293" t="inlineStr">
         <is>
-          <t>99292e48-ff75-4a6a-93b4-7b7bb3632b20</t>
+          <t>413a03c4-5606-493e-beea-fccc8d2ac9c0</t>
         </is>
       </c>
     </row>
@@ -28525,7 +28529,7 @@
       <c r="AE294" t="inlineStr"/>
       <c r="AF294" t="inlineStr">
         <is>
-          <t>8971de6e-ce19-435e-a9f0-9c7b218b9b14</t>
+          <t>7019d612-20f8-496f-958e-f7515a73f755</t>
         </is>
       </c>
     </row>
@@ -28621,7 +28625,7 @@
       <c r="AE295" t="inlineStr"/>
       <c r="AF295" t="inlineStr">
         <is>
-          <t>6be7b24b-15af-49b5-a542-c0c136132852</t>
+          <t>acacfce6-c81e-4067-b2e2-ff06f716798f</t>
         </is>
       </c>
     </row>
@@ -28719,7 +28723,7 @@
       </c>
       <c r="AF296" t="inlineStr">
         <is>
-          <t>c04652a5-499e-4aaf-b276-bfa9b8679ab6</t>
+          <t>1438a18d-2696-441c-85d0-3b024060bc89</t>
         </is>
       </c>
     </row>
@@ -28817,7 +28821,7 @@
       </c>
       <c r="AF297" t="inlineStr">
         <is>
-          <t>3edcb165-59ca-44da-91ed-5ceb68c94eb7</t>
+          <t>8e101d07-b2c9-4c04-a635-7dc30175e816</t>
         </is>
       </c>
     </row>
@@ -28915,7 +28919,7 @@
       </c>
       <c r="AF298" t="inlineStr">
         <is>
-          <t>efe0dd8e-cad8-435a-8b1c-e2d443ee67b1</t>
+          <t>b4a28d06-4aef-4843-8120-0ec2340bcbff</t>
         </is>
       </c>
     </row>
@@ -29005,7 +29009,7 @@
       <c r="AE299" t="inlineStr"/>
       <c r="AF299" t="inlineStr">
         <is>
-          <t>3224c614-41cc-4fc5-98f8-57bd4a1d8ea1</t>
+          <t>d051c3f2-da8b-4ef0-9fca-87713d4a9339</t>
         </is>
       </c>
     </row>
@@ -29097,7 +29101,7 @@
       <c r="AE300" t="inlineStr"/>
       <c r="AF300" t="inlineStr">
         <is>
-          <t>bdce3736-0183-4f10-8337-7f50433bf874</t>
+          <t>22e6c262-8457-48cc-86a8-fc06039fa22c</t>
         </is>
       </c>
     </row>
@@ -29187,7 +29191,7 @@
       <c r="AE301" t="inlineStr"/>
       <c r="AF301" t="inlineStr">
         <is>
-          <t>35e8107e-feed-47d0-90a0-f376e9178cee</t>
+          <t>16fcc9ad-72bb-47d5-a2ea-5869813ba54b</t>
         </is>
       </c>
     </row>
@@ -29285,7 +29289,7 @@
       </c>
       <c r="AF302" t="inlineStr">
         <is>
-          <t>cf74ee37-4c4f-455c-b409-aa3f3ff3b942</t>
+          <t>a930c7ed-abfc-46a3-be50-552437877c0c</t>
         </is>
       </c>
     </row>
@@ -29383,7 +29387,7 @@
       </c>
       <c r="AF303" t="inlineStr">
         <is>
-          <t>bdc5ead0-84d0-47f9-b93a-513dbb016d16</t>
+          <t>2c38f898-13b6-4523-b889-22a44f4b3f79</t>
         </is>
       </c>
     </row>
@@ -29477,7 +29481,7 @@
       </c>
       <c r="AF304" t="inlineStr">
         <is>
-          <t>167d6c16-35f7-43e8-ae2a-66f287bd6312</t>
+          <t>e746cf84-c3ab-4743-bd86-dc62f505cae9</t>
         </is>
       </c>
     </row>
@@ -29573,7 +29577,7 @@
       <c r="AE305" t="inlineStr"/>
       <c r="AF305" t="inlineStr">
         <is>
-          <t>2e307501-fe84-49ec-8bbc-d32606575cd4</t>
+          <t>2b28799a-1162-48a2-8280-69baa08f884b</t>
         </is>
       </c>
     </row>
@@ -29665,7 +29669,7 @@
       <c r="AE306" t="inlineStr"/>
       <c r="AF306" t="inlineStr">
         <is>
-          <t>07a5d577-1a45-48c1-9742-c0475acd619a</t>
+          <t>815ae4a1-bcb0-41ba-b555-994b7aab63fd</t>
         </is>
       </c>
     </row>
@@ -29755,7 +29759,7 @@
       <c r="AE307" t="inlineStr"/>
       <c r="AF307" t="inlineStr">
         <is>
-          <t>55dff4f8-cf2a-4d71-8ec5-4b8309ee77c4</t>
+          <t>4e3f767a-207d-471b-ad33-9391ddb72064</t>
         </is>
       </c>
     </row>
@@ -29847,7 +29851,7 @@
       <c r="AE308" t="inlineStr"/>
       <c r="AF308" t="inlineStr">
         <is>
-          <t>e49060c8-8439-49f4-b2ff-7e889fee8da9</t>
+          <t>dd31c45e-442c-46d8-b227-efcfae7dad4f</t>
         </is>
       </c>
     </row>
@@ -29943,7 +29947,7 @@
       <c r="AE309" t="inlineStr"/>
       <c r="AF309" t="inlineStr">
         <is>
-          <t>13d273ed-b1c1-4a70-a16d-a97dd9db9a39</t>
+          <t>0c93a538-9a83-4226-9b7c-bea0a5587b18</t>
         </is>
       </c>
     </row>
@@ -30039,7 +30043,7 @@
       <c r="AE310" t="inlineStr"/>
       <c r="AF310" t="inlineStr">
         <is>
-          <t>11a10580-653f-4458-9825-dfcbbc1b106c</t>
+          <t>a5d4d478-416a-405c-b8f0-84d267a70b2d</t>
         </is>
       </c>
     </row>
@@ -30129,7 +30133,7 @@
       <c r="AE311" t="inlineStr"/>
       <c r="AF311" t="inlineStr">
         <is>
-          <t>7dbdaaf1-db2a-4d95-aa83-cbd2da57b465</t>
+          <t>6255c941-b24c-4ed2-8387-93426f1226e5</t>
         </is>
       </c>
     </row>
@@ -30227,7 +30231,7 @@
       </c>
       <c r="AF312" t="inlineStr">
         <is>
-          <t>5aa7878e-b518-4f27-b830-f27124b4a816</t>
+          <t>91494f75-f381-485a-865d-0963bb8c3e7a</t>
         </is>
       </c>
     </row>
@@ -30325,7 +30329,7 @@
       </c>
       <c r="AF313" t="inlineStr">
         <is>
-          <t>d0d0b8b8-d12d-4f2b-926c-607c7af6a65d</t>
+          <t>74086c01-5dc5-49b6-b1c0-597522d7d102</t>
         </is>
       </c>
     </row>
@@ -30423,7 +30427,7 @@
       </c>
       <c r="AF314" t="inlineStr">
         <is>
-          <t>fcf20212-3aad-4cc6-a672-2ec4593dc360</t>
+          <t>2d124c5d-4846-444e-9e1f-248af205c303</t>
         </is>
       </c>
     </row>
@@ -30521,7 +30525,7 @@
       </c>
       <c r="AF315" t="inlineStr">
         <is>
-          <t>30da7771-f6ea-4696-99bf-38fb7d856911</t>
+          <t>ba07459f-6537-4fe7-8c23-94017c5e353d</t>
         </is>
       </c>
     </row>
@@ -30611,7 +30615,7 @@
       <c r="AE316" t="inlineStr"/>
       <c r="AF316" t="inlineStr">
         <is>
-          <t>868da95a-6381-414d-9976-b7e0818d7ae2</t>
+          <t>89df74aa-1da4-4734-988d-87fb9dbc4af6</t>
         </is>
       </c>
     </row>
@@ -30709,7 +30713,7 @@
       </c>
       <c r="AF317" t="inlineStr">
         <is>
-          <t>2ad547a4-2c10-4413-b163-ea747d9a264f</t>
+          <t>e8030951-e286-4078-b149-d7068e18803c</t>
         </is>
       </c>
     </row>
@@ -30807,7 +30811,7 @@
       </c>
       <c r="AF318" t="inlineStr">
         <is>
-          <t>9eb24865-b39b-47e1-b901-6941d7b18823</t>
+          <t>239bba32-15b0-4f7a-accc-3d53c3119b3e</t>
         </is>
       </c>
     </row>
@@ -30903,7 +30907,7 @@
       <c r="AE319" t="inlineStr"/>
       <c r="AF319" t="inlineStr">
         <is>
-          <t>e2e8e48b-3d67-452b-84f1-d29c6074e28a</t>
+          <t>7a70804c-43f9-4462-94f6-5df95d6d5da7</t>
         </is>
       </c>
     </row>
@@ -30993,7 +30997,7 @@
       <c r="AE320" t="inlineStr"/>
       <c r="AF320" t="inlineStr">
         <is>
-          <t>49754756-3238-4ed6-80c0-2b7f6f17ca45</t>
+          <t>8fe75885-f932-4a9b-841f-b06bcd1f62c4</t>
         </is>
       </c>
     </row>
@@ -31085,7 +31089,7 @@
       <c r="AE321" t="inlineStr"/>
       <c r="AF321" t="inlineStr">
         <is>
-          <t>3475c9d2-e941-4d6e-8acb-114490e5fb54</t>
+          <t>1af11de2-fea3-4c7f-9691-3296b39f4465</t>
         </is>
       </c>
     </row>
@@ -31183,7 +31187,7 @@
       </c>
       <c r="AF322" t="inlineStr">
         <is>
-          <t>f4381e16-f61c-431e-bf24-eae2351da169</t>
+          <t>11e7a443-7101-459c-abfa-41a664cc6125</t>
         </is>
       </c>
     </row>
@@ -31281,7 +31285,7 @@
       </c>
       <c r="AF323" t="inlineStr">
         <is>
-          <t>05a51da1-aeda-4dbb-ab21-7f079aaedcec</t>
+          <t>45fa4a46-1448-4f4a-bdb0-bb2c0b5da5c7</t>
         </is>
       </c>
     </row>
@@ -31377,7 +31381,7 @@
       <c r="AE324" t="inlineStr"/>
       <c r="AF324" t="inlineStr">
         <is>
-          <t>566bdd3a-262e-45eb-b0b1-b218e691a8c1</t>
+          <t>d22cacda-8456-4b73-8b8f-770f7ef1bacc</t>
         </is>
       </c>
     </row>
@@ -31475,7 +31479,7 @@
       </c>
       <c r="AF325" t="inlineStr">
         <is>
-          <t>66d8552d-92b3-4601-8444-295b55b17b3b</t>
+          <t>092f6e5d-0b78-4d02-b974-58ea4cc1bf0c</t>
         </is>
       </c>
     </row>
@@ -31573,7 +31577,7 @@
       </c>
       <c r="AF326" t="inlineStr">
         <is>
-          <t>ed99cc5b-a3cd-4194-aaf6-56263b857e09</t>
+          <t>9815f777-938c-48ec-b6fa-ac5a518a7630</t>
         </is>
       </c>
     </row>
@@ -31669,7 +31673,7 @@
       <c r="AE327" t="inlineStr"/>
       <c r="AF327" t="inlineStr">
         <is>
-          <t>f33f35a4-dc78-4de2-a10f-019e4be15291</t>
+          <t>ba52ba5d-782e-4292-a6c0-81ddce655e84</t>
         </is>
       </c>
     </row>
@@ -31765,7 +31769,7 @@
       <c r="AE328" t="inlineStr"/>
       <c r="AF328" t="inlineStr">
         <is>
-          <t>16dfc77f-4270-440f-8cf4-e543bca592cf</t>
+          <t>109aa93b-c618-44c9-9e4a-dad22d412d23</t>
         </is>
       </c>
     </row>
@@ -31863,7 +31867,7 @@
       </c>
       <c r="AF329" t="inlineStr">
         <is>
-          <t>cf23102f-9417-452a-958a-c1c5b253715b</t>
+          <t>72d01b08-666f-44be-b185-7f1cd9cf0cc4</t>
         </is>
       </c>
     </row>
@@ -31961,7 +31965,7 @@
       </c>
       <c r="AF330" t="inlineStr">
         <is>
-          <t>73de2047-2d03-4f37-b5b9-fda077550617</t>
+          <t>82d9eac5-fc7a-44ba-ba75-b6726d745a40</t>
         </is>
       </c>
     </row>
@@ -32051,7 +32055,7 @@
       <c r="AE331" t="inlineStr"/>
       <c r="AF331" t="inlineStr">
         <is>
-          <t>b6caeccb-47c0-461d-b9be-0808e0eea96e</t>
+          <t>fdfd53c8-dbb1-4e1f-bdc8-d3018cab64bc</t>
         </is>
       </c>
     </row>
@@ -32149,7 +32153,7 @@
       </c>
       <c r="AF332" t="inlineStr">
         <is>
-          <t>9d7c1409-208d-4178-b300-a963bb58caa0</t>
+          <t>a268013e-2456-40f3-9756-cad88706ccc9</t>
         </is>
       </c>
     </row>
@@ -32247,7 +32251,7 @@
       </c>
       <c r="AF333" t="inlineStr">
         <is>
-          <t>0bb2b155-3942-4102-ae4d-77c37da0e7ca</t>
+          <t>cfd7a259-de55-4595-b621-68534994c6b7</t>
         </is>
       </c>
     </row>
@@ -32345,7 +32349,7 @@
       </c>
       <c r="AF334" t="inlineStr">
         <is>
-          <t>241a6c72-a0cf-43b7-8912-c3eb8bbc8c3c</t>
+          <t>73a3aa32-39c8-4822-98ae-d75e9cec58b6</t>
         </is>
       </c>
     </row>
@@ -32443,7 +32447,7 @@
       </c>
       <c r="AF335" t="inlineStr">
         <is>
-          <t>a766de9e-3940-41c8-a574-f2d6d3e40f18</t>
+          <t>e73d89c6-2b1f-4d56-b25a-bf5a6171f049</t>
         </is>
       </c>
     </row>
@@ -32537,7 +32541,7 @@
       </c>
       <c r="AF336" t="inlineStr">
         <is>
-          <t>162e6fe7-00b5-4f42-ba27-896f491d53a6</t>
+          <t>145844b9-abc1-4797-8958-7d222c9da79e</t>
         </is>
       </c>
     </row>
@@ -32633,7 +32637,7 @@
       <c r="AE337" t="inlineStr"/>
       <c r="AF337" t="inlineStr">
         <is>
-          <t>dfa9d876-9023-4feb-9af9-97d171bbc123</t>
+          <t>f7c98574-f292-43ae-80a1-5aa5a3277558</t>
         </is>
       </c>
     </row>
@@ -32731,7 +32735,7 @@
       </c>
       <c r="AF338" t="inlineStr">
         <is>
-          <t>6077fc50-0623-4a9d-bdae-67459a6619c9</t>
+          <t>0f852c0f-87ec-44f5-b9a6-3b388745931c</t>
         </is>
       </c>
     </row>
@@ -32821,7 +32825,7 @@
       <c r="AE339" t="inlineStr"/>
       <c r="AF339" t="inlineStr">
         <is>
-          <t>cb82f68e-92f0-4699-8c30-d7d119197e4e</t>
+          <t>8eaaf445-7882-4b72-ba4a-726a0ac44d5d</t>
         </is>
       </c>
     </row>
@@ -32913,7 +32917,7 @@
       <c r="AE340" t="inlineStr"/>
       <c r="AF340" t="inlineStr">
         <is>
-          <t>19cae908-0abf-41c6-ba7c-a5efc86b14c6</t>
+          <t>34fa8257-4989-4c59-b961-65d84e84efcf</t>
         </is>
       </c>
     </row>
@@ -33009,7 +33013,7 @@
       <c r="AE341" t="inlineStr"/>
       <c r="AF341" t="inlineStr">
         <is>
-          <t>0cf615c8-84f2-4949-a059-700a2b2f565e</t>
+          <t>72f06e73-dc79-4859-8f7f-95b793b09636</t>
         </is>
       </c>
     </row>
@@ -33103,7 +33107,7 @@
       </c>
       <c r="AF342" t="inlineStr">
         <is>
-          <t>0c1f93d7-dc02-4c2f-8e15-73f3f88d837a</t>
+          <t>2c57dde4-337d-4c80-8959-6d534cf8ce95</t>
         </is>
       </c>
     </row>
@@ -33197,7 +33201,7 @@
       </c>
       <c r="AF343" t="inlineStr">
         <is>
-          <t>023a6b84-36c5-49a8-9b71-e8b15d075e28</t>
+          <t>bea2dd24-5ae1-496c-821d-2998333026b2</t>
         </is>
       </c>
     </row>
@@ -33295,7 +33299,7 @@
       </c>
       <c r="AF344" t="inlineStr">
         <is>
-          <t>f3340905-f843-4eb4-ade8-8b057100f0a6</t>
+          <t>34c1a0bc-a36f-4bfd-a9a5-ec8eb65bbbb7</t>
         </is>
       </c>
     </row>
@@ -33393,7 +33397,7 @@
       </c>
       <c r="AF345" t="inlineStr">
         <is>
-          <t>21bcbd0a-56f2-442e-89a6-69dbefb3a06d</t>
+          <t>69b35a1b-8637-4286-8fe5-75fe1818c3b8</t>
         </is>
       </c>
     </row>
@@ -33483,7 +33487,7 @@
       <c r="AE346" t="inlineStr"/>
       <c r="AF346" t="inlineStr">
         <is>
-          <t>5fc667c1-e674-404c-a2be-f9d73e17a866</t>
+          <t>40d649e7-1e73-4639-b5a6-e643e359ecb7</t>
         </is>
       </c>
     </row>
@@ -33581,7 +33585,7 @@
       </c>
       <c r="AF347" t="inlineStr">
         <is>
-          <t>3fdbcbe2-16af-4d92-9bd1-8ee13c078552</t>
+          <t>f21aded6-146f-4b8f-a0f5-57b00a372792</t>
         </is>
       </c>
     </row>
@@ -33677,7 +33681,7 @@
       <c r="AE348" t="inlineStr"/>
       <c r="AF348" t="inlineStr">
         <is>
-          <t>e9c889a0-a5b3-4450-8dc3-efcad7add64d</t>
+          <t>3031ee92-4f80-43fe-ac20-3d6db4521429</t>
         </is>
       </c>
     </row>
@@ -33769,7 +33773,7 @@
       <c r="AE349" t="inlineStr"/>
       <c r="AF349" t="inlineStr">
         <is>
-          <t>862cb251-cc23-4e69-bfd5-f3b9c3c1044a</t>
+          <t>5422b9fa-d997-4877-8b85-7f4a05e01eaf</t>
         </is>
       </c>
     </row>
@@ -33867,7 +33871,7 @@
       </c>
       <c r="AF350" t="inlineStr">
         <is>
-          <t>53bcca98-0bd3-4624-a9e1-13c08f82bd81</t>
+          <t>ce86a3f1-c621-40b6-92f9-b1448b6e49c7</t>
         </is>
       </c>
     </row>
@@ -33965,7 +33969,7 @@
       </c>
       <c r="AF351" t="inlineStr">
         <is>
-          <t>d055cd5e-3ae4-47d0-8914-04e44df497ad</t>
+          <t>5c456e27-7d60-4e61-aa19-e9a3e82c8304</t>
         </is>
       </c>
     </row>
@@ -34061,7 +34065,7 @@
       <c r="AE352" t="inlineStr"/>
       <c r="AF352" t="inlineStr">
         <is>
-          <t>8649f943-232f-41ae-a2e1-fb652ad04f34</t>
+          <t>2917a4a8-26fd-4c40-bfe5-ac9c7f70ea90</t>
         </is>
       </c>
     </row>
@@ -34157,7 +34161,7 @@
       <c r="AE353" t="inlineStr"/>
       <c r="AF353" t="inlineStr">
         <is>
-          <t>4d2a20a2-1813-4430-ad3a-8e7a08cf1277</t>
+          <t>e4cb0f2c-345a-44fe-aa6a-c0f219c2fa26</t>
         </is>
       </c>
     </row>
@@ -34255,7 +34259,7 @@
       </c>
       <c r="AF354" t="inlineStr">
         <is>
-          <t>4493511a-784b-400e-b9d4-30e9d12f20db</t>
+          <t>61937797-9ceb-49bf-9cb4-6cf54b7f684d</t>
         </is>
       </c>
     </row>
@@ -34345,7 +34349,7 @@
       <c r="AE355" t="inlineStr"/>
       <c r="AF355" t="inlineStr">
         <is>
-          <t>e0dd8dd7-f284-4278-b79c-eeda187bceac</t>
+          <t>f0f000bb-7c94-400d-a570-9e4102b1b714</t>
         </is>
       </c>
     </row>
@@ -34443,7 +34447,7 @@
       </c>
       <c r="AF356" t="inlineStr">
         <is>
-          <t>1ec52c43-4bfa-4b21-8c67-d01452707504</t>
+          <t>52ec702c-f909-4795-a45b-381cb639d153</t>
         </is>
       </c>
     </row>
@@ -34533,7 +34537,7 @@
       <c r="AE357" t="inlineStr"/>
       <c r="AF357" t="inlineStr">
         <is>
-          <t>cbd2c29b-f4bb-47a5-9214-735ae14d3d59</t>
+          <t>83218a49-7d72-40a3-9888-5388e6da5702</t>
         </is>
       </c>
     </row>
@@ -34623,7 +34627,7 @@
       <c r="AE358" t="inlineStr"/>
       <c r="AF358" t="inlineStr">
         <is>
-          <t>c79070f1-57ae-4f13-8b3e-1b4abd5a57a9</t>
+          <t>e5f22ab7-5904-457b-a310-348bb1e22cf8</t>
         </is>
       </c>
     </row>
@@ -34715,7 +34719,7 @@
       <c r="AE359" t="inlineStr"/>
       <c r="AF359" t="inlineStr">
         <is>
-          <t>93657e10-7d3c-4f96-b44f-c70d3d7be85a</t>
+          <t>29b16535-65df-467f-9b68-fc9b7f039e54</t>
         </is>
       </c>
     </row>
@@ -34807,7 +34811,7 @@
       <c r="AE360" t="inlineStr"/>
       <c r="AF360" t="inlineStr">
         <is>
-          <t>3eb4e1fa-058a-4f33-b042-18be1579f1db</t>
+          <t>eb3f7665-46e6-40fc-9667-c0eaf76d014a</t>
         </is>
       </c>
     </row>
@@ -34897,7 +34901,7 @@
       <c r="AE361" t="inlineStr"/>
       <c r="AF361" t="inlineStr">
         <is>
-          <t>35beff83-d56e-4287-93c2-7c14103ef7d9</t>
+          <t>076f3198-b455-43b6-9b17-e9e629d4e8d2</t>
         </is>
       </c>
     </row>
@@ -34995,7 +34999,7 @@
       </c>
       <c r="AF362" t="inlineStr">
         <is>
-          <t>e899ca44-cae6-42fc-8e52-96d21bd06e53</t>
+          <t>58dd3779-6679-4314-b1b6-b11e61a74cbe</t>
         </is>
       </c>
     </row>
@@ -35093,7 +35097,7 @@
       </c>
       <c r="AF363" t="inlineStr">
         <is>
-          <t>a141cef8-4c3a-4b7f-be26-6aee956efbc3</t>
+          <t>e7a43141-ccc0-4948-905e-5c4cb137844b</t>
         </is>
       </c>
     </row>
@@ -35191,7 +35195,7 @@
       </c>
       <c r="AF364" t="inlineStr">
         <is>
-          <t>7890ac86-b777-456c-a315-a70ee5d929d5</t>
+          <t>3c0a1953-2ed6-4406-a938-5af7b38e7bf4</t>
         </is>
       </c>
     </row>
@@ -35289,7 +35293,7 @@
       </c>
       <c r="AF365" t="inlineStr">
         <is>
-          <t>65b43ac9-c4b0-4e03-b8ea-6d814ce1a263</t>
+          <t>6a99b6e6-6558-4a51-a504-fd88a621cd81</t>
         </is>
       </c>
     </row>
@@ -35385,7 +35389,7 @@
       <c r="AE366" t="inlineStr"/>
       <c r="AF366" t="inlineStr">
         <is>
-          <t>236d3393-def5-4997-9fa0-fd72a5641dd7</t>
+          <t>1becb399-f8ef-43a1-8145-aa4246e17c8a</t>
         </is>
       </c>
     </row>
@@ -35481,7 +35485,7 @@
       <c r="AE367" t="inlineStr"/>
       <c r="AF367" t="inlineStr">
         <is>
-          <t>1577672c-c628-4d5e-b683-5cd94d06eef0</t>
+          <t>79e51a5c-fcda-4694-bf43-727429f40101</t>
         </is>
       </c>
     </row>
@@ -35579,7 +35583,7 @@
       </c>
       <c r="AF368" t="inlineStr">
         <is>
-          <t>9d124f12-f076-4d3b-a7ef-005604dcf608</t>
+          <t>74ef6048-0dcc-4f14-a5e6-af9f9449176a</t>
         </is>
       </c>
     </row>
@@ -35675,7 +35679,7 @@
       <c r="AE369" t="inlineStr"/>
       <c r="AF369" t="inlineStr">
         <is>
-          <t>c7f893e9-8aff-463f-8e1b-4f8473136a21</t>
+          <t>082aeab0-4b11-414d-a1f5-b3bc4b59cc91</t>
         </is>
       </c>
     </row>
@@ -35771,7 +35775,7 @@
       <c r="AE370" t="inlineStr"/>
       <c r="AF370" t="inlineStr">
         <is>
-          <t>1dd7616c-1f84-4a5f-ae44-b992b041f950</t>
+          <t>5e8435da-ed46-448d-a62a-5ab3b0d741f5</t>
         </is>
       </c>
     </row>
@@ -35867,7 +35871,7 @@
       <c r="AE371" t="inlineStr"/>
       <c r="AF371" t="inlineStr">
         <is>
-          <t>ff365cf1-cf05-4c34-b0f0-56428f58df3b</t>
+          <t>ad8ac260-8456-49f0-8060-ba8a4d7da4fc</t>
         </is>
       </c>
     </row>
@@ -35957,7 +35961,7 @@
       <c r="AE372" t="inlineStr"/>
       <c r="AF372" t="inlineStr">
         <is>
-          <t>a60f8485-a934-4999-bf72-e8605cce9c81</t>
+          <t>839d8614-675d-4686-8d78-02240bafd85b</t>
         </is>
       </c>
     </row>
@@ -36057,7 +36061,7 @@
       <c r="AE373" t="inlineStr"/>
       <c r="AF373" t="inlineStr">
         <is>
-          <t>016316fd-d7f6-45e1-8cdb-5db6cdb0a965</t>
+          <t>2262f503-da72-4e58-9c9e-1accfe710b66</t>
         </is>
       </c>
     </row>
@@ -36149,7 +36153,7 @@
       <c r="AE374" t="inlineStr"/>
       <c r="AF374" t="inlineStr">
         <is>
-          <t>e2f91aa3-717f-435a-93ec-d3da7fbe8d69</t>
+          <t>8f74dd8c-d008-4156-848f-b651efdcd0f6</t>
         </is>
       </c>
     </row>
@@ -36241,7 +36245,7 @@
       <c r="AE375" t="inlineStr"/>
       <c r="AF375" t="inlineStr">
         <is>
-          <t>124efaf2-0798-4d76-9fb4-5034ad827d60</t>
+          <t>ab34e775-be7a-4e99-8b44-81efbe4abd1a</t>
         </is>
       </c>
     </row>
@@ -36343,7 +36347,7 @@
       </c>
       <c r="AF376" t="inlineStr">
         <is>
-          <t>2f5f00ae-51ec-4938-8c68-b0665a1b6355</t>
+          <t>4e12155a-daf8-4012-9935-3059ff536609</t>
         </is>
       </c>
     </row>
@@ -36445,7 +36449,7 @@
       </c>
       <c r="AF377" t="inlineStr">
         <is>
-          <t>6bc0e41b-229b-4975-b4cc-5890d9bcffec</t>
+          <t>4d68a879-2bb5-4b83-be9e-fa03f1604967</t>
         </is>
       </c>
     </row>
@@ -36543,7 +36547,7 @@
       </c>
       <c r="AF378" t="inlineStr">
         <is>
-          <t>440bbcd5-9c7a-4677-aa44-6a3e59fcc5e7</t>
+          <t>c5cb2f9f-dc08-47ff-a2dc-6f0d86cf619f</t>
         </is>
       </c>
     </row>
@@ -36639,7 +36643,7 @@
       <c r="AE379" t="inlineStr"/>
       <c r="AF379" t="inlineStr">
         <is>
-          <t>7c82beae-8efb-483d-b60c-75b301f6074f</t>
+          <t>df31e151-7dc2-4115-986d-e7a4000898c5</t>
         </is>
       </c>
     </row>
@@ -36731,7 +36735,7 @@
       <c r="AE380" t="inlineStr"/>
       <c r="AF380" t="inlineStr">
         <is>
-          <t>a9e4cd1a-db5a-4e49-aa5b-426da245b28b</t>
+          <t>5466da0c-095b-4d04-8169-3394309e08be</t>
         </is>
       </c>
     </row>
@@ -36829,7 +36833,7 @@
       </c>
       <c r="AF381" t="inlineStr">
         <is>
-          <t>44746317-89fd-43e2-98b0-4f2be0949021</t>
+          <t>4b614728-6b95-407c-ab7c-25123b33a11c</t>
         </is>
       </c>
     </row>
@@ -36927,7 +36931,7 @@
       </c>
       <c r="AF382" t="inlineStr">
         <is>
-          <t>0678c664-5a47-434a-b2ea-b999bcaf947b</t>
+          <t>d7f7f45a-3aa6-4a04-b0bc-bee6c9d8b20d</t>
         </is>
       </c>
     </row>
@@ -37029,7 +37033,7 @@
       </c>
       <c r="AF383" t="inlineStr">
         <is>
-          <t>4b92a0b3-1f66-43fc-b9da-747eae13e472</t>
+          <t>aef34b45-bb08-479c-bb1f-65adc49e0169</t>
         </is>
       </c>
     </row>
@@ -37123,7 +37127,7 @@
       </c>
       <c r="AF384" t="inlineStr">
         <is>
-          <t>98318ec4-6e26-4fd8-bfef-f0d528d78c48</t>
+          <t>7358ba6d-efcc-4e94-a61c-429924875bfb</t>
         </is>
       </c>
     </row>
@@ -37229,7 +37233,7 @@
       </c>
       <c r="AF385" t="inlineStr">
         <is>
-          <t>1c9dd2e6-7c06-4dc8-9852-ca0a8dcad38e</t>
+          <t>e13334cb-2080-4b6e-9b1e-f4857b154318</t>
         </is>
       </c>
     </row>
@@ -37319,7 +37323,7 @@
       <c r="AE386" t="inlineStr"/>
       <c r="AF386" t="inlineStr">
         <is>
-          <t>fb1069c8-14f0-4b6c-8c54-8d99df0e9f37</t>
+          <t>a6d2cc48-e637-46a4-8211-27b40a8628f3</t>
         </is>
       </c>
     </row>
@@ -37425,7 +37429,7 @@
       </c>
       <c r="AF387" t="inlineStr">
         <is>
-          <t>b7937829-4d7c-4374-be5d-f1e321801839</t>
+          <t>768d6f79-3f23-4d4a-b1bb-857dfeb49ce3</t>
         </is>
       </c>
     </row>
@@ -37527,7 +37531,7 @@
       </c>
       <c r="AF388" t="inlineStr">
         <is>
-          <t>982e8749-2068-469c-8055-90a334fe6d8b</t>
+          <t>796f9095-be63-422b-92ef-d295552abf63</t>
         </is>
       </c>
     </row>
@@ -37617,7 +37621,7 @@
       <c r="AE389" t="inlineStr"/>
       <c r="AF389" t="inlineStr">
         <is>
-          <t>278a20e1-c422-4d08-9720-004ba87a3eb0</t>
+          <t>4d7c9c1a-67e6-419a-8085-a0e1e4bd4145</t>
         </is>
       </c>
     </row>
@@ -37713,7 +37717,7 @@
       <c r="AE390" t="inlineStr"/>
       <c r="AF390" t="inlineStr">
         <is>
-          <t>afcda799-885c-49fa-9076-59a27a45d86f</t>
+          <t>a2da01e0-988b-461a-bd23-fbe41e5deb66</t>
         </is>
       </c>
     </row>
@@ -37809,7 +37813,7 @@
       <c r="AE391" t="inlineStr"/>
       <c r="AF391" t="inlineStr">
         <is>
-          <t>ba08c0b4-7dc0-4ec8-8adc-7b5f782849e2</t>
+          <t>7780b63f-02fe-4900-aa05-747dd1e2b748</t>
         </is>
       </c>
     </row>
@@ -37905,7 +37909,7 @@
       <c r="AE392" t="inlineStr"/>
       <c r="AF392" t="inlineStr">
         <is>
-          <t>718364e4-8047-4805-a580-3663e3edf25d</t>
+          <t>0e253206-5e2e-4cae-857f-e8acb3a7016b</t>
         </is>
       </c>
     </row>
@@ -38003,7 +38007,7 @@
       </c>
       <c r="AF393" t="inlineStr">
         <is>
-          <t>52e5f06b-48c8-426a-8d97-0448742a0623</t>
+          <t>257bc9ac-28fb-4658-aaf2-4a59bd64d3ee</t>
         </is>
       </c>
     </row>
@@ -38099,7 +38103,7 @@
       <c r="AE394" t="inlineStr"/>
       <c r="AF394" t="inlineStr">
         <is>
-          <t>c22ea11a-b7d2-4eca-bf5b-b9957d3e9aca</t>
+          <t>b677065e-c811-4f04-b30a-a34a2062a7df</t>
         </is>
       </c>
     </row>
@@ -38195,7 +38199,7 @@
       <c r="AE395" t="inlineStr"/>
       <c r="AF395" t="inlineStr">
         <is>
-          <t>bd9cb7e8-687a-4cf6-8cff-e2e54d6fe040</t>
+          <t>2931bfbd-27fe-42b8-a54a-23a737f99182</t>
         </is>
       </c>
     </row>
@@ -38295,7 +38299,7 @@
       <c r="AE396" t="inlineStr"/>
       <c r="AF396" t="inlineStr">
         <is>
-          <t>d5d41e0a-a20a-467c-a0f6-d9218bb0917e</t>
+          <t>59aa4553-465c-4b1a-969b-0562689cb405</t>
         </is>
       </c>
     </row>
@@ -38395,7 +38399,7 @@
       <c r="AE397" t="inlineStr"/>
       <c r="AF397" t="inlineStr">
         <is>
-          <t>03681600-90c0-459d-a077-ccde99e547c9</t>
+          <t>100c414d-a72b-4f43-a7f4-6cc6b628bcc0</t>
         </is>
       </c>
     </row>
@@ -38487,7 +38491,7 @@
       <c r="AE398" t="inlineStr"/>
       <c r="AF398" t="inlineStr">
         <is>
-          <t>96a06a2a-d8ad-4aae-92b8-2653b74a56d1</t>
+          <t>f1218a46-03dd-4ed2-a818-11f4cafe511c</t>
         </is>
       </c>
     </row>
@@ -38583,7 +38587,7 @@
       <c r="AE399" t="inlineStr"/>
       <c r="AF399" t="inlineStr">
         <is>
-          <t>9c7f47d7-6f70-416c-9f63-76e2a311a9d0</t>
+          <t>6c05c0e3-2dc9-4a15-a833-306176336694</t>
         </is>
       </c>
     </row>
@@ -38683,7 +38687,7 @@
       <c r="AE400" t="inlineStr"/>
       <c r="AF400" t="inlineStr">
         <is>
-          <t>f140b659-ed8e-4360-a335-2de8e23362cb</t>
+          <t>d936b087-205b-4908-887b-980e2a6e222b</t>
         </is>
       </c>
     </row>
@@ -38779,7 +38783,7 @@
       <c r="AE401" t="inlineStr"/>
       <c r="AF401" t="inlineStr">
         <is>
-          <t>083606eb-3aec-4500-9394-21f7267a1f93</t>
+          <t>b7d11bb1-7d35-48b5-9fb6-960ac49855c3</t>
         </is>
       </c>
     </row>
@@ -38875,7 +38879,7 @@
       <c r="AE402" t="inlineStr"/>
       <c r="AF402" t="inlineStr">
         <is>
-          <t>14e0711a-01bf-49bc-bbed-95ae6535265a</t>
+          <t>871a50ad-efbd-4d73-ad76-5556830b152d</t>
         </is>
       </c>
     </row>
@@ -38971,7 +38975,7 @@
       <c r="AE403" t="inlineStr"/>
       <c r="AF403" t="inlineStr">
         <is>
-          <t>c188bc54-c01b-477f-8828-cd362514f9d1</t>
+          <t>59fd72bc-bd67-47c5-b1eb-7217835753aa</t>
         </is>
       </c>
     </row>
@@ -39063,7 +39067,7 @@
       <c r="AE404" t="inlineStr"/>
       <c r="AF404" t="inlineStr">
         <is>
-          <t>f280d980-8a32-47df-a319-4574c93b6b09</t>
+          <t>577c09a9-235a-4736-add5-c526771b49fb</t>
         </is>
       </c>
     </row>
@@ -39159,7 +39163,7 @@
       <c r="AE405" t="inlineStr"/>
       <c r="AF405" t="inlineStr">
         <is>
-          <t>76e82c6a-3f74-44f9-a1ab-769e1a5a495e</t>
+          <t>85d8f507-2acf-49f2-9ed6-d72c86b5a753</t>
         </is>
       </c>
     </row>
@@ -39251,7 +39255,7 @@
       <c r="AE406" t="inlineStr"/>
       <c r="AF406" t="inlineStr">
         <is>
-          <t>7020f3b8-dd1c-412a-823b-8b32cbfb6657</t>
+          <t>c49672a2-cc67-4853-9964-2d3d47699c5d</t>
         </is>
       </c>
     </row>
@@ -39347,7 +39351,7 @@
       <c r="AE407" t="inlineStr"/>
       <c r="AF407" t="inlineStr">
         <is>
-          <t>ec3528ba-dd07-4c89-af31-795ef629d77b</t>
+          <t>afe80eae-05d1-4545-bf00-7734c2384633</t>
         </is>
       </c>
     </row>
@@ -39443,7 +39447,7 @@
       <c r="AE408" t="inlineStr"/>
       <c r="AF408" t="inlineStr">
         <is>
-          <t>6a1b2472-61df-4153-8403-e526bebd4a53</t>
+          <t>a119649b-271b-4baf-bbec-82593c47f338</t>
         </is>
       </c>
     </row>
@@ -39539,7 +39543,7 @@
       <c r="AE409" t="inlineStr"/>
       <c r="AF409" t="inlineStr">
         <is>
-          <t>705d0f4a-003b-4f28-934d-b5c57ac67af4</t>
+          <t>bb0b8d94-407f-4338-b47d-b921d53599ff</t>
         </is>
       </c>
     </row>
@@ -39635,7 +39639,7 @@
       <c r="AE410" t="inlineStr"/>
       <c r="AF410" t="inlineStr">
         <is>
-          <t>a3850073-5166-4629-bcfd-b7650abf328f</t>
+          <t>2cd2d8ee-5056-46ee-9a62-61eff0a6c981</t>
         </is>
       </c>
     </row>
@@ -39731,7 +39735,7 @@
       <c r="AE411" t="inlineStr"/>
       <c r="AF411" t="inlineStr">
         <is>
-          <t>9a1dc453-8d75-4d83-abab-9bce0916fb25</t>
+          <t>527dc5ae-a5fa-4d0f-858a-31180ac8bdd6</t>
         </is>
       </c>
     </row>
@@ -39827,7 +39831,7 @@
       <c r="AE412" t="inlineStr"/>
       <c r="AF412" t="inlineStr">
         <is>
-          <t>a9febefd-896a-4ee7-bd65-248efc4392f8</t>
+          <t>d6fd6f85-05d4-4c9e-9af5-fd84823a5cf8</t>
         </is>
       </c>
     </row>
@@ -39923,7 +39927,7 @@
       <c r="AE413" t="inlineStr"/>
       <c r="AF413" t="inlineStr">
         <is>
-          <t>c77e9071-f1f9-495e-bf68-2b1f4f610c26</t>
+          <t>3c53c60f-9419-4952-aeab-d08fe46def82</t>
         </is>
       </c>
     </row>
@@ -40019,7 +40023,7 @@
       <c r="AE414" t="inlineStr"/>
       <c r="AF414" t="inlineStr">
         <is>
-          <t>7f309c98-4848-4982-a9a8-ae69dd0bdaeb</t>
+          <t>243fc096-535e-4cec-9eb7-c70755875184</t>
         </is>
       </c>
     </row>
@@ -40111,7 +40115,7 @@
       <c r="AE415" t="inlineStr"/>
       <c r="AF415" t="inlineStr">
         <is>
-          <t>bfa7cbac-ec49-4b3c-b3e1-fad4ad8f7330</t>
+          <t>eb20f47d-058d-4d6e-90a0-8fa8477bd9c8</t>
         </is>
       </c>
     </row>
@@ -40207,7 +40211,7 @@
       <c r="AE416" t="inlineStr"/>
       <c r="AF416" t="inlineStr">
         <is>
-          <t>3f3e43e1-b85f-4b28-96df-6918339d1d24</t>
+          <t>21d3a46e-244e-4a2b-881d-71ba5672df0e</t>
         </is>
       </c>
     </row>
@@ -40299,7 +40303,7 @@
       <c r="AE417" t="inlineStr"/>
       <c r="AF417" t="inlineStr">
         <is>
-          <t>cd58a396-6944-4649-8b78-95a3f44a2dc7</t>
+          <t>e714e6fe-c73a-4275-bc7a-69db228a567a</t>
         </is>
       </c>
     </row>
@@ -40395,7 +40399,7 @@
       <c r="AE418" t="inlineStr"/>
       <c r="AF418" t="inlineStr">
         <is>
-          <t>9e997a7d-35cd-49ad-86de-adca92066af0</t>
+          <t>4c704491-887d-40c8-a9ea-487bfb09a372</t>
         </is>
       </c>
     </row>
@@ -40487,7 +40491,7 @@
       <c r="AE419" t="inlineStr"/>
       <c r="AF419" t="inlineStr">
         <is>
-          <t>c29abc73-e3d6-4160-8946-88acfa0fd269</t>
+          <t>5e47549c-c4d9-4dd5-9f00-c98060ce1247</t>
         </is>
       </c>
     </row>
@@ -40579,7 +40583,7 @@
       <c r="AE420" t="inlineStr"/>
       <c r="AF420" t="inlineStr">
         <is>
-          <t>dc54d67b-1e4a-402f-a30d-b5a642dee6f2</t>
+          <t>5b4f6684-071f-44a7-b7fe-9a2c33235b79</t>
         </is>
       </c>
     </row>
@@ -40665,7 +40669,7 @@
       <c r="AE421" t="inlineStr"/>
       <c r="AF421" t="inlineStr">
         <is>
-          <t>42fb098a-eeae-4903-ad1a-f1c957b1b56d</t>
+          <t>1182f249-c0ba-4675-8c9b-b88c62c6ff15</t>
         </is>
       </c>
     </row>
@@ -40763,7 +40767,7 @@
       </c>
       <c r="AF422" t="inlineStr">
         <is>
-          <t>3c31314e-bf91-40e6-9975-5eaa4137180b</t>
+          <t>ffce5a79-d852-4160-b4eb-14dd8ec8d39b</t>
         </is>
       </c>
     </row>
@@ -40833,7 +40837,7 @@
       </c>
       <c r="AF423" t="inlineStr">
         <is>
-          <t>3c22b106-0647-464f-b38a-0da83e1556c5</t>
+          <t>65b06988-cb91-4c89-9d1e-554ec1a6f616</t>
         </is>
       </c>
     </row>
@@ -40843,121 +40847,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CPF/CNPJ</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DATA</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>VALOR (R$)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>temp_id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3752795123</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>16/04/2025</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>999.98</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PROCESSADO</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>76ded398-eff4-4525-acd8-6208ad06f4e7</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3752795123</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>16/04/2025</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>999.98</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PROCESSADO</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ddbc5ea0-7c5f-49fa-9e2f-391c76659899</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2564721141</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>25/04/2025</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>120391283</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PROCESSADO</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3da78501-5fc4-4340-bce5-fb65098f3be9</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -41038,4 +40927,211 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CPF/CNPJ</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>VALOR (R$)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>temp_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3752795123</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>999.98</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PROCESSADO</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>995ea9e5-4e4a-4d2e-be77-f909c04da85f</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3752795123</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>999.98</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PROCESSADO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7008c0d4-f8e0-413b-9dd1-ca411b064bac</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2564721141</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>120391283</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PROCESSADO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>e7f72cb1-121d-4443-96a0-9f85d21c1f98</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PROCESSADO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18/04/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>90</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PROCESSADO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>19/04/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PROCESSADO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20/04/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>110</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PROCESSADO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/stores.xlsx
+++ b/stores.xlsx
@@ -41109,7 +41109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41156,10 +41156,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>48122775000166</v>
+        <v>41482895000125</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44851</v>
+        <v>44814</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -41177,7 +41177,405 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>603a5ec3-75b6-4298-bcbb-cd16245d6645</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>diaria</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8ef46a20-14dd-4a23-8bfc-abba878613d8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>diaria</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5c18c36d-7c59-494a-a746-c13c8d7f0793</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>diaria</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>89d8b3b5-6254-4a71-ad38-b84c6407735c</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>diaria</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2d39726f-e81c-4ca4-8933-3fb00e9d5200</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>diaria</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>diaria</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>diaria</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>diaria</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>diaria</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>diaria</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>diaria</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>41482895000125</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44814</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>diaria</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>48122775000166</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>diaria</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>93428308204</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44856</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>diaria</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -41315,7 +41713,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>c2681ffa-fad4-4d03-af3b-d91b9c89bb0e</t>
         </is>
       </c>
     </row>
@@ -41338,7 +41736,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5af92d9e-c0f0-4f81-8ac1-e28525593a7f</t>
         </is>
       </c>
     </row>
@@ -41361,7 +41759,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>b52e6bcc-c759-4507-9895-59cda8db3c8a</t>
         </is>
       </c>
     </row>
@@ -41384,7 +41782,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>88297ca1-1c47-4966-b0ba-5496d6f0977d</t>
         </is>
       </c>
     </row>
